--- a/gd/标准化文档/命名规范.xlsx
+++ b/gd/标准化文档/命名规范.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="7" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="time相关命名规范" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="eft_skill_attackCutSlight">资源相关命名规则!$E$4:$E$29</definedName>
+    <definedName name="eft_skill_attackCutSlight">资源相关命名规则!$E$4:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="640">
   <si>
     <t>客户端资源目录结构</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1216,31 +1216,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>战斗类特效资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eft_blt_特效作用名_特效区分+数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中攻击buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>如特效作用名已经可以区分，则不用后续特效区分以及数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理技能类特效资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>轻度物理攻击砍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术技能类特效资源</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1255,73 +1231,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>技能动作（Cut=划/砍/挥、Stab=戳/点/刺、Smash=砸/敲/撞）
-数字编号（1=轻度、2=中度、3=重度）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗技能类特效资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>轻度治疗</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>技能属性（Metal=金、Plant=木、Water=水、Fire=火、Earth=土）
-数字编号（1=轻度、2=中度、3=重度）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字编号（1=轻度、2=中度、3=重度）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>图标类资源</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>icon_blt_图标作用名_图标区分+数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_blt_buff_attack01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>如图标作用名已经可以区分，则不用后续特效区分以及数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss技能特效资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招类特效资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>九尾狐boss1技能特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eft_ult_怪物名_特效区分+数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>九尾狐大招技能特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_skill_技能动作+数字编号</t>
-  </si>
-  <si>
-    <t>icon_skill_技能属性+数字编号</t>
-  </si>
-  <si>
-    <t>icon_skill_cure+数字编号</t>
-  </si>
-  <si>
     <t>九尾狐boss1技能图标</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1334,68 +1251,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>icon_怪物名_图标作用+数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>九尾狐对话头像图标1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_jiuweihu_speech01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>物理技能类图标资源</t>
   </si>
   <si>
     <t>法术技能类图标资源</t>
   </si>
   <si>
-    <t>治疗技能类图标资源</t>
-  </si>
-  <si>
     <t>boss技能图标资源</t>
   </si>
   <si>
-    <t>icon_skill_boss名_图标区分+数字编号</t>
-  </si>
-  <si>
     <t>大招类图标资源</t>
   </si>
   <si>
-    <t>icon_道具名_图标状态+数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具star（未获得）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_star_disable01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他标识类图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_图标作用_图标区分+01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场未开战图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_arena_close01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>整图</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1440,30 +1307,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>如boss名已经可以区分，则不用后续特效区分以及数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>如怪物名已经可以区分，则不用后续特效区分以及数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>如道具名已经可以区分，则不用后续特效区分以及数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>如图标作用名已经可以区分，则不用后续特效区分以及数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eft_skill_技能ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eft_skill_技能ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>attackCutSlight</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1477,42 +1320,6 @@
   </si>
   <si>
     <t>magicCureSlight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eft_skill_magicWaterSlight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eft_skill_attackCutSlight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_skill_attackCutSlight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_skill_magicWaterSlight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eft_skill_magicCureSlight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_skill_magicCureSlight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eft_skill_Unityunmengze1jiuweihu1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_skill_Unityunmengze1jiuweihu1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_ult_ultjiuweihu</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2327,14 +2134,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>eft_blt_buff_attack01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eft_ult_ultjiuweihu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>云梦泽难度1boss对局</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2388,18 +2187,6 @@
   </si>
   <si>
     <t>音效类资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_ult_怪物名_图标区分+数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中攻击buff图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗（对局）类图标资源</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2461,10 +2248,6 @@
   </si>
   <si>
     <t>副本Id+Level数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yunmengze111Boss1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2685,23 +2468,107 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>怪物ID+wp+数字编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾狐弱点1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossYunmengze11Jiuweihu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossYunmengze11Jiuweihuwp01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>怪物ID（boss）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>怪物ID+wp+数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>九尾狐弱点1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossYunmengze11Jiuweihu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossYunmengze11Jiuweihuwp01</t>
+    <t>yunmengze11Boss1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackCutSlight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWaterSlight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicCureSlight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackCutSlight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicWaterSlight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_Unityunmengze1jiuweihu1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultjiuweihu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_jiuweihu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_技能spell id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆点特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟类特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能effect id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能effect id+p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast + 属性代号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性代号：光：Metal；暗：Earth；火：Fire；木：Plant；水：Water.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_skill_技能spell id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_怪物id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用的话用第一个出现的id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾狐头像图标</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3243,7 +3110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1"/>
@@ -3409,6 +3276,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3923,13 +3793,13 @@
         <v>42208</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>577</v>
+        <v>528</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>144</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="8" t="s">
@@ -3944,30 +3814,30 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="C14" s="4">
         <v>42217</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>578</v>
+        <v>529</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4134,16 +4004,16 @@
     <row r="2" spans="1:6" s="9" customFormat="1"/>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>554</v>
+        <v>505</v>
       </c>
       <c r="E3" s="71">
         <v>10249</v>
@@ -4151,13 +4021,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="E4" s="71">
         <v>20249</v>
@@ -4165,13 +4035,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="7" t="s">
-        <v>550</v>
+        <v>501</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="E5" s="71">
         <v>30014</v>
@@ -4179,13 +4049,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="7" t="s">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>553</v>
+        <v>504</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>557</v>
+        <v>508</v>
       </c>
       <c r="E6" s="71">
         <v>40019</v>
@@ -4194,19 +4064,19 @@
     <row r="8" spans="1:6" s="9" customFormat="1"/>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>558</v>
+        <v>509</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>559</v>
+        <v>510</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>560</v>
+        <v>511</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>561</v>
+        <v>512</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>562</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4275,24 +4145,24 @@
     <row r="2" spans="1:6" s="9" customFormat="1"/>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>563</v>
+        <v>514</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>564</v>
+        <v>515</v>
       </c>
       <c r="E3" s="72">
         <v>201510061326</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="D4" s="7" t="s">
-        <v>566</v>
+        <v>517</v>
       </c>
       <c r="E4" s="71">
         <v>10061326</v>
@@ -4300,7 +4170,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="7" t="s">
-        <v>567</v>
+        <v>518</v>
       </c>
       <c r="E5" s="71">
         <v>61326</v>
@@ -4308,7 +4178,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="D6" s="7" t="s">
-        <v>568</v>
+        <v>519</v>
       </c>
       <c r="E6" s="71">
         <v>1326</v>
@@ -4316,7 +4186,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="D7" s="7" t="s">
-        <v>569</v>
+        <v>520</v>
       </c>
       <c r="E7" s="71">
         <v>2015101326</v>
@@ -4324,7 +4194,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="D8" s="7" t="s">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="E8" s="71">
         <v>20151326</v>
@@ -4332,7 +4202,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="D9" s="7" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="E9" s="71">
         <v>20151013267</v>
@@ -4340,7 +4210,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="D10" s="7" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="E10" s="71">
         <v>201513267</v>
@@ -4348,7 +4218,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="D11" s="7" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="E11" s="71">
         <v>13267</v>
@@ -4356,7 +4226,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="D12" s="7" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="E12" s="71">
         <v>1013267</v>
@@ -4392,7 +4262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4435,33 +4305,33 @@
         <v>153</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>604</v>
+        <v>550</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>602</v>
+        <v>548</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>603</v>
+        <v>549</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>646</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
-        <v>625</v>
+        <v>570</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>624</v>
+        <v>569</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>627</v>
+        <v>572</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>626</v>
+        <v>571</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>623</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4469,13 +4339,13 @@
         <v>165</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>614</v>
+        <v>560</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>613</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4483,13 +4353,13 @@
         <v>166</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>616</v>
+        <v>561</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1"/>
@@ -4498,36 +4368,36 @@
         <v>154</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>607</v>
+        <v>553</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>609</v>
+        <v>555</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>610</v>
+        <v>556</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>611</v>
+        <v>557</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>612</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="7" t="s">
-        <v>669</v>
+        <v>618</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>608</v>
+        <v>554</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>672</v>
+        <v>616</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>605</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4535,36 +4405,36 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="7" t="s">
-        <v>621</v>
+        <v>566</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>624</v>
+        <v>569</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>610</v>
+        <v>556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>622</v>
+        <v>567</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>623</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="7" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4572,39 +4442,39 @@
         <v>173</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="7" t="s">
-        <v>619</v>
+        <v>564</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>620</v>
+        <v>565</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="7" t="s">
-        <v>618</v>
+        <v>563</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>617</v>
+        <v>562</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>167</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>606</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1"/>
@@ -4616,13 +4486,13 @@
         <v>161</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4630,13 +4500,13 @@
         <v>162</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>169</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>542</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1"/>
@@ -4705,8 +4575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4749,16 +4619,16 @@
         <v>183</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>670</v>
+        <v>614</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>671</v>
+        <v>615</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>673</v>
+        <v>617</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>668</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4766,33 +4636,33 @@
         <v>184</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>593</v>
+        <v>542</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>595</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="7" t="s">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>594</v>
+        <v>543</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>595</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -4847,7 +4717,7 @@
     <row r="2" spans="1:6" s="9" customFormat="1"/>
     <row r="3" spans="1:6" ht="66">
       <c r="A3" s="7" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>185</v>
@@ -4859,10 +4729,10 @@
         <v>199</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4946,7 +4816,7 @@
         <v>214</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4974,7 +4844,7 @@
         <v>216</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4988,24 +4858,24 @@
         <v>220</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="11" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>185</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>199</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5014,13 +4884,13 @@
         <v>186</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>200</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5029,13 +4899,13 @@
         <v>187</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>201</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5044,13 +4914,13 @@
         <v>188</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>202</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5059,13 +4929,13 @@
         <v>189</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>203</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5074,13 +4944,13 @@
         <v>190</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>204</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>514</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5089,13 +4959,13 @@
         <v>208</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>214</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5104,13 +4974,13 @@
         <v>209</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>215</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5119,13 +4989,13 @@
         <v>210</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>216</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>517</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5134,19 +5004,19 @@
         <v>218</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>220</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1"/>
     <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>229</v>
@@ -5158,7 +5028,7 @@
         <v>225</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>642</v>
+        <v>587</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>228</v>
@@ -5175,282 +5045,282 @@
         <v>232</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>643</v>
+        <v>588</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>644</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="7" t="s">
-        <v>662</v>
+        <v>607</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>663</v>
+        <v>608</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>664</v>
+        <v>609</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>665</v>
+        <v>610</v>
       </c>
       <c r="F26" s="11"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>641</v>
+        <v>586</v>
       </c>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="7" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>232</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>645</v>
+        <v>590</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>644</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="7" t="s">
-        <v>662</v>
+        <v>607</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>666</v>
+        <v>611</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>664</v>
+        <v>609</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>667</v>
+        <v>612</v>
       </c>
       <c r="F30" s="11"/>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1"/>
     <row r="33" spans="1:6" s="34" customFormat="1" ht="33">
       <c r="A33" s="34" t="s">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>649</v>
+        <v>594</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>628</v>
+        <v>573</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>648</v>
+        <v>593</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="34" customFormat="1">
       <c r="B34" s="34" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>637</v>
+        <v>582</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>629</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="34" customFormat="1"/>
     <row r="36" spans="1:6" s="34" customFormat="1" ht="33">
       <c r="A36" s="34" t="s">
-        <v>526</v>
+        <v>477</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>650</v>
+        <v>595</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>631</v>
+        <v>576</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>648</v>
+        <v>593</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="34" customFormat="1">
       <c r="B37" s="34" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>638</v>
+        <v>583</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>630</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="34" customFormat="1"/>
     <row r="39" spans="1:6" s="34" customFormat="1" ht="33">
       <c r="A39" s="34" t="s">
-        <v>527</v>
+        <v>478</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>651</v>
+        <v>596</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>632</v>
+        <v>577</v>
       </c>
       <c r="F39" s="69" t="s">
-        <v>648</v>
+        <v>593</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="34" customFormat="1">
       <c r="B40" s="34" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>639</v>
+        <v>584</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>633</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="34" customFormat="1"/>
     <row r="42" spans="1:6" s="34" customFormat="1" ht="33">
       <c r="A42" s="34" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>652</v>
+        <v>597</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>634</v>
+        <v>579</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>648</v>
+        <v>593</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="34" customFormat="1">
       <c r="B43" s="34" t="s">
-        <v>647</v>
+        <v>592</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>658</v>
+        <v>603</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>659</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="34" customFormat="1"/>
     <row r="45" spans="1:6" s="34" customFormat="1" ht="33">
       <c r="A45" s="34" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>653</v>
+        <v>598</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>635</v>
+        <v>580</v>
       </c>
       <c r="F45" s="69" t="s">
-        <v>648</v>
+        <v>593</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="34" customFormat="1">
       <c r="B46" s="34" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>656</v>
+        <v>601</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>658</v>
+        <v>603</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>660</v>
+        <v>605</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="34" customFormat="1"/>
     <row r="48" spans="1:6" s="34" customFormat="1" ht="33">
       <c r="A48" s="34" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>654</v>
+        <v>599</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>636</v>
+        <v>581</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>648</v>
+        <v>593</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="34" customFormat="1">
       <c r="B49" s="34" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>657</v>
+        <v>602</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>658</v>
+        <v>603</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>661</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="34" customFormat="1"/>
     <row r="51" spans="1:5" s="34" customFormat="1">
       <c r="A51" s="73" t="s">
-        <v>640</v>
+        <v>585</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="34" customFormat="1"/>
@@ -5487,8 +5357,8 @@
   </sheetPr>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H65" sqref="H64:H65"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5499,41 +5369,41 @@
   <sheetData>
     <row r="1" spans="1:9" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="7" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="7" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="7" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="34" customFormat="1">
@@ -5544,150 +5414,150 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="7" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="C10" s="7" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="C11" s="7" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="12" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="7" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" s="7" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="D16" s="7" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="D18" s="7" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="C20" s="7" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="D21" s="7" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="E22" s="7" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="D23" s="7" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="E24" s="7" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="C25" s="7" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="D26" s="7" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="E27" s="7" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="12" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="7" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="C31" s="7" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="D32" s="7" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1">
       <c r="A34" s="31" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="B35" s="7" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="C36" s="7" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="D37" s="7" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="9" customFormat="1">
@@ -5695,67 +5565,67 @@
         <v>17</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" s="7" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="C41" s="7" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="D42" s="7" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" s="7" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="C44" s="7" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="D45" s="7" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="C46" s="7" t="s">
-        <v>600</v>
+        <v>546</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25">
       <c r="D47" s="74" t="s">
-        <v>601</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" s="7" t="s">
-        <v>584</v>
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="C49" s="7" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="B50" s="7" t="s">
-        <v>586</v>
+        <v>535</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="C51" s="7" t="s">
-        <v>587</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="9" customFormat="1">
@@ -5763,136 +5633,136 @@
         <v>18</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="B55" s="7" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="C56" s="7" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="D57" s="7" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="B59" s="7" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="C60" s="7" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="D61" s="7" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="B63" s="7" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="C64" s="7" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="D65" s="7" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="9" customFormat="1">
       <c r="A67" s="31" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="B68" s="7" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" s="7" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="B70" s="7" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="9" customFormat="1">
       <c r="A73" s="31" t="s">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="B73" s="32"/>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" s="12" t="s">
-        <v>457</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" s="7" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="C76" s="7" t="s">
-        <v>458</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="C77" s="7" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" s="12" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="B80" s="7" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="C81" s="7" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="C82" s="7" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="12" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="7" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="C86" s="7" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5920,29 +5790,29 @@
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1">
       <c r="A1" s="31" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>467</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="34" customFormat="1">
       <c r="A2" s="33"/>
       <c r="B2" s="34" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>470</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="12" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5950,67 +5820,67 @@
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="7" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="7" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="7" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" s="7" t="s">
-        <v>475</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="7" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="7" t="s">
-        <v>476</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" s="7" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" s="7" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="D17" s="7" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="C19" s="7" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="C20" s="7" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="D21" s="7" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="12" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -6018,75 +5888,75 @@
     </row>
     <row r="25" spans="2:4">
       <c r="C25" s="7" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="7" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="D27" s="7" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="C29" s="7" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="C30" s="7" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="D31" s="7" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="C33" s="7" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="C34" s="7" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="D35" s="7" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="C37" s="7" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="7" t="s">
-        <v>491</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="D39" s="7" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="9" customFormat="1">
       <c r="A41" s="31" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="B42" s="7" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="9" customFormat="1">
@@ -6094,7 +5964,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6102,7 +5972,7 @@
         <v>20</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -6110,30 +5980,30 @@
         <v>21</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="7" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="C54" s="7" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="C55" s="7" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="D56" s="7" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -6146,8 +6016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6167,7 +6037,7 @@
       <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="95" t="s">
         <v>111</v>
       </c>
       <c r="G2" s="37" t="s">
@@ -6178,7 +6048,7 @@
       <c r="B3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="95"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="38" t="s">
         <v>108</v>
       </c>
@@ -6187,7 +6057,7 @@
       <c r="B4" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="95"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="39" t="s">
         <v>110</v>
       </c>
@@ -6196,7 +6066,7 @@
       <c r="B5" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="96"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="40" t="s">
         <v>112</v>
       </c>
@@ -6228,7 +6098,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="79" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="46" t="s">
@@ -6236,7 +6106,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B10" s="80"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="46" t="s">
         <v>24</v>
       </c>
@@ -6256,10 +6126,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="79" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="46" t="s">
@@ -6267,8 +6137,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="39" t="s">
         <v>24</v>
       </c>
@@ -6277,7 +6147,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B14" s="79"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="50" t="s">
         <v>47</v>
       </c>
@@ -6287,79 +6157,79 @@
       <c r="E14" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="82" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B15" s="79"/>
-      <c r="C15" s="78" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="79" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="82"/>
+      <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="82"/>
+      <c r="F16" s="83"/>
     </row>
     <row r="17" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="82"/>
+      <c r="F17" s="83"/>
     </row>
     <row r="18" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="82"/>
+      <c r="F18" s="83"/>
     </row>
     <row r="19" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="83"/>
+      <c r="F19" s="84"/>
     </row>
     <row r="20" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="52" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="46" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="39" t="s">
         <v>24</v>
       </c>
@@ -6368,8 +6238,8 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="50" t="s">
         <v>71</v>
       </c>
@@ -6379,87 +6249,87 @@
       <c r="F23" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="82" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="78" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="76" t="s">
         <v>62</v>
       </c>
       <c r="F24" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="82"/>
+      <c r="G24" s="83"/>
     </row>
     <row r="25" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="76"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="77"/>
       <c r="F25" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="82"/>
+      <c r="G25" s="83"/>
     </row>
     <row r="26" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="76"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="82"/>
+      <c r="G26" s="83"/>
     </row>
     <row r="27" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="76"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="82"/>
+      <c r="G27" s="83"/>
     </row>
     <row r="28" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="76"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="77"/>
       <c r="F28" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="83"/>
+      <c r="G28" s="84"/>
     </row>
     <row r="29" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="76"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="38" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="76"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="77"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="46" t="s">
         <v>24</v>
       </c>
@@ -6468,114 +6338,114 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
       <c r="E32" s="50" t="s">
         <v>77</v>
       </c>
       <c r="F32" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="97" t="s">
+      <c r="G32" s="98" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="75" t="s">
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="76" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="98"/>
+      <c r="G33" s="99"/>
     </row>
     <row r="34" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="76"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="77"/>
       <c r="F34" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="98"/>
+      <c r="G34" s="99"/>
     </row>
     <row r="35" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="76"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="77"/>
       <c r="F35" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="98"/>
+      <c r="G35" s="99"/>
     </row>
     <row r="36" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="76"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="77"/>
       <c r="F36" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="G36" s="98"/>
+      <c r="G36" s="99"/>
     </row>
     <row r="37" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="76"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="77"/>
       <c r="F37" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="98"/>
+      <c r="G37" s="99"/>
     </row>
     <row r="38" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="76"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="77"/>
       <c r="F38" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="98"/>
+      <c r="G38" s="99"/>
     </row>
     <row r="39" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="76"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="98"/>
+      <c r="G39" s="99"/>
     </row>
     <row r="40" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="76"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="77"/>
       <c r="F40" s="38" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="76"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="77"/>
       <c r="F41" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="77"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="78"/>
       <c r="F42" s="46" t="s">
         <v>24</v>
       </c>
@@ -6584,94 +6454,94 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
       <c r="E43" s="50" t="s">
         <v>78</v>
       </c>
       <c r="F43" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="81" t="s">
+      <c r="G43" s="82" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="75" t="s">
-        <v>413</v>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="76" t="s">
+        <v>364</v>
       </c>
       <c r="F44" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="82"/>
+      <c r="G44" s="83"/>
     </row>
     <row r="45" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="76"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="77"/>
       <c r="F45" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="G45" s="82"/>
+      <c r="G45" s="83"/>
     </row>
     <row r="46" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="76"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="77"/>
       <c r="F46" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="G46" s="82"/>
+      <c r="G46" s="83"/>
     </row>
     <row r="47" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="76"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="77"/>
       <c r="F47" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="G47" s="82"/>
+      <c r="G47" s="83"/>
     </row>
     <row r="48" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="76"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="77"/>
       <c r="F48" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="83"/>
+      <c r="G48" s="84"/>
     </row>
     <row r="49" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="76"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="77"/>
       <c r="F49" s="38" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="76"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="77"/>
       <c r="F50" s="55" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="77"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="78"/>
       <c r="F51" s="46" t="s">
         <v>24</v>
       </c>
@@ -6680,85 +6550,85 @@
       </c>
     </row>
     <row r="52" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
       <c r="D52" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E52" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="81" t="s">
+      <c r="F52" s="82" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="78" t="s">
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="79" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="82"/>
+      <c r="F53" s="83"/>
     </row>
     <row r="54" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
       <c r="E54" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="F54" s="82"/>
+      <c r="F54" s="83"/>
     </row>
     <row r="55" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B55" s="79"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
       <c r="E55" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="82"/>
+      <c r="F55" s="83"/>
     </row>
     <row r="56" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="F56" s="82"/>
+      <c r="F56" s="83"/>
     </row>
     <row r="57" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
       <c r="E57" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F57" s="83"/>
+      <c r="F57" s="84"/>
     </row>
     <row r="58" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
       <c r="E58" s="52" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
       <c r="E59" s="46" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B60" s="79"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
       <c r="E60" s="39" t="s">
         <v>24</v>
       </c>
@@ -6767,7 +6637,7 @@
       </c>
     </row>
     <row r="61" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B61" s="79"/>
+      <c r="B61" s="80"/>
       <c r="C61" s="50" t="s">
         <v>48</v>
       </c>
@@ -6779,8 +6649,8 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B62" s="79"/>
-      <c r="C62" s="75" t="s">
+      <c r="B62" s="80"/>
+      <c r="C62" s="76" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="46" t="s">
@@ -6789,24 +6659,24 @@
       <c r="E62" s="54"/>
     </row>
     <row r="63" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B63" s="79"/>
-      <c r="C63" s="79"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
       <c r="D63" s="58" t="s">
         <v>81</v>
       </c>
       <c r="E63" s="46"/>
     </row>
     <row r="64" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B64" s="79"/>
-      <c r="C64" s="76"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="77"/>
       <c r="D64" s="46" t="s">
         <v>86</v>
       </c>
       <c r="E64" s="55"/>
     </row>
     <row r="65" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B65" s="79"/>
-      <c r="C65" s="80"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="81"/>
       <c r="D65" s="35" t="s">
         <v>24</v>
       </c>
@@ -6815,7 +6685,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B66" s="79"/>
+      <c r="B66" s="80"/>
       <c r="C66" s="50" t="s">
         <v>49</v>
       </c>
@@ -6825,78 +6695,78 @@
       <c r="E66" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="81" t="s">
+      <c r="F66" s="82" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B67" s="79"/>
-      <c r="C67" s="78" t="s">
+      <c r="B67" s="80"/>
+      <c r="C67" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="78" t="s">
+      <c r="D67" s="79" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="F67" s="82"/>
+      <c r="F67" s="83"/>
     </row>
     <row r="68" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B68" s="79"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="76"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="77"/>
       <c r="E68" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="82"/>
+      <c r="F68" s="83"/>
     </row>
     <row r="69" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B69" s="79"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
       <c r="E69" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="F69" s="82"/>
+      <c r="F69" s="83"/>
     </row>
     <row r="70" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B70" s="79"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="76"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="77"/>
       <c r="E70" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="82"/>
+      <c r="F70" s="83"/>
     </row>
     <row r="71" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B71" s="79"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="79"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
       <c r="E71" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F71" s="83"/>
+      <c r="F71" s="84"/>
     </row>
     <row r="72" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="76"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="77"/>
       <c r="E72" s="38" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B73" s="79"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="80"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="81"/>
       <c r="E73" s="39" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B74" s="79"/>
-      <c r="C74" s="80"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="81"/>
       <c r="D74" s="35" t="s">
         <v>24</v>
       </c>
@@ -6905,7 +6775,7 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B75" s="79"/>
+      <c r="B75" s="80"/>
       <c r="C75" s="50" t="s">
         <v>50</v>
       </c>
@@ -6917,11 +6787,11 @@
       </c>
     </row>
     <row r="76" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B76" s="79"/>
-      <c r="C76" s="78" t="s">
+      <c r="B76" s="80"/>
+      <c r="C76" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="75" t="s">
+      <c r="D76" s="76" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="54" t="s">
@@ -6929,72 +6799,72 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B77" s="79"/>
-      <c r="C77" s="79"/>
-      <c r="D77" s="76"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="77"/>
       <c r="E77" s="45" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B78" s="79"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="76"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="77"/>
       <c r="E78" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B79" s="79"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="76"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="77"/>
       <c r="E79" s="45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="76"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="77"/>
       <c r="E80" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B81" s="79"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="76"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="80"/>
+      <c r="D81" s="77"/>
       <c r="E81" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B82" s="79"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="76"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="77"/>
       <c r="E82" s="55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B83" s="79"/>
-      <c r="C83" s="79"/>
-      <c r="D83" s="76"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="77"/>
       <c r="E83" s="38" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B84" s="79"/>
-      <c r="C84" s="79"/>
-      <c r="D84" s="77"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="78"/>
       <c r="E84" s="46" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B85" s="79"/>
-      <c r="C85" s="80"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="81"/>
       <c r="D85" s="35" t="s">
         <v>24</v>
       </c>
@@ -7003,7 +6873,7 @@
       </c>
     </row>
     <row r="86" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B86" s="79"/>
+      <c r="B86" s="80"/>
       <c r="C86" s="50" t="s">
         <v>51</v>
       </c>
@@ -7013,168 +6883,168 @@
       <c r="E86" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="G86" s="81" t="s">
+      <c r="G86" s="82" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B87" s="79"/>
-      <c r="C87" s="78" t="s">
+      <c r="B87" s="80"/>
+      <c r="C87" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="78" t="s">
+      <c r="D87" s="79" t="s">
         <v>26</v>
       </c>
       <c r="E87" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="G87" s="82"/>
+      <c r="G87" s="83"/>
     </row>
     <row r="88" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B88" s="79"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="79"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
       <c r="E88" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="G88" s="82"/>
+      <c r="G88" s="83"/>
     </row>
     <row r="89" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B89" s="79"/>
-      <c r="C89" s="79"/>
-      <c r="D89" s="79"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
       <c r="E89" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="G89" s="82"/>
+      <c r="G89" s="83"/>
     </row>
     <row r="90" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B90" s="79"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="79"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
       <c r="E90" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="G90" s="82"/>
+      <c r="G90" s="83"/>
     </row>
     <row r="91" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B91" s="79"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="79"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="80"/>
       <c r="E91" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="G91" s="82"/>
+      <c r="G91" s="83"/>
     </row>
     <row r="92" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B92" s="79"/>
-      <c r="C92" s="79"/>
-      <c r="D92" s="79"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="80"/>
       <c r="E92" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="G92" s="82"/>
+      <c r="G92" s="83"/>
     </row>
     <row r="93" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B93" s="79"/>
-      <c r="C93" s="79"/>
-      <c r="D93" s="79"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
       <c r="E93" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="G93" s="82"/>
+      <c r="G93" s="83"/>
     </row>
     <row r="94" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B94" s="79"/>
-      <c r="C94" s="79"/>
-      <c r="D94" s="80"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="80"/>
+      <c r="D94" s="81"/>
       <c r="E94" s="46" t="s">
         <v>24</v>
       </c>
       <c r="F94" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G94" s="82"/>
+      <c r="G94" s="83"/>
     </row>
     <row r="95" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B95" s="79"/>
-      <c r="C95" s="79"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="80"/>
       <c r="D95" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G95" s="82"/>
+      <c r="G95" s="83"/>
     </row>
     <row r="96" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B96" s="79"/>
-      <c r="C96" s="79"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="80"/>
       <c r="D96" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G96" s="82"/>
+      <c r="G96" s="83"/>
     </row>
     <row r="97" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B97" s="79"/>
-      <c r="C97" s="79"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="80"/>
       <c r="D97" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="G97" s="82"/>
+      <c r="G97" s="83"/>
     </row>
     <row r="98" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B98" s="79"/>
-      <c r="C98" s="79"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="80"/>
       <c r="D98" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="G98" s="82"/>
+      <c r="G98" s="83"/>
     </row>
     <row r="99" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B99" s="79"/>
-      <c r="C99" s="79"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="80"/>
       <c r="D99" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="G99" s="82"/>
+      <c r="G99" s="83"/>
     </row>
     <row r="100" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B100" s="79"/>
-      <c r="C100" s="79"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="80"/>
       <c r="D100" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G100" s="82"/>
+      <c r="G100" s="83"/>
     </row>
     <row r="101" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B101" s="79"/>
-      <c r="C101" s="79"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="80"/>
       <c r="D101" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="G101" s="82"/>
+      <c r="G101" s="83"/>
     </row>
     <row r="102" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B102" s="79"/>
-      <c r="C102" s="79"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="80"/>
       <c r="D102" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G102" s="82"/>
+      <c r="G102" s="83"/>
     </row>
     <row r="103" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B103" s="79"/>
-      <c r="C103" s="79"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="80"/>
       <c r="D103" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="G103" s="82"/>
+      <c r="G103" s="83"/>
     </row>
     <row r="104" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B104" s="80"/>
-      <c r="C104" s="80"/>
+      <c r="B104" s="81"/>
+      <c r="C104" s="81"/>
       <c r="D104" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G104" s="83"/>
+      <c r="G104" s="84"/>
     </row>
     <row r="105" spans="2:7" ht="17.25" thickBot="1">
       <c r="B105" s="48" t="s">
@@ -7188,31 +7058,31 @@
       </c>
     </row>
     <row r="106" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B106" s="78" t="s">
+      <c r="B106" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C106" s="78" t="s">
+      <c r="C106" s="79" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="90" t="s">
-        <v>382</v>
-      </c>
-      <c r="G106" s="91"/>
+      <c r="F106" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="G106" s="92"/>
     </row>
     <row r="107" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B107" s="80"/>
-      <c r="C107" s="80"/>
+      <c r="B107" s="81"/>
+      <c r="C107" s="81"/>
       <c r="D107" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E107" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="F107" s="92"/>
-      <c r="G107" s="93"/>
+      <c r="F107" s="93"/>
+      <c r="G107" s="94"/>
     </row>
     <row r="108" spans="2:7" ht="17.25" thickBot="1">
       <c r="B108" s="48" t="s">
@@ -7226,10 +7096,10 @@
       </c>
     </row>
     <row r="109" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B109" s="78" t="s">
-        <v>466</v>
-      </c>
-      <c r="C109" s="78" t="s">
+      <c r="B109" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="C109" s="79" t="s">
         <v>3</v>
       </c>
       <c r="D109" s="54" t="s">
@@ -7237,35 +7107,35 @@
       </c>
     </row>
     <row r="110" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B110" s="79"/>
-      <c r="C110" s="79"/>
+      <c r="B110" s="80"/>
+      <c r="C110" s="80"/>
       <c r="D110" s="45" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="111" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B111" s="79"/>
-      <c r="C111" s="79"/>
+      <c r="B111" s="80"/>
+      <c r="C111" s="80"/>
       <c r="D111" s="55" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="112" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B112" s="79"/>
-      <c r="C112" s="79"/>
+      <c r="B112" s="80"/>
+      <c r="C112" s="80"/>
       <c r="D112" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B113" s="79"/>
-      <c r="C113" s="80"/>
+      <c r="B113" s="80"/>
+      <c r="C113" s="81"/>
       <c r="D113" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B114" s="79"/>
+      <c r="B114" s="80"/>
       <c r="C114" s="50" t="s">
         <v>5</v>
       </c>
@@ -7280,43 +7150,43 @@
       </c>
     </row>
     <row r="115" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B115" s="79"/>
-      <c r="C115" s="78" t="s">
+      <c r="B115" s="80"/>
+      <c r="C115" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="78" t="s">
+      <c r="D115" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E115" s="87" t="s">
-        <v>464</v>
+      <c r="E115" s="88" t="s">
+        <v>415</v>
       </c>
       <c r="F115" s="46" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B116" s="79"/>
-      <c r="C116" s="79"/>
-      <c r="D116" s="79"/>
-      <c r="E116" s="88"/>
+      <c r="B116" s="80"/>
+      <c r="C116" s="80"/>
+      <c r="D116" s="80"/>
+      <c r="E116" s="89"/>
       <c r="F116" s="52" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B117" s="79"/>
-      <c r="C117" s="79"/>
-      <c r="D117" s="79"/>
-      <c r="E117" s="88"/>
+      <c r="B117" s="80"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="80"/>
+      <c r="E117" s="89"/>
       <c r="F117" s="67" t="s">
-        <v>465</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B118" s="79"/>
-      <c r="C118" s="79"/>
-      <c r="D118" s="79"/>
-      <c r="E118" s="89"/>
+      <c r="B118" s="80"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="80"/>
+      <c r="E118" s="90"/>
       <c r="F118" s="55" t="s">
         <v>24</v>
       </c>
@@ -7325,9 +7195,9 @@
       </c>
     </row>
     <row r="119" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B119" s="79"/>
-      <c r="C119" s="79"/>
-      <c r="D119" s="80"/>
+      <c r="B119" s="80"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="81"/>
       <c r="E119" s="35" t="s">
         <v>24</v>
       </c>
@@ -7336,8 +7206,8 @@
       </c>
     </row>
     <row r="120" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B120" s="79"/>
-      <c r="C120" s="79"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="80"/>
       <c r="D120" s="48" t="s">
         <v>97</v>
       </c>
@@ -7349,12 +7219,12 @@
       </c>
     </row>
     <row r="121" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B121" s="79"/>
-      <c r="C121" s="79"/>
-      <c r="D121" s="78" t="s">
+      <c r="B121" s="80"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E121" s="78" t="s">
+      <c r="E121" s="79" t="s">
         <v>25</v>
       </c>
       <c r="F121" s="46" t="s">
@@ -7362,28 +7232,28 @@
       </c>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="79"/>
-      <c r="C122" s="79"/>
-      <c r="D122" s="79"/>
-      <c r="E122" s="79"/>
+      <c r="B122" s="80"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="80"/>
       <c r="F122" s="64" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B123" s="79"/>
-      <c r="C123" s="79"/>
-      <c r="D123" s="79"/>
-      <c r="E123" s="79"/>
+      <c r="B123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="80"/>
+      <c r="E123" s="80"/>
       <c r="F123" s="7" t="s">
-        <v>465</v>
+        <v>416</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B124" s="79"/>
-      <c r="C124" s="79"/>
-      <c r="D124" s="79"/>
-      <c r="E124" s="80"/>
+      <c r="B124" s="80"/>
+      <c r="C124" s="80"/>
+      <c r="D124" s="80"/>
+      <c r="E124" s="81"/>
       <c r="F124" s="55" t="s">
         <v>24</v>
       </c>
@@ -7392,9 +7262,9 @@
       </c>
     </row>
     <row r="125" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B125" s="79"/>
-      <c r="C125" s="80"/>
-      <c r="D125" s="80"/>
+      <c r="B125" s="80"/>
+      <c r="C125" s="81"/>
+      <c r="D125" s="81"/>
       <c r="E125" s="65" t="s">
         <v>24</v>
       </c>
@@ -7403,21 +7273,21 @@
       </c>
     </row>
     <row r="126" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B126" s="76"/>
+      <c r="B126" s="77"/>
       <c r="C126" s="45" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="66"/>
     </row>
     <row r="127" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B127" s="79"/>
+      <c r="B127" s="80"/>
       <c r="C127" s="51" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="46"/>
     </row>
     <row r="128" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B128" s="79"/>
+      <c r="B128" s="80"/>
       <c r="C128" s="50" t="s">
         <v>10</v>
       </c>
@@ -7426,8 +7296,8 @@
       </c>
     </row>
     <row r="129" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B129" s="79"/>
-      <c r="C129" s="84" t="s">
+      <c r="B129" s="80"/>
+      <c r="C129" s="85" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="55" t="s">
@@ -7435,36 +7305,36 @@
       </c>
     </row>
     <row r="130" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B130" s="79"/>
-      <c r="C130" s="85"/>
+      <c r="B130" s="80"/>
+      <c r="C130" s="86"/>
       <c r="D130" s="45" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="131" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B131" s="79"/>
-      <c r="C131" s="85"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="86"/>
       <c r="D131" s="55" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B132" s="79"/>
-      <c r="C132" s="85"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="86"/>
       <c r="D132" s="45" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="133" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B133" s="80"/>
-      <c r="C133" s="86"/>
+      <c r="B133" s="81"/>
+      <c r="C133" s="87"/>
       <c r="D133" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="134" spans="2:4">
       <c r="B134" s="35" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -7514,13 +7384,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor theme="1" tint="0.34998626667073579"/>
-  </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7559,359 +7426,232 @@
       <c r="A3" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>306</v>
-      </c>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
-        <v>307</v>
+        <v>629</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>364</v>
+        <v>632</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>371</v>
+        <v>620</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="7" t="s">
-        <v>309</v>
+        <v>630</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>364</v>
+        <v>633</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>370</v>
+        <v>621</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="28"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C13" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="7" t="s">
+      <c r="C14" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="F18" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="D8" s="7" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>582</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1"/>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="E11" s="28"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="E12" s="28"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="E13" s="28"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="28"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="E15" s="28"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="E16" s="28"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="E17" s="28"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="E18" s="28"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="E19" s="28"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1"/>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="33">
-      <c r="B22" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="33">
-      <c r="B23" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>315</v>
-      </c>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="D23" s="75"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>316</v>
-      </c>
+      <c r="D24" s="75"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>360</v>
-      </c>
+      <c r="D25" s="75"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="B26" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>361</v>
-      </c>
+      <c r="D26" s="75"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>361</v>
-      </c>
+      <c r="D27" s="75"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="B28" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="D28" s="75"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="B29" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="9" customFormat="1"/>
+      <c r="D29" s="75"/>
+    </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>358</v>
-      </c>
+      <c r="D31" s="75"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="B33" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="9" customFormat="1"/>
-    <row r="35" spans="1:6">
-      <c r="A35" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>300</v>
-      </c>
+      <c r="D32" s="75"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/gd/标准化文档/命名规范.xlsx
+++ b/gd/标准化文档/命名规范.xlsx
@@ -1,86 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="7" r:id="rId1"/>
-    <sheet name="副本相关命名规则" sheetId="2" r:id="rId2"/>
-    <sheet name="弱点相关命名规则" sheetId="6" r:id="rId3"/>
-    <sheet name="技能相关命名规则" sheetId="4" r:id="rId4"/>
-    <sheet name="Perfabs相关命名规则" sheetId="10" r:id="rId5"/>
-    <sheet name="SourceAsset相关命名规则" sheetId="11" r:id="rId6"/>
-    <sheet name="客户端基础结构" sheetId="1" r:id="rId7"/>
+    <sheet name="客户端目录结构" sheetId="14" r:id="rId2"/>
+    <sheet name="副本相关命名规则" sheetId="2" r:id="rId3"/>
+    <sheet name="弱点相关命名规则" sheetId="6" r:id="rId4"/>
+    <sheet name="技能相关命名规则" sheetId="4" r:id="rId5"/>
+    <sheet name="Perfabs相关命名规则" sheetId="10" r:id="rId6"/>
+    <sheet name="SourceAsset相关命名规则" sheetId="11" r:id="rId7"/>
     <sheet name="资源相关命名规则" sheetId="3" r:id="rId8"/>
     <sheet name="奖励相关命名规则" sheetId="9" r:id="rId9"/>
     <sheet name="任务相关命名规则" sheetId="12" r:id="rId10"/>
     <sheet name="time相关命名规范" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="eft_skill_attackCutSlight">资源相关命名规则!$E$4:$E$15</definedName>
+    <definedName name="eft_skill_attackCutSlight">资源相关命名规则!$E$4:$E$21</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="640">
-  <si>
-    <t>客户端资源目录结构</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公用资源目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effects</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>importModels</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入模型目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效资源目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>material</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质资源目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="720">
   <si>
     <t>texture</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>贴图资源目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>根目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Font</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -88,14 +40,6 @@
     <t>camera</t>
   </si>
   <si>
-    <t>effects</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>monsters</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -104,10 +48,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ui</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>battle</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -116,356 +56,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ui</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ershu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yunmengze</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bag</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreatePlayer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UiRoot.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ershu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>spells</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterModels</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneModels</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spells</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有目前客户端目录中，涉及到资源的目录如下</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制根目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜头预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>字体资源目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级子目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级子目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级子目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>animations</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>materials</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>textures</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>weakpointEffect1.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhao</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>applBuff.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mesh</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhao_mubu.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级子目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UICamera.prefab</t>
-  </si>
-  <si>
-    <t>具体镜头预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗相关特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能相关特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面相关特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体怪物文件夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体场景文件夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体界面文件夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用技能特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招相关特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体怪物的技能特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制动画资源与控制器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制相关材质</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制相关贴图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制相关网格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>money.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xg_ershu@moxing.prefab</t>
-  </si>
-  <si>
-    <t>具体预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制相关组件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIBag.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面根节点预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体怪物文件夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗相关特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景相关特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能相关特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物模型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景模型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>具体怪物名称文件夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体场景名称文件夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗相关贴图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能相关贴图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面相关贴图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体字体资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiaxue.faontsettings</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>格内解释下方为资源名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>格内解释下方为文件夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体名称</t>
+    <t>命名规则</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -473,62 +64,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>备注或释义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>如此类资源只有此类相关特效使用，则需要将资源放置在本目录中</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他怪物文件夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他场景文件夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他怪物文件夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他预制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应资源需要按照规定命名规则命名后放置在对应文件夹内</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体命名规则见后续分页签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>命名规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>对应ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -622,10 +157,6 @@
   </si>
   <si>
     <t>怪物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI的perfab在命名时不能出现重复的情况，在新建立perfab的时候，可以在unity中搜索下想要创建的名称，如果已存在，请区别后进行保存</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1345,10 +876,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Resources文件夹下的资源为在游戏初始包中的内容，基本不会改变的东西，除非非常确定，否则不要放到这个文件夹下</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>需求命名由英文单词构成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1469,14 +996,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unityunmengze1jiuweihu1.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>其他怪大招特效命名为怪物大招ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1669,22 +1188,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>SourceAsset文件夹为公用资源文件目录，公用类资源可以放置在此类文件夹下，或者是无法确定放到哪里的文件也可以放到这个文件夹中</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>baize</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>baize@daiji</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SourceAsset</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>存放特效相关资源</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2199,10 +1702,6 @@
   </si>
   <si>
     <t>云梦泽难度1副本1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yunmengze11</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2288,14 +1787,6 @@
   </si>
   <si>
     <t>副本名称id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moon Forest - 4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>月光森林第四关</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2556,10 +2047,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>icon_skill_技能spell id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>icon_怪物id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2569,6 +2056,1788 @@
   </si>
   <si>
     <t>九尾狐头像图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_技能spell id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端目录结构说明</t>
+    <rPh sb="0" eb="1">
+      <t>ke'h'duan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'gou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cms</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>编译完自动生成，不用管</t>
+    <rPh sb="0" eb="1">
+      <t>bian'yi'wan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu'yong'guan</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>ProjectSettings</t>
+  </si>
+  <si>
+    <t>工程设定</t>
+    <rPh sb="0" eb="1">
+      <t>gong'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'ding</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果gameobject需要增加tag，则需要提交TagManager.asset</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>smcs.rsp</t>
+  </si>
+  <si>
+    <t>程序脚本，zz确认一下放在哪，Plugins下面有一个protobuf-net，是不是放一起</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fang'zai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>na</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xia'm</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>you</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shi'bu'shi</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>fang'yi'qi</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best HTTP (Pro)</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>编辑器扩展内容</t>
+    <rPh sb="0" eb="1">
+      <t>bian'ji'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kuo'zhan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Font</t>
+  </si>
+  <si>
+    <t>游戏内字体资源</t>
+    <rPh sb="0" eb="1">
+      <t>you'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'ti</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HockeyAppUnityIOS</t>
+  </si>
+  <si>
+    <t>HockeyApp插件相关文件</t>
+    <rPh sb="9" eb="10">
+      <t>cha'jian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wen'j'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plugins</t>
+  </si>
+  <si>
+    <t>存放各种插件</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge'zhong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha'jian</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTween</t>
+  </si>
+  <si>
+    <t>HockeyAppUnityAndroid</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>PathologicalGames</t>
+  </si>
+  <si>
+    <t>protobuf-net</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>WP8</t>
+  </si>
+  <si>
+    <t>Prefabs</t>
+  </si>
+  <si>
+    <t>存放各种摄像机prefab</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge'zhong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she'xiang'ji</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
+    <t>存放特效prefab以及资源，每一个子文件夹包括animations，textures，materials三个文件夹分别存放对应特效的动作、贴图、材质</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi'ji</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mei'yi'ge</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bao'kuo</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>san'fang</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>g</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>fen'bie</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>de</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>tie'tu</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>cai'zhi</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>对局中使用的特效</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>te'xiao</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spells</t>
+  </si>
+  <si>
+    <t>存放技能相关特效</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>te'xiao</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>存放通用技能特效</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong'yong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>te'xiao</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhao</t>
+  </si>
+  <si>
+    <t>存放大招通用特效以及怪物大招及其他非通用技能特效</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong'yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi'ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tong'yong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>te'xiao</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个mesh文件夹--&gt;y应该放在SourceAsset/effect/spells (小星修改）</t>
+    <rPh sb="0" eb="1">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ying'g</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fang'zai</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>xiao'xing</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>xiu'g</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>存放UI相关特效</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>te'xiao</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>存放掉落道具</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao'ju</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>animations</t>
+  </si>
+  <si>
+    <t>掉落动画</t>
+    <rPh sb="0" eb="1">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong'hua</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsters</t>
+  </si>
+  <si>
+    <t>存放怪物prefabs，每个怪物一个文件夹，文件夹名字用怪物名字？小怪和boss需要区分么？如果两种都用，放同一个文件夹么？</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ming'zi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ming'zi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>xiao'guai</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>he</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>qu'fen</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>me</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>liang'zhong</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>dou'yong</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>tong'yi'ge</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>me</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个怪物文件夹下包括3个文件夹和一个prefab：</t>
+    <rPh sb="0" eb="1">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bao'kuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>g</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wen'j</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>he</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi'g</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放状态机</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuagn'tai'ji</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物名@moxing.prefab</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu'ming</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物mesh信息</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scenes</t>
+  </si>
+  <si>
+    <t>存放场景prefab，每个场景一个文件夹，存放prefab及animations文件夹（用于存放状态机）</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ji'qi</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>wen'j</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>cun'fang'z</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zhuang'tai'ji</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhaomagic</t>
+  </si>
+  <si>
+    <t>法术大招幕布场景，删掉材质、贴图文件夹（zz）</t>
+    <rPh sb="0" eb="1">
+      <t>fa'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mu'bu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shan'diao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cai'zhi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tie'tu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wen'j'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhaopy</t>
+  </si>
+  <si>
+    <t>物理大招幕布场景，删掉材质、贴图文件夹（zz）</t>
+    <rPh sb="0" eb="1">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mu'b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chang'jing</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI配置，按界面分，如果有公用界面，则放入common文件夹</t>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gong'yong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fang'ru</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wen'j'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果新建文件夹，请用小写名字</t>
+    <rPh sb="0" eb="1">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qing'yong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiao'xie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ming'zi</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI动画</t>
+    <rPh sb="2" eb="3">
+      <t>dong'hua</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>背包</t>
+    <rPh sb="0" eb="1">
+      <t>bei'bao</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle</t>
+  </si>
+  <si>
+    <t>战斗</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'dou</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>测试界面</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>公用界面</t>
+    <rPh sb="0" eb="1">
+      <t>gong'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatePlayer</t>
+  </si>
+  <si>
+    <t>创建角色</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jue'se</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance</t>
+  </si>
+  <si>
+    <t>副本入口</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ru'kou</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>登录界面</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>宠物</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>任务界面</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'm</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot.prefab</t>
+  </si>
+  <si>
+    <t>根UI，画布</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hua'bu</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>用于存放游戏启动必须的资源</t>
+    <rPh sb="0" eb="1">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi'dong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bi'xu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前不应将资源放在此目录下，以后统一挪</t>
+  </si>
+  <si>
+    <t>需要修改路径（zz）</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lu'jing</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体资源？ -需要调整目录放到Assets/Font（zz）</t>
+    <rPh sb="0" eb="1">
+      <t>zi'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fang'dao</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果怪物有多于一个状态机，多的状态机需要放在此文件夹</t>
+    <rPh sb="0" eb="1">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhuagn't'ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>duo'd</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhuang't</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fang'zai</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wen'jian'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时放在这里，后面需要zz调整功能后，将此文件夹内容挪到prefabs</t>
+    <rPh sb="0" eb="1">
+      <t>zan'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'zai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe'li</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>UnityScene，只有一个</t>
+    <rPh sb="11" eb="12">
+      <t>zhi'you</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yi'ge</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>程序代码以及配置脚本</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao'ben</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>存放bossAI脚本</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao'ben</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个AI一个脚本</t>
+    <rPh sb="0" eb="1">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiao'ben</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>相机动画脚本，可以调相机结点</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong'hua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiang'ji</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie'dian</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
+  </si>
+  <si>
+    <t>DazhaoExitCheck.cs</t>
+  </si>
+  <si>
+    <t>大招退出检测</t>
+    <rPh sb="0" eb="1">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tui'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'ce</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellConst.cs</t>
+  </si>
+  <si>
+    <t>技能常量参数存放脚本</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang'liang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao'ben</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellFunctions.cs</t>
+  </si>
+  <si>
+    <t>技能相关验证器</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan'zheng'qi</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleConst.cs</t>
+  </si>
+  <si>
+    <t>战斗中一些配置参数</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'dou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameConfig.cs</t>
+  </si>
+  <si>
+    <t>战斗外功能一些配置参数</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'dou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>特效脚本</t>
+    <rPh sb="0" eb="1">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'b</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>从script移动到script/Config下(xw)</t>
+    <rPh sb="0" eb="1">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'dong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimControl</t>
+  </si>
+  <si>
+    <t>AudioSystem</t>
+  </si>
+  <si>
+    <t>eventSystem</t>
+  </si>
+  <si>
+    <t>gameData</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>SpellService</t>
+  </si>
+  <si>
+    <t>staticData</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>UnKnow</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>Shader</t>
+  </si>
+  <si>
+    <t>存放shader</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SourceAsset</t>
+  </si>
+  <si>
+    <t>存放特效的模型</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo'xign</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>importModels</t>
+  </si>
+  <si>
+    <t>MonsterModels</t>
+  </si>
+  <si>
+    <t>每个怪物一个文件夹，用于存放怪物的模型，贴图，材质和动作</t>
+    <rPh sb="0" eb="1">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>tie'tu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>cai'zhi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>he</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>dong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneModels</t>
+  </si>
+  <si>
+    <t>每个场景一个文件夹</t>
+    <rPh sb="0" eb="1">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'j'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前有一些云梦泽的资源，删掉？（xw，sf）</t>
+    <rPh sb="0" eb="1">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yun'meng'ze</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shan'diao</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>存放掉落道具模型</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mo'xing</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要新建文件夹（zz）</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'j'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>存放背景音乐</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin'yue</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放音效资源</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>放置公用UI贴图</t>
+    <rPh sb="0" eb="1">
+      <t>fang'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tie'tu</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>怪物头像，技能图标，道具图标，buff图标</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tu'b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tu'b</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tu'biao</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lihui</t>
+  </si>
+  <si>
+    <t>立绘</t>
+    <rPh sb="0" eb="1">
+      <t>li'hui</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StreamingAssets</t>
+  </si>
+  <si>
+    <t>assetbundle</t>
+  </si>
+  <si>
+    <t>打包后自动生成不用管</t>
+    <rPh sb="0" eb="1">
+      <t>da'bao'hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'yong'guan</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放各种配置表</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge'zhong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pe'zh</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>csv转码工具，如果用excel编辑csv，编辑后需要执行此程序转码后才可提交svn</t>
+    <rPh sb="3" eb="4">
+      <t>zhuan'ma</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bian'ji</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bian'ji</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zhuan'ma</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>cai</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ti'jiao</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation.xml</t>
+  </si>
+  <si>
+    <t>assetLang.csv</t>
+  </si>
+  <si>
+    <t>assetMap.csv</t>
+  </si>
+  <si>
+    <t>baseAttr.csv</t>
+  </si>
+  <si>
+    <t>battleLevel.csv</t>
+  </si>
+  <si>
+    <t>battleUnitAi.csv</t>
+  </si>
+  <si>
+    <t>buff.csv</t>
+  </si>
+  <si>
+    <t>chapter.csv</t>
+  </si>
+  <si>
+    <t>character.csv</t>
+  </si>
+  <si>
+    <t>effect.csv</t>
+  </si>
+  <si>
+    <t>equipAttr.csv</t>
+  </si>
+  <si>
+    <t>instance.csv</t>
+  </si>
+  <si>
+    <t>instanceDrop.csv</t>
+  </si>
+  <si>
+    <t>instanceEntry.csv</t>
+  </si>
+  <si>
+    <t>instanceReward.csv</t>
+  </si>
+  <si>
+    <t>languageStatic.csv</t>
+  </si>
+  <si>
+    <t>rewardGroup.csv</t>
+  </si>
+  <si>
+    <t>item.csv</t>
+  </si>
+  <si>
+    <t>languageUI.csv</t>
+  </si>
+  <si>
+    <t>playerAttr.csv</t>
+  </si>
+  <si>
+    <t>quest.csv</t>
+  </si>
+  <si>
+    <t>reward.csv</t>
+  </si>
+  <si>
+    <t>variablePrice.csv</t>
+  </si>
+  <si>
+    <t>skillUpPrice.csv</t>
+  </si>
+  <si>
+    <t>speech.csv</t>
+  </si>
+  <si>
+    <t>spell.csv</t>
+  </si>
+  <si>
+    <t>lazy.csv</t>
+  </si>
+  <si>
+    <t>unitBaseData.csv</t>
+  </si>
+  <si>
+    <t>unitData.csv</t>
+  </si>
+  <si>
+    <t>unitStage.csv</t>
+  </si>
+  <si>
+    <t>soundinfo.csv</t>
+  </si>
+  <si>
+    <t>time.csv</t>
+  </si>
+  <si>
+    <t>weakPointData.csv</t>
+  </si>
+  <si>
+    <t>DOTweenSettings.asset</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgMusic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectSound</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>_convertToUtf8.exe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunmengze11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本背景音乐id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增音乐资源名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_副本id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_zhujiemian</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光森林第四关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光森林背景音乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面背景音乐id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体需求文档中描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_音效用途</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础界面音效（按钮，警告界面弹出等）需要归类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_buttonClick</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon Forest - 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_yueguangsenlin11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_yueguangsenlin11.ogg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用的音乐音效在soundinfo中直接配置即可，不要出现两首相同音乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮点击</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2579,7 +3848,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2699,8 +3968,64 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0432FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2733,12 +4058,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2750,86 +4069,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="16">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2843,28 +4086,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2885,15 +4106,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3055,7 +4267,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3072,7 +4284,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3106,11 +4318,13 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1"/>
@@ -3140,21 +4354,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="18" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3162,103 +4374,6 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3274,85 +4389,26 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="21" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="21"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="11"/>
     <cellStyle name="20% - 强调文字颜色 3 3" xfId="12"/>
@@ -3371,22 +4427,19 @@
     <cellStyle name="常规 5 2" xfId="19"/>
     <cellStyle name="常规 6" xfId="9"/>
     <cellStyle name="常规 7" xfId="1"/>
+    <cellStyle name="常规 8" xfId="21"/>
     <cellStyle name="超链接" xfId="18" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="22"/>
     <cellStyle name="检查单元格 2" xfId="6"/>
     <cellStyle name="检查单元格 4" xfId="20"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3694,10 +4747,10 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -3708,10 +4761,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3722,10 +4775,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3736,10 +4789,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3750,28 +4803,28 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3787,23 +4840,23 @@
     <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4">
         <v>42208</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>528</v>
+        <v>403</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="8" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3814,30 +4867,30 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>332</v>
+        <v>213</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
-        <v>527</v>
+        <v>402</v>
       </c>
       <c r="C14" s="4">
         <v>42217</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>529</v>
+        <v>404</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>530</v>
+        <v>405</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>531</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3892,19 +4945,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="6"/>
@@ -3983,116 +5036,116 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1"/>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>496</v>
+        <v>371</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>497</v>
+        <v>372</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>498</v>
+        <v>373</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E3" s="71">
+        <v>380</v>
+      </c>
+      <c r="E3" s="36">
         <v>10249</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
-        <v>499</v>
+        <v>374</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="E4" s="71">
+        <v>381</v>
+      </c>
+      <c r="E4" s="36">
         <v>20249</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="7" t="s">
-        <v>501</v>
+        <v>376</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>502</v>
+        <v>377</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="E5" s="71">
+        <v>382</v>
+      </c>
+      <c r="E5" s="36">
         <v>30014</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="7" t="s">
-        <v>503</v>
+        <v>378</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>504</v>
+        <v>379</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="E6" s="71">
+        <v>383</v>
+      </c>
+      <c r="E6" s="36">
         <v>40019</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1"/>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>509</v>
+        <v>384</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>510</v>
+        <v>385</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>511</v>
+        <v>386</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>512</v>
+        <v>387</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>513</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="E12" s="70"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="E13" s="70"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="E14" s="70"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="E15" s="70"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="E16" s="70"/>
+      <c r="E16" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4124,128 +5177,128 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1"/>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>514</v>
+        <v>389</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>522</v>
+        <v>397</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="E3" s="72">
+        <v>390</v>
+      </c>
+      <c r="E3" s="37">
         <v>201510061326</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>516</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="D4" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="E4" s="71">
+        <v>392</v>
+      </c>
+      <c r="E4" s="36">
         <v>10061326</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="E5" s="71">
+        <v>393</v>
+      </c>
+      <c r="E5" s="36">
         <v>61326</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="D6" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="E6" s="71">
+        <v>394</v>
+      </c>
+      <c r="E6" s="36">
         <v>1326</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="D7" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="E7" s="71">
+        <v>395</v>
+      </c>
+      <c r="E7" s="36">
         <v>2015101326</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="D8" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="E8" s="71">
+        <v>396</v>
+      </c>
+      <c r="E8" s="36">
         <v>20151326</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="D9" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="E9" s="71">
+        <v>398</v>
+      </c>
+      <c r="E9" s="36">
         <v>20151013267</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="E10" s="71">
+        <v>399</v>
+      </c>
+      <c r="E10" s="36">
         <v>201513267</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="D11" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="E11" s="71">
+        <v>400</v>
+      </c>
+      <c r="E11" s="36">
         <v>13267</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="D12" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="E12" s="71">
+        <v>401</v>
+      </c>
+      <c r="E12" s="36">
         <v>1013267</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="E13" s="70"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="E14" s="70"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="E15" s="70"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="E16" s="70"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="70"/>
+      <c r="E17" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4255,6 +5308,1272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N147"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G121" sqref="G121:G122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" s="43"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" s="43"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="49" t="s">
+        <v>517</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>518</v>
+      </c>
+      <c r="D6" s="43"/>
+    </row>
+    <row r="7" spans="1:7" ht="33">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="49" t="s">
+        <v>520</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43" t="s">
+        <v>524</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="C12" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="C13" s="43" t="s">
+        <v>530</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>531</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="C15" s="43"/>
+      <c r="D15" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="3:7" ht="16.5">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="3:7" ht="16.5">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43" t="s">
+        <v>536</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" spans="3:7" ht="16.5">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" spans="3:7" ht="16.5">
+      <c r="C20" s="43"/>
+      <c r="D20" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" spans="3:7" ht="16.5">
+      <c r="D21" s="43" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="16.5">
+      <c r="C22" s="43" t="s">
+        <v>539</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" spans="3:7" ht="16.5">
+      <c r="C23" s="43"/>
+      <c r="D23" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+    </row>
+    <row r="24" spans="3:7" ht="16.5">
+      <c r="C24" s="43"/>
+      <c r="D24" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>542</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+    </row>
+    <row r="25" spans="3:7" ht="16.5">
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43" t="s">
+        <v>543</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>544</v>
+      </c>
+      <c r="G25" s="43"/>
+    </row>
+    <row r="26" spans="3:7" ht="16.5">
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>546</v>
+      </c>
+      <c r="G26" s="43"/>
+    </row>
+    <row r="27" spans="3:7" ht="16.5">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="16.5">
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="16.5">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="46" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="16.5">
+      <c r="D30" s="43"/>
+      <c r="E30" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="G30" s="43"/>
+    </row>
+    <row r="32" spans="3:7" ht="16.5">
+      <c r="D32" s="43" t="s">
+        <v>554</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="4:8" ht="16.5">
+      <c r="D33" s="43"/>
+      <c r="E33" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>557</v>
+      </c>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="36" spans="4:8" ht="16.5">
+      <c r="D36" s="43" t="s">
+        <v>558</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="4:8" ht="16.5">
+      <c r="D37" s="43"/>
+      <c r="E37" s="43" t="s">
+        <v>560</v>
+      </c>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="4:8" ht="16.5">
+      <c r="D38" s="43"/>
+      <c r="E38" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" ht="16.5">
+      <c r="D39" s="43"/>
+      <c r="E39" s="43" t="s">
+        <v>562</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="H39" s="43" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" ht="16.5">
+      <c r="D41" s="43" t="s">
+        <v>564</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>565</v>
+      </c>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+    </row>
+    <row r="42" spans="4:8" ht="16.5">
+      <c r="D42" s="43"/>
+      <c r="E42" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" ht="16.5">
+      <c r="D43" s="43"/>
+      <c r="E43" s="43" t="s">
+        <v>568</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" ht="16.5">
+      <c r="D44" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="F44" s="43"/>
+    </row>
+    <row r="45" spans="4:8" ht="16.5">
+      <c r="D45" s="43"/>
+      <c r="E45" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="4:8" ht="16.5">
+      <c r="D46" s="43"/>
+      <c r="E46" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" ht="16.5">
+      <c r="D47" s="43"/>
+      <c r="E47" s="43" t="s">
+        <v>573</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" ht="16.5">
+      <c r="D48" s="43"/>
+      <c r="E48" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="16.5">
+      <c r="D49" s="43"/>
+      <c r="E49" s="43" t="s">
+        <v>577</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="16.5">
+      <c r="D50" s="43"/>
+      <c r="E50" s="43" t="s">
+        <v>579</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="16.5">
+      <c r="D51" s="43"/>
+      <c r="E51" s="43" t="s">
+        <v>581</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="16.5">
+      <c r="D52" s="43"/>
+      <c r="E52" s="43" t="s">
+        <v>583</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="16.5">
+      <c r="D53" s="43"/>
+      <c r="E53" s="43" t="s">
+        <v>585</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" ht="16.5">
+      <c r="D54" s="43"/>
+      <c r="E54" s="43" t="s">
+        <v>587</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" ht="16.5">
+      <c r="D55" s="43"/>
+      <c r="E55" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" ht="16.5">
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43" t="s">
+        <v>591</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>592</v>
+      </c>
+      <c r="G56" s="43"/>
+    </row>
+    <row r="57" spans="3:7" ht="16.5">
+      <c r="C57" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="D57" s="44" t="s">
+        <v>594</v>
+      </c>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+    </row>
+    <row r="58" spans="3:7" ht="16.5">
+      <c r="C58" s="43"/>
+      <c r="D58" s="50" t="s">
+        <v>595</v>
+      </c>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+    </row>
+    <row r="59" spans="3:7" ht="16.5">
+      <c r="C59" s="43"/>
+      <c r="D59" s="44" t="s">
+        <v>696</v>
+      </c>
+      <c r="E59" s="43"/>
+      <c r="F59" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="G59" s="43"/>
+    </row>
+    <row r="60" spans="3:7" ht="16.5">
+      <c r="C60" s="43"/>
+      <c r="D60" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="E60" s="43"/>
+      <c r="F60" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="G60" s="43"/>
+    </row>
+    <row r="61" spans="3:7" ht="16.5">
+      <c r="C61" s="43"/>
+      <c r="D61" s="43" t="s">
+        <v>558</v>
+      </c>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="G61" s="43"/>
+    </row>
+    <row r="62" spans="3:7" ht="16.5">
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="50" t="s">
+        <v>599</v>
+      </c>
+      <c r="G62" s="43"/>
+    </row>
+    <row r="63" spans="3:7" ht="16.5">
+      <c r="C63" s="43" t="s">
+        <v>600</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>601</v>
+      </c>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+    </row>
+    <row r="64" spans="3:7" ht="16.5">
+      <c r="C64" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+    </row>
+    <row r="65" spans="3:7" ht="16.5">
+      <c r="C65" s="43"/>
+      <c r="D65" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="E65" s="46"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+    </row>
+    <row r="66" spans="3:7" ht="16.5">
+      <c r="C66" s="43"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="43" t="s">
+        <v>605</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="G66" s="43"/>
+    </row>
+    <row r="67" spans="3:7" ht="16.5">
+      <c r="C67" s="43"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="G67" s="43"/>
+    </row>
+    <row r="68" spans="3:7" ht="16.5">
+      <c r="C68" s="43"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="G68" s="43"/>
+    </row>
+    <row r="69" spans="3:7" ht="16.5">
+      <c r="C69" s="43"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+    </row>
+    <row r="70" spans="3:7" ht="16.5">
+      <c r="C70" s="43"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="G70" s="43" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" ht="16.5">
+      <c r="C71" s="43"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="G71" s="43" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" ht="16.5">
+      <c r="D72" s="45"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43" t="s">
+        <v>615</v>
+      </c>
+      <c r="G72" s="43" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" ht="16.5">
+      <c r="D73" s="45"/>
+      <c r="E73" s="43" t="s">
+        <v>617</v>
+      </c>
+      <c r="F73" s="43" t="s">
+        <v>618</v>
+      </c>
+      <c r="G73" s="43"/>
+    </row>
+    <row r="74" spans="3:7" ht="16.5">
+      <c r="D74" s="45"/>
+      <c r="E74" s="43" t="s">
+        <v>619</v>
+      </c>
+      <c r="F74" s="43" t="s">
+        <v>620</v>
+      </c>
+      <c r="G74" s="43"/>
+    </row>
+    <row r="75" spans="3:7" ht="16.5">
+      <c r="D75" s="45"/>
+      <c r="E75" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="F75" s="46" t="s">
+        <v>622</v>
+      </c>
+      <c r="G75" s="46" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" ht="16.5">
+      <c r="D76" s="43" t="s">
+        <v>624</v>
+      </c>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+    </row>
+    <row r="77" spans="3:7" ht="16.5">
+      <c r="D77" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+    </row>
+    <row r="78" spans="3:7" ht="16.5">
+      <c r="D78" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+    </row>
+    <row r="79" spans="3:7" ht="16.5">
+      <c r="D79" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+    </row>
+    <row r="80" spans="3:7" ht="16.5">
+      <c r="D80" s="43" t="s">
+        <v>579</v>
+      </c>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+    </row>
+    <row r="81" spans="3:7" ht="16.5">
+      <c r="D81" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+    </row>
+    <row r="82" spans="3:7" ht="16.5">
+      <c r="D82" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+    </row>
+    <row r="83" spans="3:7" ht="16.5">
+      <c r="D83" s="43" t="s">
+        <v>583</v>
+      </c>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+    </row>
+    <row r="84" spans="3:7" ht="16.5">
+      <c r="D84" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+    </row>
+    <row r="85" spans="3:7" ht="16.5">
+      <c r="D85" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+    </row>
+    <row r="86" spans="3:7" ht="16.5">
+      <c r="D86" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+    </row>
+    <row r="87" spans="3:7" ht="16.5">
+      <c r="D87" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+    </row>
+    <row r="88" spans="3:7" ht="16.5">
+      <c r="C88" s="43"/>
+      <c r="D88" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+    </row>
+    <row r="89" spans="3:7" ht="16.5">
+      <c r="C89" s="43"/>
+      <c r="D89" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+    </row>
+    <row r="90" spans="3:7" ht="16.5">
+      <c r="C90" s="43"/>
+      <c r="D90" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+    </row>
+    <row r="91" spans="3:7" ht="16.5">
+      <c r="C91" s="43"/>
+      <c r="D91" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+    </row>
+    <row r="92" spans="3:7" ht="16.5">
+      <c r="C92" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+    </row>
+    <row r="93" spans="3:7" ht="16.5">
+      <c r="C93" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+    </row>
+    <row r="94" spans="3:7" ht="16.5">
+      <c r="C94" s="43"/>
+      <c r="D94" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="E94" s="43" t="s">
+        <v>639</v>
+      </c>
+      <c r="F94" s="43"/>
+    </row>
+    <row r="95" spans="3:7" ht="16.5">
+      <c r="C95" s="43"/>
+      <c r="D95" s="43" t="s">
+        <v>640</v>
+      </c>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+    </row>
+    <row r="96" spans="3:7" ht="16.5">
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="F96" s="43" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" ht="16.5">
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43" t="s">
+        <v>643</v>
+      </c>
+      <c r="F98" s="43" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" ht="16.5">
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" ht="16.5">
+      <c r="C101" s="43"/>
+      <c r="D101" s="43" t="s">
+        <v>646</v>
+      </c>
+      <c r="E101" s="43" t="s">
+        <v>647</v>
+      </c>
+      <c r="G101" s="46" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="103" spans="3:14" ht="16.5">
+      <c r="D103" s="43" t="s">
+        <v>649</v>
+      </c>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="43"/>
+    </row>
+    <row r="104" spans="3:14" ht="16.5">
+      <c r="D104" s="43"/>
+      <c r="E104" s="43" t="s">
+        <v>697</v>
+      </c>
+      <c r="F104" s="43" t="s">
+        <v>650</v>
+      </c>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
+    </row>
+    <row r="105" spans="3:14" ht="16.5">
+      <c r="D105" s="43"/>
+      <c r="E105" s="43" t="s">
+        <v>698</v>
+      </c>
+      <c r="F105" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="43"/>
+    </row>
+    <row r="106" spans="3:14" ht="16.5">
+      <c r="D106" s="43" t="s">
+        <v>652</v>
+      </c>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
+      <c r="M106" s="43"/>
+      <c r="N106" s="43"/>
+    </row>
+    <row r="107" spans="3:14" ht="16.5">
+      <c r="D107" s="43"/>
+      <c r="E107" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="F107" s="46"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="46"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
+      <c r="M107" s="43"/>
+      <c r="N107" s="43"/>
+    </row>
+    <row r="108" spans="3:14" ht="16.5">
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="G108" s="41" t="s">
+        <v>653</v>
+      </c>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="46"/>
+      <c r="L108" s="43"/>
+      <c r="M108" s="43"/>
+      <c r="N108" s="43"/>
+    </row>
+    <row r="109" spans="3:14" ht="16.5">
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="G109" s="41" t="s">
+        <v>655</v>
+      </c>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="46"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="43"/>
+      <c r="N109" s="43"/>
+    </row>
+    <row r="110" spans="3:14" ht="16.5">
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="G110" s="41" t="s">
+        <v>657</v>
+      </c>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="46"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="43"/>
+    </row>
+    <row r="111" spans="3:14" ht="16.5">
+      <c r="C111" s="43" t="s">
+        <v>658</v>
+      </c>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+    </row>
+    <row r="112" spans="3:14" ht="16.5">
+      <c r="C112" s="43"/>
+      <c r="D112" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="E112" s="43" t="s">
+        <v>660</v>
+      </c>
+      <c r="F112" s="43"/>
+    </row>
+    <row r="113" spans="3:7" ht="16.5">
+      <c r="C113" s="43"/>
+      <c r="D113" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="E113" s="43" t="s">
+        <v>661</v>
+      </c>
+      <c r="F113" s="43"/>
+    </row>
+    <row r="114" spans="3:7" ht="16.5">
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43" t="s">
+        <v>699</v>
+      </c>
+      <c r="G114" s="43" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" ht="16.5">
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43" t="s">
+        <v>663</v>
+      </c>
+      <c r="F115" s="43"/>
+    </row>
+    <row r="116" spans="3:7" ht="16.5">
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="F116" s="43"/>
+    </row>
+    <row r="117" spans="3:7" ht="16.5">
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="F117" s="43"/>
+    </row>
+    <row r="118" spans="3:7" ht="16.5">
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="F118" s="43"/>
+    </row>
+    <row r="119" spans="3:7" ht="16.5">
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="43" t="s">
+        <v>667</v>
+      </c>
+      <c r="F119" s="43"/>
+    </row>
+    <row r="120" spans="3:7" ht="16.5">
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43" t="s">
+        <v>668</v>
+      </c>
+      <c r="F120" s="43"/>
+    </row>
+    <row r="121" spans="3:7" ht="16.5">
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="43" t="s">
+        <v>669</v>
+      </c>
+      <c r="F121" s="43"/>
+    </row>
+    <row r="122" spans="3:7" ht="16.5">
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43" t="s">
+        <v>670</v>
+      </c>
+      <c r="F122" s="43"/>
+    </row>
+    <row r="123" spans="3:7" ht="16.5">
+      <c r="C123" s="43"/>
+      <c r="D123" s="43"/>
+      <c r="E123" s="43" t="s">
+        <v>671</v>
+      </c>
+      <c r="F123" s="43"/>
+    </row>
+    <row r="124" spans="3:7" ht="16.5">
+      <c r="C124" s="43"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="43" t="s">
+        <v>672</v>
+      </c>
+      <c r="F124" s="43"/>
+    </row>
+    <row r="125" spans="3:7" ht="16.5">
+      <c r="C125" s="43"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43" t="s">
+        <v>673</v>
+      </c>
+      <c r="F125" s="43"/>
+    </row>
+    <row r="126" spans="3:7" ht="16.5">
+      <c r="E126" s="43" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" ht="16.5">
+      <c r="E127" s="43" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" ht="16.5">
+      <c r="E128" s="43" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" ht="16.5">
+      <c r="E129" s="43" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" ht="16.5">
+      <c r="E130" s="43" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" ht="16.5">
+      <c r="E131" s="43" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" ht="16.5">
+      <c r="E132" s="43" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" ht="16.5">
+      <c r="E133" s="43" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" ht="16.5">
+      <c r="E134" s="43" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" ht="16.5">
+      <c r="E135" s="43" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" ht="16.5">
+      <c r="E136" s="43" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" ht="16.5">
+      <c r="E137" s="43" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" ht="16.5">
+      <c r="E138" s="43" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" ht="16.5">
+      <c r="E139" s="43" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" ht="16.5">
+      <c r="E140" s="43" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" ht="16.5">
+      <c r="E141" s="43" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" ht="16.5">
+      <c r="E142" s="43" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5" ht="16.5">
+      <c r="E143" s="43" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5" ht="16.5">
+      <c r="E144" s="43" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" ht="16.5">
+      <c r="E145" s="43" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" ht="16.5">
+      <c r="E146" s="43" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" ht="16.5">
+      <c r="E147" s="43" t="s">
+        <v>695</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E39" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -4262,7 +6581,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4278,126 +6597,126 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1"/>
     <row r="3" spans="1:6" ht="82.5">
       <c r="A3" s="7" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>550</v>
+        <v>424</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>548</v>
+        <v>423</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>549</v>
+        <v>700</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>591</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
-        <v>570</v>
+        <v>444</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>569</v>
+        <v>443</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>572</v>
+        <v>705</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>571</v>
+        <v>715</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>568</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="7" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>560</v>
+        <v>434</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>559</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="7" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>532</v>
+        <v>407</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>619</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1"/>
-    <row r="8" spans="1:6" s="34" customFormat="1" ht="33">
-      <c r="A8" s="34" t="s">
-        <v>154</v>
+    <row r="8" spans="1:6" s="32" customFormat="1" ht="33">
+      <c r="A8" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>553</v>
+        <v>427</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>555</v>
+        <v>429</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>557</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>558</v>
+        <v>430</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="7" t="s">
-        <v>618</v>
+        <v>490</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>554</v>
+        <v>428</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>616</v>
+        <v>488</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>551</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4405,164 +6724,164 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="7" t="s">
-        <v>566</v>
+        <v>440</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>569</v>
+        <v>443</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>556</v>
+        <v>430</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>567</v>
+        <v>441</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>568</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="7" t="s">
-        <v>382</v>
+        <v>261</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>385</v>
+        <v>264</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="7" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>384</v>
+        <v>263</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>388</v>
+        <v>267</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="C14" s="73" t="s">
-        <v>565</v>
+        <v>438</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>439</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="7" t="s">
-        <v>563</v>
+        <v>437</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>562</v>
+        <v>436</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>552</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1"/>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>494</v>
+        <v>369</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>492</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" s="7" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>495</v>
+        <v>370</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>493</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1"/>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="7" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1"/>
-    <row r="24" spans="1:6" s="73" customFormat="1">
-      <c r="A24" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="E24" s="73" t="s">
-        <v>163</v>
+    <row r="24" spans="1:6" s="38" customFormat="1">
+      <c r="A24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4571,12 +6890,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4592,77 +6911,77 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1"/>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>614</v>
+        <v>486</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>615</v>
+        <v>487</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>617</v>
+        <v>489</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>613</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>538</v>
+        <v>413</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>542</v>
+        <v>417</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>537</v>
+        <v>412</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>544</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="7" t="s">
-        <v>539</v>
+        <v>414</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>540</v>
+        <v>415</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>541</v>
+        <v>416</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>543</v>
+        <v>418</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>544</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -4671,7 +6990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
@@ -4679,8 +6998,8 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4696,652 +7015,652 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1"/>
     <row r="3" spans="1:6" ht="66">
       <c r="A3" s="7" t="s">
-        <v>456</v>
+        <v>331</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>305</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="7" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="7" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="7" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="7" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="7" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>328</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="7" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="7" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>327</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="7" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>329</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="11" t="s">
-        <v>457</v>
+        <v>332</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>459</v>
+        <v>67</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>334</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>460</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>458</v>
+        <v>68</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>333</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>461</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>458</v>
+        <v>69</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>333</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>462</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>458</v>
+        <v>70</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>333</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>463</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>458</v>
+        <v>71</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>333</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>464</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>458</v>
+        <v>72</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>333</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>465</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>458</v>
+        <v>90</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>333</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>466</v>
+        <v>96</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>458</v>
+        <v>91</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>333</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="68" t="s">
-        <v>467</v>
+        <v>97</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>458</v>
+        <v>92</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>333</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>468</v>
+        <v>98</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>458</v>
+        <v>100</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>333</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E22" s="68" t="s">
-        <v>469</v>
+        <v>102</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1"/>
     <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>470</v>
+        <v>345</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>229</v>
+        <v>111</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>224</v>
+        <v>106</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>587</v>
+        <v>459</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="7" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>588</v>
+        <v>460</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>589</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="7" t="s">
-        <v>607</v>
+        <v>479</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>608</v>
+        <v>480</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>609</v>
+        <v>481</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>610</v>
+        <v>482</v>
       </c>
       <c r="F26" s="11"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
-        <v>471</v>
+        <v>346</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>472</v>
+        <v>347</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>474</v>
+        <v>349</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>586</v>
+        <v>458</v>
       </c>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="7" t="s">
-        <v>473</v>
+        <v>348</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>475</v>
+        <v>350</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>590</v>
+        <v>462</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>589</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="7" t="s">
-        <v>607</v>
+        <v>479</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>611</v>
+        <v>483</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>609</v>
+        <v>481</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>612</v>
+        <v>484</v>
       </c>
       <c r="F30" s="11"/>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1"/>
-    <row r="33" spans="1:6" s="34" customFormat="1" ht="33">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:6" s="32" customFormat="1" ht="33">
+      <c r="A33" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="32" customFormat="1">
+      <c r="B34" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="32" customFormat="1"/>
+    <row r="36" spans="1:6" s="32" customFormat="1" ht="33">
+      <c r="A36" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="32" customFormat="1">
+      <c r="B37" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="32" customFormat="1"/>
+    <row r="39" spans="1:6" s="32" customFormat="1" ht="33">
+      <c r="A39" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="32" customFormat="1">
+      <c r="B40" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="32" customFormat="1"/>
+    <row r="42" spans="1:6" s="32" customFormat="1" ht="33">
+      <c r="A42" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="32" customFormat="1">
+      <c r="B43" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="E43" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="B33" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>594</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="F33" s="69" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="34" customFormat="1">
-      <c r="B34" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>582</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="34" customFormat="1"/>
-    <row r="36" spans="1:6" s="34" customFormat="1" ht="33">
-      <c r="A36" s="34" t="s">
+    </row>
+    <row r="44" spans="1:6" s="32" customFormat="1"/>
+    <row r="45" spans="1:6" s="32" customFormat="1" ht="33">
+      <c r="A45" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="32" customFormat="1">
+      <c r="B46" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="E46" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="B36" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>482</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="F36" s="69" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="34" customFormat="1">
-      <c r="B37" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>583</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="34" customFormat="1"/>
-    <row r="39" spans="1:6" s="34" customFormat="1" ht="33">
-      <c r="A39" s="34" t="s">
+    </row>
+    <row r="47" spans="1:6" s="32" customFormat="1"/>
+    <row r="48" spans="1:6" s="32" customFormat="1" ht="33">
+      <c r="A48" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="32" customFormat="1">
+      <c r="B49" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>478</v>
       </c>
-      <c r="B39" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>577</v>
-      </c>
-      <c r="F39" s="69" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="34" customFormat="1">
-      <c r="B40" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>584</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="34" customFormat="1"/>
-    <row r="42" spans="1:6" s="34" customFormat="1" ht="33">
-      <c r="A42" s="34" t="s">
-        <v>484</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>597</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>489</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="F42" s="69" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="34" customFormat="1">
-      <c r="B43" s="34" t="s">
-        <v>592</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>600</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>603</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="34" customFormat="1"/>
-    <row r="45" spans="1:6" s="34" customFormat="1" ht="33">
-      <c r="A45" s="34" t="s">
-        <v>485</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>598</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>490</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>580</v>
-      </c>
-      <c r="F45" s="69" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="34" customFormat="1">
-      <c r="B46" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>601</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>603</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="34" customFormat="1"/>
-    <row r="48" spans="1:6" s="34" customFormat="1" ht="33">
-      <c r="A48" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>581</v>
-      </c>
-      <c r="F48" s="69" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="34" customFormat="1">
-      <c r="B49" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>602</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>603</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="34" customFormat="1"/>
-    <row r="51" spans="1:5" s="34" customFormat="1">
-      <c r="A51" s="73" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="34" customFormat="1"/>
+    </row>
+    <row r="50" spans="1:5" s="32" customFormat="1"/>
+    <row r="51" spans="1:5" s="32" customFormat="1">
+      <c r="A51" s="38" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="32" customFormat="1"/>
     <row r="54" spans="1:5" s="9" customFormat="1"/>
     <row r="55" spans="1:5">
       <c r="A55" s="7" t="s">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>222</v>
+        <v>104</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="B56" s="7" t="s">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5350,14 +7669,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
@@ -5369,400 +7688,400 @@
   <sheetData>
     <row r="1" spans="1:9" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>405</v>
+        <v>284</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>406</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1">
-      <c r="A2" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>352</v>
+      <c r="A2" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="7" t="s">
-        <v>338</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="7" t="s">
-        <v>334</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="7" t="s">
-        <v>335</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1">
-      <c r="A7" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="34" customFormat="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33" t="s">
-        <v>20</v>
+      <c r="A7" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="32" customFormat="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="7" t="s">
-        <v>341</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="C10" s="7" t="s">
-        <v>339</v>
+        <v>220</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="C11" s="7" t="s">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>346</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="12" t="s">
-        <v>354</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="7" t="s">
-        <v>341</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" s="7" t="s">
-        <v>355</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="D16" s="7" t="s">
-        <v>356</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="E17" s="7" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="D18" s="7" t="s">
-        <v>357</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="C20" s="7" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="D21" s="7" t="s">
-        <v>361</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="E22" s="7" t="s">
-        <v>362</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="D23" s="7" t="s">
-        <v>366</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="E24" s="7" t="s">
-        <v>367</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="C25" s="7" t="s">
-        <v>363</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="D26" s="7" t="s">
-        <v>368</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="E27" s="7" t="s">
-        <v>369</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="12" t="s">
-        <v>371</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="7" t="s">
-        <v>341</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="C31" s="7" t="s">
-        <v>372</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="D32" s="7" t="s">
-        <v>373</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1">
-      <c r="A34" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>374</v>
+      <c r="A34" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="B35" s="7" t="s">
-        <v>341</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="C36" s="7" t="s">
-        <v>376</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="D37" s="7" t="s">
-        <v>377</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="9" customFormat="1">
-      <c r="A39" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>378</v>
+      <c r="A39" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" s="7" t="s">
-        <v>379</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="C41" s="7" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="D42" s="7" t="s">
-        <v>389</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" s="7" t="s">
-        <v>390</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="C44" s="7" t="s">
-        <v>392</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="D45" s="7" t="s">
-        <v>391</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="C46" s="7" t="s">
-        <v>546</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25">
-      <c r="D47" s="74" t="s">
-        <v>547</v>
+      <c r="D47" s="39" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" s="7" t="s">
-        <v>533</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="C49" s="7" t="s">
-        <v>534</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="B50" s="7" t="s">
-        <v>535</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="C51" s="7" t="s">
-        <v>536</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="9" customFormat="1">
-      <c r="A54" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>393</v>
+      <c r="A54" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="B55" s="7" t="s">
-        <v>379</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="C56" s="7" t="s">
-        <v>394</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="D57" s="7" t="s">
-        <v>395</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="B59" s="7" t="s">
-        <v>396</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="C60" s="7" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="D61" s="7" t="s">
-        <v>399</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="B63" s="7" t="s">
-        <v>397</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="C64" s="7" t="s">
-        <v>400</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="D65" s="7" t="s">
-        <v>401</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="9" customFormat="1">
-      <c r="A67" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>403</v>
+      <c r="A67" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="B68" s="7" t="s">
-        <v>404</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" s="7" t="s">
-        <v>334</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="B70" s="7" t="s">
-        <v>335</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="9" customFormat="1">
-      <c r="A73" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="B73" s="32"/>
+      <c r="A73" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="30"/>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" s="12" t="s">
-        <v>408</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" s="7" t="s">
-        <v>347</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="C76" s="7" t="s">
-        <v>409</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="C77" s="7" t="s">
-        <v>410</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" s="12" t="s">
-        <v>412</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="B80" s="7" t="s">
-        <v>411</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="C81" s="7" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="C82" s="7" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="12" t="s">
-        <v>413</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="7" t="s">
-        <v>348</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="C86" s="7" t="s">
-        <v>350</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5771,15 +8090,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5789,30 +8108,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1">
-      <c r="A1" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="34" customFormat="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
-        <v>419</v>
+      <c r="A1" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="32" customFormat="1">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1">
-      <c r="A4" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>421</v>
+      <c r="A4" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="12" t="s">
-        <v>422</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5820,67 +8139,67 @@
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="7" t="s">
-        <v>423</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="7" t="s">
-        <v>424</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="7" t="s">
-        <v>425</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" s="7" t="s">
-        <v>426</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="7" t="s">
-        <v>428</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="7" t="s">
-        <v>427</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" s="7" t="s">
-        <v>429</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" s="7" t="s">
-        <v>431</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="D17" s="7" t="s">
-        <v>432</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="C19" s="7" t="s">
-        <v>448</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="C20" s="7" t="s">
-        <v>444</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="D21" s="7" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="12" t="s">
-        <v>433</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -5888,122 +8207,122 @@
     </row>
     <row r="25" spans="2:4">
       <c r="C25" s="7" t="s">
-        <v>434</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="7" t="s">
-        <v>435</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="D27" s="7" t="s">
-        <v>436</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="C29" s="7" t="s">
-        <v>437</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="C30" s="7" t="s">
-        <v>439</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="D31" s="7" t="s">
-        <v>438</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="C33" s="7" t="s">
-        <v>429</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="C34" s="7" t="s">
-        <v>440</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="D35" s="7" t="s">
-        <v>441</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="C37" s="7" t="s">
-        <v>448</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="7" t="s">
-        <v>442</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="D39" s="7" t="s">
-        <v>443</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="9" customFormat="1">
-      <c r="A41" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>446</v>
+      <c r="A41" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="B42" s="7" t="s">
-        <v>447</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="9" customFormat="1">
-      <c r="A46" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>449</v>
+      <c r="A46" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>450</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="7" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>451</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="7" t="s">
-        <v>370</v>
+        <v>249</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>452</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="C54" s="7" t="s">
-        <v>453</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="C55" s="7" t="s">
-        <v>454</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="D56" s="7" t="s">
-        <v>455</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6012,1382 +8331,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G134"/>
-  <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="35"/>
-    <col min="2" max="2" width="16.5" style="35" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B3" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B4" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B5" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1"/>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B7" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B8" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B9" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B10" s="81"/>
-      <c r="C10" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B11" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B12" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B14" s="80"/>
-      <c r="C14" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B15" s="80"/>
-      <c r="C15" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="83"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="83"/>
-    </row>
-    <row r="17" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="83"/>
-    </row>
-    <row r="18" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="83"/>
-    </row>
-    <row r="19" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="84"/>
-    </row>
-    <row r="20" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="83"/>
-    </row>
-    <row r="25" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="83"/>
-    </row>
-    <row r="26" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="83"/>
-    </row>
-    <row r="27" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="83"/>
-    </row>
-    <row r="28" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="84"/>
-    </row>
-    <row r="29" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="99"/>
-    </row>
-    <row r="34" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="99"/>
-    </row>
-    <row r="35" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="99"/>
-    </row>
-    <row r="36" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="99"/>
-    </row>
-    <row r="37" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="99"/>
-    </row>
-    <row r="38" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="99"/>
-    </row>
-    <row r="39" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="99"/>
-    </row>
-    <row r="40" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" s="82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="76" t="s">
-        <v>364</v>
-      </c>
-      <c r="F44" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" s="83"/>
-    </row>
-    <row r="45" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="83"/>
-    </row>
-    <row r="46" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="83"/>
-    </row>
-    <row r="47" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="83"/>
-    </row>
-    <row r="48" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" s="84"/>
-    </row>
-    <row r="49" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="55" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="83"/>
-    </row>
-    <row r="54" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="F54" s="83"/>
-    </row>
-    <row r="55" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="83"/>
-    </row>
-    <row r="56" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="83"/>
-    </row>
-    <row r="57" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F57" s="84"/>
-    </row>
-    <row r="58" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B60" s="80"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B61" s="80"/>
-      <c r="C61" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B62" s="80"/>
-      <c r="C62" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="54"/>
-    </row>
-    <row r="63" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B63" s="80"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="E63" s="46"/>
-    </row>
-    <row r="64" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B64" s="80"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="55"/>
-    </row>
-    <row r="65" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B65" s="80"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="47" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B66" s="80"/>
-      <c r="C66" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="E66" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="F66" s="82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B67" s="80"/>
-      <c r="C67" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="F67" s="83"/>
-    </row>
-    <row r="68" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B68" s="80"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" s="83"/>
-    </row>
-    <row r="69" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B69" s="80"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="F69" s="83"/>
-    </row>
-    <row r="70" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B70" s="80"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="F70" s="83"/>
-    </row>
-    <row r="71" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="F71" s="84"/>
-    </row>
-    <row r="72" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B73" s="80"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B74" s="80"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B75" s="80"/>
-      <c r="C75" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D75" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E75" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B76" s="80"/>
-      <c r="C76" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B79" s="80"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B80" s="80"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B81" s="80"/>
-      <c r="C81" s="80"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B82" s="80"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B83" s="80"/>
-      <c r="C83" s="80"/>
-      <c r="D83" s="77"/>
-      <c r="E83" s="38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B84" s="80"/>
-      <c r="C84" s="80"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B85" s="80"/>
-      <c r="C85" s="81"/>
-      <c r="D85" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B86" s="80"/>
-      <c r="C86" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D86" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E86" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" s="82" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B87" s="80"/>
-      <c r="C87" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G87" s="83"/>
-    </row>
-    <row r="88" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G88" s="83"/>
-    </row>
-    <row r="89" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="G89" s="83"/>
-    </row>
-    <row r="90" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B90" s="80"/>
-      <c r="C90" s="80"/>
-      <c r="D90" s="80"/>
-      <c r="E90" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="G90" s="83"/>
-    </row>
-    <row r="91" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B91" s="80"/>
-      <c r="C91" s="80"/>
-      <c r="D91" s="80"/>
-      <c r="E91" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G91" s="83"/>
-    </row>
-    <row r="92" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B92" s="80"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="80"/>
-      <c r="E92" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="G92" s="83"/>
-    </row>
-    <row r="93" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B93" s="80"/>
-      <c r="C93" s="80"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="G93" s="83"/>
-    </row>
-    <row r="94" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B94" s="80"/>
-      <c r="C94" s="80"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="G94" s="83"/>
-    </row>
-    <row r="95" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B95" s="80"/>
-      <c r="C95" s="80"/>
-      <c r="D95" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G95" s="83"/>
-    </row>
-    <row r="96" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B96" s="80"/>
-      <c r="C96" s="80"/>
-      <c r="D96" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" s="83"/>
-    </row>
-    <row r="97" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B97" s="80"/>
-      <c r="C97" s="80"/>
-      <c r="D97" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" s="83"/>
-    </row>
-    <row r="98" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B98" s="80"/>
-      <c r="C98" s="80"/>
-      <c r="D98" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G98" s="83"/>
-    </row>
-    <row r="99" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B99" s="80"/>
-      <c r="C99" s="80"/>
-      <c r="D99" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G99" s="83"/>
-    </row>
-    <row r="100" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B100" s="80"/>
-      <c r="C100" s="80"/>
-      <c r="D100" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G100" s="83"/>
-    </row>
-    <row r="101" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B101" s="80"/>
-      <c r="C101" s="80"/>
-      <c r="D101" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="G101" s="83"/>
-    </row>
-    <row r="102" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B102" s="80"/>
-      <c r="C102" s="80"/>
-      <c r="D102" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G102" s="83"/>
-    </row>
-    <row r="103" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B103" s="80"/>
-      <c r="C103" s="80"/>
-      <c r="D103" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="G103" s="83"/>
-    </row>
-    <row r="104" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B104" s="81"/>
-      <c r="C104" s="81"/>
-      <c r="D104" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G104" s="84"/>
-    </row>
-    <row r="105" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B105" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C105" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D105" s="59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B106" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="C106" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F106" s="91" t="s">
-        <v>333</v>
-      </c>
-      <c r="G106" s="92"/>
-    </row>
-    <row r="107" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B107" s="81"/>
-      <c r="C107" s="81"/>
-      <c r="D107" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="F107" s="93"/>
-      <c r="G107" s="94"/>
-    </row>
-    <row r="108" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B108" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B109" s="79" t="s">
-        <v>417</v>
-      </c>
-      <c r="C109" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B110" s="80"/>
-      <c r="C110" s="80"/>
-      <c r="D110" s="45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B111" s="80"/>
-      <c r="C111" s="80"/>
-      <c r="D111" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B112" s="80"/>
-      <c r="C112" s="80"/>
-      <c r="D112" s="45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B113" s="80"/>
-      <c r="C113" s="81"/>
-      <c r="D113" s="39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B114" s="80"/>
-      <c r="C114" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E114" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="F114" s="62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B115" s="80"/>
-      <c r="C115" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="E115" s="88" t="s">
-        <v>415</v>
-      </c>
-      <c r="F115" s="46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B116" s="80"/>
-      <c r="C116" s="80"/>
-      <c r="D116" s="80"/>
-      <c r="E116" s="89"/>
-      <c r="F116" s="52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B117" s="80"/>
-      <c r="C117" s="80"/>
-      <c r="D117" s="80"/>
-      <c r="E117" s="89"/>
-      <c r="F117" s="67" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B118" s="80"/>
-      <c r="C118" s="80"/>
-      <c r="D118" s="80"/>
-      <c r="E118" s="90"/>
-      <c r="F118" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" s="47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B119" s="80"/>
-      <c r="C119" s="80"/>
-      <c r="D119" s="81"/>
-      <c r="E119" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F119" s="47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B120" s="80"/>
-      <c r="C120" s="80"/>
-      <c r="D120" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="E120" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="F120" s="63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B121" s="80"/>
-      <c r="C121" s="80"/>
-      <c r="D121" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="E121" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="F121" s="46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7">
-      <c r="B122" s="80"/>
-      <c r="C122" s="80"/>
-      <c r="D122" s="80"/>
-      <c r="E122" s="80"/>
-      <c r="F122" s="64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B123" s="80"/>
-      <c r="C123" s="80"/>
-      <c r="D123" s="80"/>
-      <c r="E123" s="80"/>
-      <c r="F123" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B124" s="80"/>
-      <c r="C124" s="80"/>
-      <c r="D124" s="80"/>
-      <c r="E124" s="81"/>
-      <c r="F124" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" s="47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B125" s="80"/>
-      <c r="C125" s="81"/>
-      <c r="D125" s="81"/>
-      <c r="E125" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="F125" s="47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B126" s="77"/>
-      <c r="C126" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="66"/>
-    </row>
-    <row r="127" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B127" s="80"/>
-      <c r="C127" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" s="46"/>
-    </row>
-    <row r="128" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B128" s="80"/>
-      <c r="C128" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" s="45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B129" s="80"/>
-      <c r="C129" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B130" s="80"/>
-      <c r="C130" s="86"/>
-      <c r="D130" s="45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B131" s="80"/>
-      <c r="C131" s="86"/>
-      <c r="D131" s="55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B132" s="80"/>
-      <c r="C132" s="86"/>
-      <c r="D132" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B133" s="81"/>
-      <c r="C133" s="87"/>
-      <c r="D133" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4">
-      <c r="B134" s="35" t="s">
-        <v>414</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="G43:G48"/>
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="F66:F71"/>
-    <mergeCell ref="E44:E51"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C67:C74"/>
-    <mergeCell ref="D67:D73"/>
-    <mergeCell ref="D15:D22"/>
-    <mergeCell ref="D24:D51"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="G23:G28"/>
-    <mergeCell ref="G32:G39"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E33:E42"/>
-    <mergeCell ref="B109:B133"/>
-    <mergeCell ref="C115:C125"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B12:B104"/>
-    <mergeCell ref="C15:C60"/>
-    <mergeCell ref="C76:C85"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="C87:C104"/>
-    <mergeCell ref="D87:D94"/>
-    <mergeCell ref="G86:G104"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="D121:D125"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="E115:E118"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="F106:G107"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7403,255 +8352,328 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1"/>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>302</v>
+        <v>184</v>
       </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
-        <v>629</v>
+        <v>501</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>632</v>
+        <v>504</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>620</v>
+        <v>185</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>492</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="7" t="s">
-        <v>630</v>
+        <v>502</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>633</v>
+        <v>505</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>621</v>
+        <v>186</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>493</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="7" t="s">
-        <v>631</v>
+        <v>503</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>634</v>
+        <v>506</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>622</v>
+        <v>188</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>494</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>635</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1"/>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="E8" s="28"/>
+        <v>420</v>
+      </c>
+      <c r="E8" s="51"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="E9" s="28"/>
+      <c r="B9" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="E9" s="51"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1"/>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
-        <v>307</v>
-      </c>
+    <row r="10" spans="1:6">
+      <c r="B10" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>716</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" customHeight="1">
       <c r="B11" s="7" t="s">
-        <v>311</v>
+        <v>702</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>624</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>717</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1">
+      <c r="E12" s="51"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="7" t="s">
-        <v>313</v>
+        <v>710</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>625</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="E13" s="51"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="7" t="s">
-        <v>314</v>
+        <v>711</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>628</v>
+        <v>712</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>626</v>
-      </c>
-      <c r="F14" s="10"/>
+        <v>719</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>714</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>638</v>
-      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1"/>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>315</v>
+        <v>189</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>317</v>
+        <v>511</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>324</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" s="7" t="s">
-        <v>320</v>
+        <v>194</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>322</v>
+        <v>500</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>324</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="7" t="s">
-        <v>316</v>
+        <v>195</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="9" customFormat="1"/>
+        <v>500</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="B21" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
+        <v>192</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1"/>
     <row r="23" spans="1:6">
-      <c r="D23" s="75"/>
+      <c r="A23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="D24" s="75"/>
+      <c r="B24" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="D25" s="75"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="D26" s="75"/>
-    </row>
+      <c r="B25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="9" customFormat="1"/>
     <row r="27" spans="1:6">
-      <c r="D27" s="75"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="D28" s="75"/>
+      <c r="A27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="D29" s="75"/>
+      <c r="D29" s="40"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="D31" s="75"/>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="D32" s="75"/>
+      <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="40"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="40"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="40"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="40"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7683,217 +8705,217 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="7" t="s">
-        <v>233</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="C3" s="7" t="s">
-        <v>279</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="C4" s="7" t="s">
-        <v>280</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="C6" s="7" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="D7" s="7" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="D8" s="7" t="s">
-        <v>273</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="D9" s="7" t="s">
-        <v>274</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="C10" s="7" t="s">
-        <v>269</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="C12" s="7" t="s">
-        <v>278</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" s="7" t="s">
-        <v>298</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="7" t="s">
-        <v>273</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="D15" s="7" t="s">
-        <v>275</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="C16" s="7" t="s">
-        <v>270</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="18" spans="2:7">
       <c r="B18" s="7" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="C19" s="23" t="s">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="E19" s="24">
         <v>0</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>286</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="C20" s="17" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="E20" s="18">
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>288</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="C21" s="23" t="s">
-        <v>293</v>
+        <v>175</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="E21" s="24">
         <v>2</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>287</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="C22" s="17" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="E22" s="18">
         <v>3</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>289</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="C23" s="23" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="E23" s="24">
         <v>4</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>290</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="C24" s="17" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="E24" s="18">
         <v>5</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="C25" s="23" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="E25" s="24">
         <v>6</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>296</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="17.25" thickBot="1">
       <c r="C26" s="19" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="E26" s="20">
         <v>7</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>294</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="28" spans="2:7">
       <c r="B28" s="7" t="s">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>252</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="C29" s="23" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="E29" s="24">
         <v>1</v>
@@ -7901,10 +8923,10 @@
     </row>
     <row r="30" spans="2:7">
       <c r="C30" s="17" t="s">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="E30" s="18">
         <v>2</v>
@@ -7912,10 +8934,10 @@
     </row>
     <row r="31" spans="2:7">
       <c r="C31" s="23" t="s">
-        <v>291</v>
+        <v>173</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="E31" s="24">
         <v>3</v>
@@ -7923,10 +8945,10 @@
     </row>
     <row r="32" spans="2:7">
       <c r="C32" s="17" t="s">
-        <v>292</v>
+        <v>174</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="E32" s="18">
         <v>4</v>
@@ -7934,10 +8956,10 @@
     </row>
     <row r="33" spans="2:5">
       <c r="C33" s="23" t="s">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="E33" s="24">
         <v>5</v>
@@ -7945,10 +8967,10 @@
     </row>
     <row r="34" spans="2:5">
       <c r="C34" s="17" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="E34" s="18">
         <v>6</v>
@@ -7956,10 +8978,10 @@
     </row>
     <row r="35" spans="2:5">
       <c r="C35" s="23" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>266</v>
+        <v>148</v>
       </c>
       <c r="E35" s="24">
         <v>7</v>
@@ -7967,10 +8989,10 @@
     </row>
     <row r="36" spans="2:5">
       <c r="C36" s="17" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="E36" s="18">
         <v>8</v>
@@ -7978,10 +9000,10 @@
     </row>
     <row r="37" spans="2:5" ht="17.25" thickBot="1">
       <c r="C37" s="26" t="s">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="E37" s="27">
         <v>9</v>
@@ -7989,20 +9011,20 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="7" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="C41" s="7" t="s">
-        <v>276</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="D42" s="7" t="s">
-        <v>281</v>
+        <v>163</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>282</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -8010,17 +9032,17 @@
         <v>10001</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>283</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="D45" s="7" t="s">
-        <v>284</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="D46" s="7" t="s">
-        <v>285</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/gd/标准化文档/命名规范.xlsx
+++ b/gd/标准化文档/命名规范.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="7" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="eft_skill_attackCutSlight">资源相关命名规则!$E$4:$E$21</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="725">
   <si>
     <t>texture</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3840,15 +3840,35 @@
     <t>按钮点击</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>buff图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_技能spell id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻度物理dot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bufficon_debuffDot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bufficon_buff名称去掉b1（dot则不包含程度）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3993,14 +4013,16 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -4025,7 +4047,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4065,6 +4087,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4324,7 +4352,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1"/>
@@ -4407,6 +4435,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="10"/>
@@ -4440,6 +4469,14 @@
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4486,7 +4523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4518,9 +4555,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4552,6 +4590,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4727,14 +4766,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="10.5" style="7" customWidth="1"/>
@@ -4745,7 +4784,7 @@
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -4759,7 +4798,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4773,7 +4812,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4787,7 +4826,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -4801,7 +4840,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -4827,7 +4866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4837,7 +4876,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>26</v>
@@ -4859,7 +4898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -4873,7 +4912,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
         <v>402</v>
@@ -4893,7 +4932,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -4903,7 +4942,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -4913,7 +4952,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -4923,7 +4962,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -4933,7 +4972,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -4943,7 +4982,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -4963,7 +5002,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4973,7 +5012,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -4983,7 +5022,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4993,7 +5032,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -5013,7 +5052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
   </sheetPr>
@@ -5023,7 +5062,7 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
@@ -5034,7 +5073,7 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -5054,8 +5093,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1"/>
-    <row r="3" spans="1:6">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>371</v>
       </c>
@@ -5072,7 +5111,7 @@
         <v>10249</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>374</v>
       </c>
@@ -5086,7 +5125,7 @@
         <v>20249</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>376</v>
       </c>
@@ -5100,7 +5139,7 @@
         <v>30014</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>378</v>
       </c>
@@ -5114,8 +5153,8 @@
         <v>40019</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1"/>
-    <row r="9" spans="1:6">
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>384</v>
       </c>
@@ -5132,19 +5171,19 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E14" s="35"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E15" s="35"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E16" s="35"/>
     </row>
   </sheetData>
@@ -5154,7 +5193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
   </sheetPr>
@@ -5164,7 +5203,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
@@ -5175,7 +5214,7 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -5195,8 +5234,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1"/>
-    <row r="3" spans="1:6">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>389</v>
       </c>
@@ -5213,7 +5252,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D4" s="7" t="s">
         <v>392</v>
       </c>
@@ -5221,7 +5260,7 @@
         <v>10061326</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D5" s="7" t="s">
         <v>393</v>
       </c>
@@ -5229,7 +5268,7 @@
         <v>61326</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="7" t="s">
         <v>394</v>
       </c>
@@ -5237,7 +5276,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D7" s="7" t="s">
         <v>395</v>
       </c>
@@ -5245,7 +5284,7 @@
         <v>2015101326</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="7" t="s">
         <v>396</v>
       </c>
@@ -5253,7 +5292,7 @@
         <v>20151326</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="7" t="s">
         <v>398</v>
       </c>
@@ -5261,7 +5300,7 @@
         <v>20151013267</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="7" t="s">
         <v>399</v>
       </c>
@@ -5269,7 +5308,7 @@
         <v>201513267</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D11" s="7" t="s">
         <v>400</v>
       </c>
@@ -5277,7 +5316,7 @@
         <v>13267</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D12" s="7" t="s">
         <v>401</v>
       </c>
@@ -5285,19 +5324,19 @@
         <v>1013267</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E14" s="35"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E15" s="35"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E16" s="35"/>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E17" s="35"/>
     </row>
   </sheetData>
@@ -5307,21 +5346,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G121" sqref="G121:G122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="47" t="s">
         <v>512</v>
       </c>
@@ -5329,7 +5368,7 @@
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
     </row>
-    <row r="3" spans="1:7" ht="18">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
         <v>513</v>
       </c>
@@ -5337,7 +5376,7 @@
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="17.25">
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="49" t="s">
         <v>514</v>
@@ -5347,7 +5386,7 @@
       </c>
       <c r="D4" s="43"/>
     </row>
-    <row r="5" spans="1:7" ht="17.25">
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" s="49" t="s">
         <v>516</v>
@@ -5357,7 +5396,7 @@
       </c>
       <c r="D5" s="43"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25">
+    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" s="49" t="s">
         <v>517</v>
@@ -5367,7 +5406,7 @@
       </c>
       <c r="D6" s="43"/>
     </row>
-    <row r="7" spans="1:7" ht="33">
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="43"/>
       <c r="C7" s="42" t="s">
@@ -5375,7 +5414,7 @@
       </c>
       <c r="D7" s="43"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25">
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="49" t="s">
         <v>520</v>
@@ -5383,7 +5422,7 @@
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43" t="s">
@@ -5393,7 +5432,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43" t="s">
@@ -5403,7 +5442,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43" t="s">
@@ -5413,7 +5452,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="43" t="s">
         <v>528</v>
       </c>
@@ -5424,7 +5463,7 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="43" t="s">
         <v>530</v>
       </c>
@@ -5435,7 +5474,7 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="43"/>
       <c r="D14" s="43" t="s">
         <v>532</v>
@@ -5444,7 +5483,7 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="43"/>
       <c r="D15" s="43" t="s">
         <v>533</v>
@@ -5453,7 +5492,7 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C16" s="43"/>
       <c r="D16" s="43" t="s">
         <v>534</v>
@@ -5462,7 +5501,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="3:7" ht="16.5">
+    <row r="17" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C17" s="43"/>
       <c r="D17" s="43" t="s">
         <v>535</v>
@@ -5471,7 +5510,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="3:7" ht="16.5">
+    <row r="18" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="43"/>
       <c r="D18" s="43" t="s">
         <v>536</v>
@@ -5480,7 +5519,7 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
     </row>
-    <row r="19" spans="3:7" ht="16.5">
+    <row r="19" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C19" s="43"/>
       <c r="D19" s="43" t="s">
         <v>537</v>
@@ -5489,7 +5528,7 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="3:7" ht="16.5">
+    <row r="20" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C20" s="43"/>
       <c r="D20" s="43" t="s">
         <v>538</v>
@@ -5498,12 +5537,12 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="3:7" ht="16.5">
+    <row r="21" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D21" s="43" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="16.5">
+    <row r="22" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C22" s="43" t="s">
         <v>539</v>
       </c>
@@ -5512,7 +5551,7 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
     </row>
-    <row r="23" spans="3:7" ht="16.5">
+    <row r="23" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C23" s="43"/>
       <c r="D23" s="43" t="s">
         <v>2</v>
@@ -5523,7 +5562,7 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="3:7" ht="16.5">
+    <row r="24" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C24" s="43"/>
       <c r="D24" s="43" t="s">
         <v>541</v>
@@ -5534,7 +5573,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="3:7" ht="16.5">
+    <row r="25" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
       <c r="E25" s="43" t="s">
@@ -5545,7 +5584,7 @@
       </c>
       <c r="G25" s="43"/>
     </row>
-    <row r="26" spans="3:7" ht="16.5">
+    <row r="26" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43" t="s">
@@ -5556,7 +5595,7 @@
       </c>
       <c r="G26" s="43"/>
     </row>
-    <row r="27" spans="3:7" ht="16.5">
+    <row r="27" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
@@ -5567,7 +5606,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="16.5">
+    <row r="28" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D28" s="43"/>
       <c r="E28" s="43"/>
       <c r="F28" s="43" t="s">
@@ -5577,7 +5616,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="16.5">
+    <row r="29" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
       <c r="F29" s="43"/>
@@ -5585,7 +5624,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="16.5">
+    <row r="30" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D30" s="43"/>
       <c r="E30" s="43" t="s">
         <v>552</v>
@@ -5595,7 +5634,7 @@
       </c>
       <c r="G30" s="43"/>
     </row>
-    <row r="32" spans="3:7" ht="16.5">
+    <row r="32" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D32" s="43" t="s">
         <v>554</v>
       </c>
@@ -5605,7 +5644,7 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
     </row>
-    <row r="33" spans="4:8" ht="16.5">
+    <row r="33" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D33" s="43"/>
       <c r="E33" s="43" t="s">
         <v>556</v>
@@ -5615,7 +5654,7 @@
       </c>
       <c r="G33" s="43"/>
     </row>
-    <row r="36" spans="4:8" ht="16.5">
+    <row r="36" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D36" s="43" t="s">
         <v>558</v>
       </c>
@@ -5625,7 +5664,7 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
     </row>
-    <row r="37" spans="4:8" ht="16.5">
+    <row r="37" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D37" s="43"/>
       <c r="E37" s="43" t="s">
         <v>560</v>
@@ -5633,7 +5672,7 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
     </row>
-    <row r="38" spans="4:8" ht="16.5">
+    <row r="38" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D38" s="43"/>
       <c r="E38" s="43" t="s">
         <v>556</v>
@@ -5643,7 +5682,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="39" spans="4:8" ht="16.5">
+    <row r="39" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D39" s="43"/>
       <c r="E39" s="43" t="s">
         <v>562</v>
@@ -5653,7 +5692,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="4:8" ht="16.5">
+    <row r="41" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D41" s="43" t="s">
         <v>564</v>
       </c>
@@ -5663,7 +5702,7 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
     </row>
-    <row r="42" spans="4:8" ht="16.5">
+    <row r="42" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D42" s="43"/>
       <c r="E42" s="43" t="s">
         <v>566</v>
@@ -5672,7 +5711,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="43" spans="4:8" ht="16.5">
+    <row r="43" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D43" s="43"/>
       <c r="E43" s="43" t="s">
         <v>568</v>
@@ -5681,7 +5720,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="44" spans="4:8" ht="16.5">
+    <row r="44" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D44" s="43" t="s">
         <v>552</v>
       </c>
@@ -5690,14 +5729,14 @@
       </c>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="4:8" ht="16.5">
+    <row r="45" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D45" s="43"/>
       <c r="E45" s="50" t="s">
         <v>571</v>
       </c>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="4:8" ht="16.5">
+    <row r="46" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D46" s="43"/>
       <c r="E46" s="43" t="s">
         <v>556</v>
@@ -5706,7 +5745,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="47" spans="4:8" ht="16.5">
+    <row r="47" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D47" s="43"/>
       <c r="E47" s="43" t="s">
         <v>573</v>
@@ -5715,7 +5754,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="48" spans="4:8" ht="16.5">
+    <row r="48" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D48" s="43"/>
       <c r="E48" s="43" t="s">
         <v>575</v>
@@ -5724,7 +5763,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="49" spans="3:7" ht="16.5">
+    <row r="49" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D49" s="43"/>
       <c r="E49" s="43" t="s">
         <v>577</v>
@@ -5733,7 +5772,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="50" spans="3:7" ht="16.5">
+    <row r="50" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D50" s="43"/>
       <c r="E50" s="43" t="s">
         <v>579</v>
@@ -5742,7 +5781,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="51" spans="3:7" ht="16.5">
+    <row r="51" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D51" s="43"/>
       <c r="E51" s="43" t="s">
         <v>581</v>
@@ -5751,7 +5790,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="3:7" ht="16.5">
+    <row r="52" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D52" s="43"/>
       <c r="E52" s="43" t="s">
         <v>583</v>
@@ -5760,7 +5799,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="53" spans="3:7" ht="16.5">
+    <row r="53" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D53" s="43"/>
       <c r="E53" s="43" t="s">
         <v>585</v>
@@ -5769,7 +5808,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="54" spans="3:7" ht="16.5">
+    <row r="54" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D54" s="43"/>
       <c r="E54" s="43" t="s">
         <v>587</v>
@@ -5778,7 +5817,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="55" spans="3:7" ht="16.5">
+    <row r="55" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D55" s="43"/>
       <c r="E55" s="43" t="s">
         <v>589</v>
@@ -5787,7 +5826,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="56" spans="3:7" ht="16.5">
+    <row r="56" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C56" s="43"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43" t="s">
@@ -5798,7 +5837,7 @@
       </c>
       <c r="G56" s="43"/>
     </row>
-    <row r="57" spans="3:7" ht="16.5">
+    <row r="57" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C57" s="43" t="s">
         <v>593</v>
       </c>
@@ -5809,7 +5848,7 @@
       <c r="F57" s="43"/>
       <c r="G57" s="43"/>
     </row>
-    <row r="58" spans="3:7" ht="16.5">
+    <row r="58" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C58" s="43"/>
       <c r="D58" s="50" t="s">
         <v>595</v>
@@ -5818,7 +5857,7 @@
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
     </row>
-    <row r="59" spans="3:7" ht="16.5">
+    <row r="59" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C59" s="43"/>
       <c r="D59" s="44" t="s">
         <v>696</v>
@@ -5829,7 +5868,7 @@
       </c>
       <c r="G59" s="43"/>
     </row>
-    <row r="60" spans="3:7" ht="16.5">
+    <row r="60" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C60" s="43"/>
       <c r="D60" s="43" t="s">
         <v>526</v>
@@ -5840,7 +5879,7 @@
       </c>
       <c r="G60" s="43"/>
     </row>
-    <row r="61" spans="3:7" ht="16.5">
+    <row r="61" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C61" s="43"/>
       <c r="D61" s="43" t="s">
         <v>558</v>
@@ -5851,7 +5890,7 @@
       </c>
       <c r="G61" s="43"/>
     </row>
-    <row r="62" spans="3:7" ht="16.5">
+    <row r="62" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C62" s="43"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
@@ -5860,7 +5899,7 @@
       </c>
       <c r="G62" s="43"/>
     </row>
-    <row r="63" spans="3:7" ht="16.5">
+    <row r="63" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C63" s="43" t="s">
         <v>600</v>
       </c>
@@ -5871,7 +5910,7 @@
       <c r="F63" s="43"/>
       <c r="G63" s="43"/>
     </row>
-    <row r="64" spans="3:7" ht="16.5">
+    <row r="64" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C64" s="43" t="s">
         <v>602</v>
       </c>
@@ -5882,7 +5921,7 @@
       <c r="F64" s="43"/>
       <c r="G64" s="43"/>
     </row>
-    <row r="65" spans="3:7" ht="16.5">
+    <row r="65" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C65" s="43"/>
       <c r="D65" s="45" t="s">
         <v>604</v>
@@ -5891,7 +5930,7 @@
       <c r="F65" s="43"/>
       <c r="G65" s="43"/>
     </row>
-    <row r="66" spans="3:7" ht="16.5">
+    <row r="66" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C66" s="43"/>
       <c r="D66" s="45"/>
       <c r="E66" s="43" t="s">
@@ -5902,7 +5941,7 @@
       </c>
       <c r="G66" s="43"/>
     </row>
-    <row r="67" spans="3:7" ht="16.5">
+    <row r="67" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C67" s="43"/>
       <c r="D67" s="45"/>
       <c r="E67" s="43"/>
@@ -5911,7 +5950,7 @@
       </c>
       <c r="G67" s="43"/>
     </row>
-    <row r="68" spans="3:7" ht="16.5">
+    <row r="68" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C68" s="43"/>
       <c r="D68" s="45"/>
       <c r="E68" s="43" t="s">
@@ -5922,7 +5961,7 @@
       </c>
       <c r="G68" s="43"/>
     </row>
-    <row r="69" spans="3:7" ht="16.5">
+    <row r="69" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C69" s="43"/>
       <c r="D69" s="45"/>
       <c r="E69" s="43" t="s">
@@ -5931,7 +5970,7 @@
       <c r="F69" s="43"/>
       <c r="G69" s="43"/>
     </row>
-    <row r="70" spans="3:7" ht="16.5">
+    <row r="70" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C70" s="43"/>
       <c r="D70" s="45"/>
       <c r="E70" s="43"/>
@@ -5942,7 +5981,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="71" spans="3:7" ht="16.5">
+    <row r="71" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C71" s="43"/>
       <c r="D71" s="45"/>
       <c r="E71" s="43"/>
@@ -5953,7 +5992,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="72" spans="3:7" ht="16.5">
+    <row r="72" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D72" s="45"/>
       <c r="E72" s="43"/>
       <c r="F72" s="43" t="s">
@@ -5963,7 +6002,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="73" spans="3:7" ht="16.5">
+    <row r="73" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D73" s="45"/>
       <c r="E73" s="43" t="s">
         <v>617</v>
@@ -5973,7 +6012,7 @@
       </c>
       <c r="G73" s="43"/>
     </row>
-    <row r="74" spans="3:7" ht="16.5">
+    <row r="74" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D74" s="45"/>
       <c r="E74" s="43" t="s">
         <v>619</v>
@@ -5983,7 +6022,7 @@
       </c>
       <c r="G74" s="43"/>
     </row>
-    <row r="75" spans="3:7" ht="16.5">
+    <row r="75" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D75" s="45"/>
       <c r="E75" s="43" t="s">
         <v>621</v>
@@ -5995,7 +6034,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="76" spans="3:7" ht="16.5">
+    <row r="76" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D76" s="43" t="s">
         <v>624</v>
       </c>
@@ -6003,7 +6042,7 @@
       <c r="F76" s="43"/>
       <c r="G76" s="43"/>
     </row>
-    <row r="77" spans="3:7" ht="16.5">
+    <row r="77" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D77" s="43" t="s">
         <v>625</v>
       </c>
@@ -6011,7 +6050,7 @@
       <c r="F77" s="43"/>
       <c r="G77" s="43"/>
     </row>
-    <row r="78" spans="3:7" ht="16.5">
+    <row r="78" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D78" s="43" t="s">
         <v>575</v>
       </c>
@@ -6019,7 +6058,7 @@
       <c r="F78" s="43"/>
       <c r="G78" s="43"/>
     </row>
-    <row r="79" spans="3:7" ht="16.5">
+    <row r="79" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D79" s="43" t="s">
         <v>2</v>
       </c>
@@ -6027,7 +6066,7 @@
       <c r="F79" s="43"/>
       <c r="G79" s="43"/>
     </row>
-    <row r="80" spans="3:7" ht="16.5">
+    <row r="80" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D80" s="43" t="s">
         <v>579</v>
       </c>
@@ -6035,7 +6074,7 @@
       <c r="F80" s="43"/>
       <c r="G80" s="43"/>
     </row>
-    <row r="81" spans="3:7" ht="16.5">
+    <row r="81" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D81" s="43" t="s">
         <v>626</v>
       </c>
@@ -6043,7 +6082,7 @@
       <c r="F81" s="43"/>
       <c r="G81" s="43"/>
     </row>
-    <row r="82" spans="3:7" ht="16.5">
+    <row r="82" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D82" s="43" t="s">
         <v>627</v>
       </c>
@@ -6051,7 +6090,7 @@
       <c r="F82" s="43"/>
       <c r="G82" s="43"/>
     </row>
-    <row r="83" spans="3:7" ht="16.5">
+    <row r="83" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D83" s="43" t="s">
         <v>583</v>
       </c>
@@ -6059,7 +6098,7 @@
       <c r="F83" s="43"/>
       <c r="G83" s="43"/>
     </row>
-    <row r="84" spans="3:7" ht="16.5">
+    <row r="84" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D84" s="43" t="s">
         <v>628</v>
       </c>
@@ -6067,7 +6106,7 @@
       <c r="F84" s="43"/>
       <c r="G84" s="43"/>
     </row>
-    <row r="85" spans="3:7" ht="16.5">
+    <row r="85" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D85" s="43" t="s">
         <v>629</v>
       </c>
@@ -6075,7 +6114,7 @@
       <c r="F85" s="43"/>
       <c r="G85" s="43"/>
     </row>
-    <row r="86" spans="3:7" ht="16.5">
+    <row r="86" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D86" s="43" t="s">
         <v>630</v>
       </c>
@@ -6083,7 +6122,7 @@
       <c r="F86" s="43"/>
       <c r="G86" s="43"/>
     </row>
-    <row r="87" spans="3:7" ht="16.5">
+    <row r="87" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D87" s="43" t="s">
         <v>631</v>
       </c>
@@ -6091,7 +6130,7 @@
       <c r="F87" s="43"/>
       <c r="G87" s="43"/>
     </row>
-    <row r="88" spans="3:7" ht="16.5">
+    <row r="88" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C88" s="43"/>
       <c r="D88" s="43" t="s">
         <v>632</v>
@@ -6099,7 +6138,7 @@
       <c r="E88" s="43"/>
       <c r="F88" s="43"/>
     </row>
-    <row r="89" spans="3:7" ht="16.5">
+    <row r="89" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C89" s="43"/>
       <c r="D89" s="45" t="s">
         <v>633</v>
@@ -6107,7 +6146,7 @@
       <c r="E89" s="43"/>
       <c r="F89" s="43"/>
     </row>
-    <row r="90" spans="3:7" ht="16.5">
+    <row r="90" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C90" s="43"/>
       <c r="D90" s="45" t="s">
         <v>634</v>
@@ -6115,7 +6154,7 @@
       <c r="E90" s="43"/>
       <c r="F90" s="43"/>
     </row>
-    <row r="91" spans="3:7" ht="16.5">
+    <row r="91" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C91" s="43"/>
       <c r="D91" s="43" t="s">
         <v>635</v>
@@ -6123,7 +6162,7 @@
       <c r="E91" s="43"/>
       <c r="F91" s="43"/>
     </row>
-    <row r="92" spans="3:7" ht="16.5">
+    <row r="92" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C92" s="43" t="s">
         <v>636</v>
       </c>
@@ -6133,7 +6172,7 @@
       <c r="E92" s="43"/>
       <c r="F92" s="43"/>
     </row>
-    <row r="93" spans="3:7" ht="16.5">
+    <row r="93" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C93" s="43" t="s">
         <v>638</v>
       </c>
@@ -6141,7 +6180,7 @@
       <c r="E93" s="43"/>
       <c r="F93" s="43"/>
     </row>
-    <row r="94" spans="3:7" ht="16.5">
+    <row r="94" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C94" s="43"/>
       <c r="D94" s="43" t="s">
         <v>541</v>
@@ -6151,7 +6190,7 @@
       </c>
       <c r="F94" s="43"/>
     </row>
-    <row r="95" spans="3:7" ht="16.5">
+    <row r="95" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C95" s="43"/>
       <c r="D95" s="43" t="s">
         <v>640</v>
@@ -6159,7 +6198,7 @@
       <c r="E95" s="43"/>
       <c r="F95" s="43"/>
     </row>
-    <row r="96" spans="3:7" ht="16.5">
+    <row r="96" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C96" s="43"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43" t="s">
@@ -6169,7 +6208,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="98" spans="3:14" ht="16.5">
+    <row r="98" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C98" s="43"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43" t="s">
@@ -6179,7 +6218,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="99" spans="3:14" ht="16.5">
+    <row r="99" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C99" s="43"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
@@ -6187,7 +6226,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="101" spans="3:14" ht="16.5">
+    <row r="101" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C101" s="43"/>
       <c r="D101" s="43" t="s">
         <v>646</v>
@@ -6199,7 +6238,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="103" spans="3:14" ht="16.5">
+    <row r="103" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D103" s="43" t="s">
         <v>649</v>
       </c>
@@ -6214,7 +6253,7 @@
       <c r="M103" s="43"/>
       <c r="N103" s="43"/>
     </row>
-    <row r="104" spans="3:14" ht="16.5">
+    <row r="104" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D104" s="43"/>
       <c r="E104" s="43" t="s">
         <v>697</v>
@@ -6231,7 +6270,7 @@
       <c r="M104" s="43"/>
       <c r="N104" s="43"/>
     </row>
-    <row r="105" spans="3:14" ht="16.5">
+    <row r="105" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D105" s="43"/>
       <c r="E105" s="43" t="s">
         <v>698</v>
@@ -6248,7 +6287,7 @@
       <c r="M105" s="43"/>
       <c r="N105" s="43"/>
     </row>
-    <row r="106" spans="3:14" ht="16.5">
+    <row r="106" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D106" s="43" t="s">
         <v>652</v>
       </c>
@@ -6263,7 +6302,7 @@
       <c r="M106" s="43"/>
       <c r="N106" s="43"/>
     </row>
-    <row r="107" spans="3:14" ht="16.5">
+    <row r="107" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D107" s="43"/>
       <c r="E107" s="43" t="s">
         <v>633</v>
@@ -6278,7 +6317,7 @@
       <c r="M107" s="43"/>
       <c r="N107" s="43"/>
     </row>
-    <row r="108" spans="3:14" ht="16.5">
+    <row r="108" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="41" t="s">
@@ -6294,7 +6333,7 @@
       <c r="M108" s="43"/>
       <c r="N108" s="43"/>
     </row>
-    <row r="109" spans="3:14" ht="16.5">
+    <row r="109" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="41" t="s">
@@ -6310,7 +6349,7 @@
       <c r="M109" s="43"/>
       <c r="N109" s="43"/>
     </row>
-    <row r="110" spans="3:14" ht="16.5">
+    <row r="110" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="41" t="s">
@@ -6326,7 +6365,7 @@
       <c r="M110" s="43"/>
       <c r="N110" s="43"/>
     </row>
-    <row r="111" spans="3:14" ht="16.5">
+    <row r="111" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C111" s="43" t="s">
         <v>658</v>
       </c>
@@ -6334,7 +6373,7 @@
       <c r="E111" s="43"/>
       <c r="F111" s="43"/>
     </row>
-    <row r="112" spans="3:14" ht="16.5">
+    <row r="112" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C112" s="43"/>
       <c r="D112" s="43" t="s">
         <v>659</v>
@@ -6344,7 +6383,7 @@
       </c>
       <c r="F112" s="43"/>
     </row>
-    <row r="113" spans="3:7" ht="16.5">
+    <row r="113" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C113" s="43"/>
       <c r="D113" s="43" t="s">
         <v>632</v>
@@ -6354,7 +6393,7 @@
       </c>
       <c r="F113" s="43"/>
     </row>
-    <row r="114" spans="3:7" ht="16.5">
+    <row r="114" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C114" s="43"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43" t="s">
@@ -6364,7 +6403,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="115" spans="3:7" ht="16.5">
+    <row r="115" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C115" s="43"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43" t="s">
@@ -6372,7 +6411,7 @@
       </c>
       <c r="F115" s="43"/>
     </row>
-    <row r="116" spans="3:7" ht="16.5">
+    <row r="116" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C116" s="43"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43" t="s">
@@ -6380,7 +6419,7 @@
       </c>
       <c r="F116" s="43"/>
     </row>
-    <row r="117" spans="3:7" ht="16.5">
+    <row r="117" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C117" s="43"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43" t="s">
@@ -6388,7 +6427,7 @@
       </c>
       <c r="F117" s="43"/>
     </row>
-    <row r="118" spans="3:7" ht="16.5">
+    <row r="118" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C118" s="43"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43" t="s">
@@ -6396,7 +6435,7 @@
       </c>
       <c r="F118" s="43"/>
     </row>
-    <row r="119" spans="3:7" ht="16.5">
+    <row r="119" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C119" s="43"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43" t="s">
@@ -6404,7 +6443,7 @@
       </c>
       <c r="F119" s="43"/>
     </row>
-    <row r="120" spans="3:7" ht="16.5">
+    <row r="120" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C120" s="43"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43" t="s">
@@ -6412,7 +6451,7 @@
       </c>
       <c r="F120" s="43"/>
     </row>
-    <row r="121" spans="3:7" ht="16.5">
+    <row r="121" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C121" s="43"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43" t="s">
@@ -6420,7 +6459,7 @@
       </c>
       <c r="F121" s="43"/>
     </row>
-    <row r="122" spans="3:7" ht="16.5">
+    <row r="122" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C122" s="43"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43" t="s">
@@ -6428,7 +6467,7 @@
       </c>
       <c r="F122" s="43"/>
     </row>
-    <row r="123" spans="3:7" ht="16.5">
+    <row r="123" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C123" s="43"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43" t="s">
@@ -6436,7 +6475,7 @@
       </c>
       <c r="F123" s="43"/>
     </row>
-    <row r="124" spans="3:7" ht="16.5">
+    <row r="124" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C124" s="43"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43" t="s">
@@ -6444,7 +6483,7 @@
       </c>
       <c r="F124" s="43"/>
     </row>
-    <row r="125" spans="3:7" ht="16.5">
+    <row r="125" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C125" s="43"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43" t="s">
@@ -6452,112 +6491,112 @@
       </c>
       <c r="F125" s="43"/>
     </row>
-    <row r="126" spans="3:7" ht="16.5">
+    <row r="126" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E126" s="43" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="127" spans="3:7" ht="16.5">
+    <row r="127" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E127" s="43" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="128" spans="3:7" ht="16.5">
+    <row r="128" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E128" s="43" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="129" spans="5:5" ht="16.5">
+    <row r="129" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E129" s="43" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="130" spans="5:5" ht="16.5">
+    <row r="130" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E130" s="43" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="131" spans="5:5" ht="16.5">
+    <row r="131" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E131" s="43" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="132" spans="5:5" ht="16.5">
+    <row r="132" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E132" s="43" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="133" spans="5:5" ht="16.5">
+    <row r="133" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E133" s="43" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="134" spans="5:5" ht="16.5">
+    <row r="134" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E134" s="43" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="135" spans="5:5" ht="16.5">
+    <row r="135" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E135" s="43" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="136" spans="5:5" ht="16.5">
+    <row r="136" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E136" s="43" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="137" spans="5:5" ht="16.5">
+    <row r="137" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E137" s="43" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="138" spans="5:5" ht="16.5">
+    <row r="138" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E138" s="43" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="139" spans="5:5" ht="16.5">
+    <row r="139" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E139" s="43" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="140" spans="5:5" ht="16.5">
+    <row r="140" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E140" s="43" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="141" spans="5:5" ht="16.5">
+    <row r="141" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E141" s="43" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="142" spans="5:5" ht="16.5">
+    <row r="142" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E142" s="43" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="143" spans="5:5" ht="16.5">
+    <row r="143" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E143" s="43" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="144" spans="5:5" ht="16.5">
+    <row r="144" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E144" s="43" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="145" spans="5:5" ht="16.5">
+    <row r="145" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E145" s="43" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="146" spans="5:5" ht="16.5">
+    <row r="146" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E146" s="43" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="147" spans="5:5" ht="16.5">
+    <row r="147" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E147" s="43" t="s">
         <v>695</v>
       </c>
@@ -6573,7 +6612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -6584,7 +6623,7 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
@@ -6595,7 +6634,7 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -6615,8 +6654,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1"/>
-    <row r="3" spans="1:6" ht="82.5">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -6636,7 +6675,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>444</v>
       </c>
@@ -6653,7 +6692,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>47</v>
       </c>
@@ -6667,7 +6706,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>48</v>
       </c>
@@ -6681,8 +6720,8 @@
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1"/>
-    <row r="8" spans="1:6" s="32" customFormat="1" ht="33">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>37</v>
       </c>
@@ -6702,7 +6741,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>490</v>
       </c>
@@ -6719,10 +6758,10 @@
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>440</v>
       </c>
@@ -6739,7 +6778,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>261</v>
       </c>
@@ -6756,7 +6795,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
         <v>55</v>
       </c>
@@ -6773,7 +6812,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>438</v>
       </c>
@@ -6782,7 +6821,7 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>437</v>
       </c>
@@ -6796,8 +6835,8 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1"/>
-    <row r="17" spans="1:6">
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -6814,7 +6853,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
@@ -6828,8 +6867,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1"/>
-    <row r="20" spans="1:6">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
@@ -6849,7 +6888,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
         <v>42</v>
       </c>
@@ -6866,8 +6905,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1"/>
-    <row r="24" spans="1:6" s="38" customFormat="1">
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
         <v>40</v>
       </c>
@@ -6891,14 +6930,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
@@ -6909,7 +6948,7 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -6929,8 +6968,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1"/>
-    <row r="3" spans="1:6">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>64</v>
       </c>
@@ -6950,7 +6989,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>66</v>
       </c>
@@ -6967,7 +7006,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>414</v>
       </c>
@@ -6991,18 +7030,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="7" bestFit="1" customWidth="1"/>
@@ -7013,7 +7052,7 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -7033,8 +7072,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1"/>
-    <row r="3" spans="1:6" ht="66">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>331</v>
       </c>
@@ -7054,7 +7093,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>68</v>
       </c>
@@ -7068,7 +7107,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>69</v>
       </c>
@@ -7082,7 +7121,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>70</v>
       </c>
@@ -7096,7 +7135,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>71</v>
       </c>
@@ -7110,7 +7149,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
         <v>72</v>
       </c>
@@ -7124,7 +7163,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>90</v>
       </c>
@@ -7138,7 +7177,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>91</v>
       </c>
@@ -7152,7 +7191,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>92</v>
       </c>
@@ -7166,7 +7205,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>100</v>
       </c>
@@ -7180,7 +7219,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>332</v>
       </c>
@@ -7197,7 +7236,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
         <v>68</v>
@@ -7212,7 +7251,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
         <v>69</v>
@@ -7227,7 +7266,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
         <v>70</v>
@@ -7242,7 +7281,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
         <v>71</v>
@@ -7257,7 +7296,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>72</v>
@@ -7272,7 +7311,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
         <v>90</v>
@@ -7287,7 +7326,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
         <v>91</v>
@@ -7302,7 +7341,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
         <v>92</v>
@@ -7317,7 +7356,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
         <v>100</v>
@@ -7332,8 +7371,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1"/>
-    <row r="24" spans="1:6">
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>345</v>
       </c>
@@ -7353,7 +7392,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
         <v>112</v>
       </c>
@@ -7370,7 +7409,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" s="7" t="s">
         <v>479</v>
       </c>
@@ -7385,7 +7424,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>346</v>
       </c>
@@ -7403,7 +7442,7 @@
       </c>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
         <v>348</v>
       </c>
@@ -7420,7 +7459,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" s="7" t="s">
         <v>479</v>
       </c>
@@ -7435,8 +7474,8 @@
       </c>
       <c r="F30" s="11"/>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1"/>
-    <row r="33" spans="1:6" s="32" customFormat="1" ht="33">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
         <v>351</v>
       </c>
@@ -7456,7 +7495,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="32" customFormat="1">
+    <row r="34" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="32" t="s">
         <v>355</v>
       </c>
@@ -7467,8 +7506,8 @@
         <v>446</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="32" customFormat="1"/>
-    <row r="36" spans="1:6" s="32" customFormat="1" ht="33">
+    <row r="35" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>352</v>
       </c>
@@ -7488,7 +7527,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="32" customFormat="1">
+    <row r="37" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="32" t="s">
         <v>355</v>
       </c>
@@ -7499,8 +7538,8 @@
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="32" customFormat="1"/>
-    <row r="39" spans="1:6" s="32" customFormat="1" ht="33">
+    <row r="38" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>353</v>
       </c>
@@ -7520,7 +7559,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="32" customFormat="1">
+    <row r="40" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="32" t="s">
         <v>355</v>
       </c>
@@ -7531,8 +7570,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="32" customFormat="1"/>
-    <row r="42" spans="1:6" s="32" customFormat="1" ht="33">
+    <row r="41" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>359</v>
       </c>
@@ -7552,7 +7591,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="32" customFormat="1">
+    <row r="43" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="32" t="s">
         <v>464</v>
       </c>
@@ -7566,8 +7605,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="32" customFormat="1"/>
-    <row r="45" spans="1:6" s="32" customFormat="1" ht="33">
+    <row r="44" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>360</v>
       </c>
@@ -7587,7 +7626,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="32" customFormat="1">
+    <row r="46" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B46" s="32" t="s">
         <v>363</v>
       </c>
@@ -7601,8 +7640,8 @@
         <v>477</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="32" customFormat="1"/>
-    <row r="48" spans="1:6" s="32" customFormat="1" ht="33">
+    <row r="47" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>361</v>
       </c>
@@ -7622,7 +7661,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="32" customFormat="1">
+    <row r="49" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="32" t="s">
         <v>363</v>
       </c>
@@ -7636,15 +7675,15 @@
         <v>478</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="32" customFormat="1"/>
-    <row r="51" spans="1:5" s="32" customFormat="1">
+    <row r="50" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="38" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="32" customFormat="1"/>
-    <row r="54" spans="1:5" s="9" customFormat="1"/>
-    <row r="55" spans="1:5">
+    <row r="52" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>103</v>
       </c>
@@ -7655,7 +7694,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B56" s="7" t="s">
         <v>105</v>
       </c>
@@ -7670,23 +7709,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.5" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1">
+    <row r="1" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>284</v>
       </c>
@@ -7694,7 +7733,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1">
+    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>218</v>
       </c>
@@ -7702,22 +7741,22 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1">
+    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>217</v>
       </c>
@@ -7725,18 +7764,18 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="32" customFormat="1">
+    <row r="8" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31"/>
       <c r="B8" s="31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
         <v>220</v>
       </c>
@@ -7747,7 +7786,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C11" s="7" t="s">
         <v>221</v>
       </c>
@@ -7761,102 +7800,102 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C15" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D16" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E17" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D18" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E19" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C20" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D21" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E22" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D23" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E24" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C25" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D26" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E27" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C31" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D32" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="9" customFormat="1">
+    <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
         <v>254</v>
       </c>
@@ -7864,22 +7903,22 @@
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B35" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C36" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D37" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="9" customFormat="1">
+    <row r="39" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="29" t="s">
         <v>3</v>
       </c>
@@ -7887,67 +7926,67 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B40" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C41" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D42" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C44" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D45" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C46" s="7" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25">
+    <row r="47" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
       <c r="D47" s="39" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" s="7" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C49" s="7" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B50" s="7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C51" s="7" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="9" customFormat="1">
+    <row r="54" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="29" t="s">
         <v>4</v>
       </c>
@@ -7955,52 +7994,52 @@
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C56" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D57" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B59" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C60" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D61" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B63" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C64" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D65" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="9" customFormat="1">
+    <row r="67" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="29" t="s">
         <v>281</v>
       </c>
@@ -8008,78 +8047,78 @@
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B68" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B69" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B70" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="9" customFormat="1">
+    <row r="73" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="29" t="s">
         <v>286</v>
       </c>
       <c r="B73" s="30"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" s="12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C76" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C77" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B79" s="12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B80" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C81" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C82" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C86" s="7" t="s">
         <v>231</v>
       </c>
@@ -8091,7 +8130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -8101,13 +8140,13 @@
       <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.75" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>217</v>
       </c>
@@ -8115,13 +8154,13 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="32" customFormat="1">
+    <row r="2" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="32" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="9" customFormat="1">
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>295</v>
       </c>
@@ -8129,143 +8168,143 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C15" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D17" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C19" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C20" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D21" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C25" s="7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C26" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D27" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C29" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C30" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D31" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C33" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C34" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D35" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C37" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C38" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D39" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="9" customFormat="1">
+    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
         <v>320</v>
       </c>
@@ -8273,12 +8312,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="9" customFormat="1">
+    <row r="46" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="29" t="s">
         <v>0</v>
       </c>
@@ -8286,7 +8325,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" s="7" t="s">
         <v>5</v>
       </c>
@@ -8294,7 +8333,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="7" t="s">
         <v>6</v>
       </c>
@@ -8302,7 +8341,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="7" t="s">
         <v>249</v>
       </c>
@@ -8310,17 +8349,17 @@
         <v>327</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C54" s="7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C55" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D56" s="7" t="s">
         <v>330</v>
       </c>
@@ -8332,14 +8371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="7" bestFit="1" customWidth="1"/>
@@ -8350,7 +8389,7 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -8370,14 +8409,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1"/>
-    <row r="3" spans="1:6">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>501</v>
       </c>
@@ -8392,7 +8431,7 @@
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>502</v>
       </c>
@@ -8407,7 +8446,7 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>503</v>
       </c>
@@ -8424,15 +8463,15 @@
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1"/>
-    <row r="8" spans="1:6">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>420</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>707</v>
       </c>
@@ -8442,7 +8481,7 @@
       <c r="E9" s="51"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>701</v>
       </c>
@@ -8457,7 +8496,7 @@
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="17.25" customHeight="1">
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>702</v>
       </c>
@@ -8474,11 +8513,11 @@
         <v>718</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E12" s="51"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
         <v>710</v>
       </c>
@@ -8488,7 +8527,7 @@
       <c r="E13" s="51"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>711</v>
       </c>
@@ -8505,12 +8544,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E15" s="51"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1"/>
-    <row r="17" spans="1:6">
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>189</v>
       </c>
@@ -8528,7 +8567,7 @@
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
         <v>194</v>
       </c>
@@ -8543,12 +8582,12 @@
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>500</v>
+        <v>721</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>190</v>
@@ -8558,7 +8597,7 @@
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
         <v>196</v>
       </c>
@@ -8573,7 +8612,7 @@
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
         <v>192</v>
       </c>
@@ -8590,90 +8629,105 @@
         <v>509</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1"/>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="52" t="s">
+        <v>720</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>724</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>722</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>723</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="9" customFormat="1"/>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="D29" s="40"/>
-    </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D30" s="40"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D31" s="40"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D32" s="40"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="40"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="40"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" s="40"/>
     </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="40"/>
-    </row>
-    <row r="38" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="40"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" s="40"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8682,7 +8736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
   </sheetPr>
@@ -8692,7 +8746,7 @@
       <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
@@ -8703,73 +8757,73 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C3" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C4" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C6" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D7" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D8" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D9" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C12" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D13" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D14" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D15" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="17.25" thickBot="1"/>
-    <row r="18" spans="2:7">
+    <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
         <v>153</v>
       </c>
@@ -8783,7 +8837,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C19" s="23" t="s">
         <v>119</v>
       </c>
@@ -8797,7 +8851,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C20" s="17" t="s">
         <v>120</v>
       </c>
@@ -8811,7 +8865,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C21" s="23" t="s">
         <v>175</v>
       </c>
@@ -8825,7 +8879,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C22" s="17" t="s">
         <v>121</v>
       </c>
@@ -8839,7 +8893,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C23" s="23" t="s">
         <v>122</v>
       </c>
@@ -8853,7 +8907,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C24" s="17" t="s">
         <v>123</v>
       </c>
@@ -8867,7 +8921,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C25" s="23" t="s">
         <v>124</v>
       </c>
@@ -8881,7 +8935,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="17.25" thickBot="1">
+    <row r="26" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="19" t="s">
         <v>125</v>
       </c>
@@ -8895,8 +8949,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="17.25" thickBot="1"/>
-    <row r="28" spans="2:7">
+    <row r="27" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="7" t="s">
         <v>154</v>
       </c>
@@ -8910,7 +8964,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C29" s="23" t="s">
         <v>135</v>
       </c>
@@ -8921,7 +8975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C30" s="17" t="s">
         <v>136</v>
       </c>
@@ -8932,7 +8986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C31" s="23" t="s">
         <v>173</v>
       </c>
@@ -8943,7 +8997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C32" s="17" t="s">
         <v>174</v>
       </c>
@@ -8954,7 +9008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C33" s="23" t="s">
         <v>137</v>
       </c>
@@ -8965,7 +9019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C34" s="17" t="s">
         <v>138</v>
       </c>
@@ -8976,7 +9030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C35" s="23" t="s">
         <v>139</v>
       </c>
@@ -8987,7 +9041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C36" s="17" t="s">
         <v>140</v>
       </c>
@@ -8998,7 +9052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="17.25" thickBot="1">
+    <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C37" s="26" t="s">
         <v>141</v>
       </c>
@@ -9009,17 +9063,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C41" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D42" s="7" t="s">
         <v>163</v>
       </c>
@@ -9027,7 +9081,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D43" s="7">
         <v>10001</v>
       </c>
@@ -9035,12 +9089,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D45" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D46" s="7" t="s">
         <v>167</v>
       </c>

--- a/gd/标准化文档/命名规范.xlsx
+++ b/gd/标准化文档/命名规范.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="729">
   <si>
     <t>texture</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3859,6 +3859,21 @@
   <si>
     <t>bufficon_buff名称去掉b1（dot则不包含程度）</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ult+怪物ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊（Boss大招复用小怪，但有特殊修改时）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿姆特大招</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultbossMinghe14Amute</t>
   </si>
 </sst>
 </file>
@@ -4047,7 +4062,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4093,6 +4108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4352,7 +4373,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1"/>
@@ -4436,6 +4457,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="10"/>
@@ -7034,11 +7056,11 @@
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -7410,295 +7432,310 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>725</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>727</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>728</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="F27" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>461</v>
-      </c>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A33" s="32" t="s">
+      <c r="F31" s="11"/>
+    </row>
+    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A34" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B34" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C34" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D34" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E34" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F34" s="34" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
+    <row r="35" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C35" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E35" s="32" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A36" s="32" t="s">
+    <row r="36" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A37" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B37" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C37" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D37" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E37" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F37" s="34" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
+    <row r="38" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C38" s="32" t="s">
         <v>455</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E38" s="32" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A39" s="32" t="s">
+    <row r="39" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A40" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B40" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C40" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D40" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E40" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F40" s="34" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="32" t="s">
+    <row r="41" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C41" s="32" t="s">
         <v>456</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E41" s="32" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A42" s="32" t="s">
+    <row r="42" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A43" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B43" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C43" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D43" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E43" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F43" s="34" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="32" t="s">
+    <row r="44" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C44" s="32" t="s">
         <v>472</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D44" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E44" s="32" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A45" s="32" t="s">
+    <row r="45" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A46" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B46" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C46" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D46" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E46" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F46" s="34" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
+    <row r="47" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C47" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D47" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E47" s="32" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A48" s="32" t="s">
+    <row r="48" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A49" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C49" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D49" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E49" s="32" t="s">
         <v>453</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F49" s="34" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
+    <row r="50" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C50" s="32" t="s">
         <v>474</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D50" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E50" s="32" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="38" t="s">
+    <row r="51" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="38" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
+    <row r="53" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B56" s="7" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>109</v>
       </c>
     </row>

--- a/gd/标准化文档/命名规范.xlsx
+++ b/gd/标准化文档/命名规范.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="time相关命名规范" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="boss_章节名_章节编号_副本编号_怪物名">副本!$C$9</definedName>
     <definedName name="eft_skill_attackCutSlight">资源相关命名规则!$E$4:$E$24</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="730">
   <si>
     <t>texture</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1479,23 +1480,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>章节名+难度编号+副本编号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>子类首字母大写</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>bossYunmengze11Jiuweihu</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>怪物ID（小怪）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss+副本id+怪物名</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1725,10 +1714,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>bossYunmengze11Jiuweihu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>bossYunmengze11Jiuweihuwp01</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3511,358 +3496,390 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>副本背景音乐id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增音乐资源名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_副本id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_zhujiemian</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光森林第四关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光森林背景音乐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面背景音乐id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体需求文档中描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面音效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_音效用途</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础界面音效（按钮，警告界面弹出等）需要归类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_buttonClick</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon Forest - 4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_yueguangsenlin11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_yueguangsenlin11.ogg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用的音乐音效在soundinfo中直接配置即可，不要出现两首相同音乐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮点击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff图标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_技能spell id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻度物理dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bufficon_debuffDot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bufficon_buff名称去掉b1（dot则不包含程度）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ult+怪物ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊（Boss大招复用小怪，但有特殊修改时）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿姆特大招</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultbossMinghe14Amute</t>
+  </si>
+  <si>
+    <t>直接用文案英文名称做id，如果因为语境不同翻译不同，则加后面的数字区分</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接用文案英文名称做id，如果因为语境不同翻译不同，则加后面的数字区分（例子里的数字代表第4关，不是表示含义不同）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>psvWaguib1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招特殊buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法吸收</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理吸收</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法减伤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理减伤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicReduceb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>phyReduceb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>phyShiledb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffTauntb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffStunb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultbossMinghe14Amuteb1</t>
+  </si>
+  <si>
+    <t>特殊技能buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛙鬼被动buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>spellid+b+数字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicShiledb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicShiledb+数字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>phyShiledb+数字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicReduceb+数字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>phyReduceb+数字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>spellid +b +数字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿穆特boss大招buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffTauntb+数字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffStunb+数字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽（2回合的）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法吸收（3回合的）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理吸收（3回合的）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法减伤（3回合的）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理减伤（3回合的）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕（1回合的）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字区分持续时长不一样的buff，1一般用于标准数值价值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字区分该大招产生不同buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人怪物施法动作用Effect</t>
+  </si>
+  <si>
+    <t>spell技能ID+Cast</t>
+  </si>
+  <si>
+    <t>蜥蜴人被动</t>
+  </si>
+  <si>
+    <t>psvXiyirenCast</t>
+  </si>
+  <si>
+    <t>magicWaterSlightp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>castMetal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体模型scene命名格式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据场景名称命名+数字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultAnpushaPre</t>
+  </si>
+  <si>
+    <t>安普沙大招施法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ult+怪物拼音+Pre/Hit/Buff+2位数字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照类型分为准备“Pre” / 命中“Hit”/ buff“Buff”，如果同类只有一个特效prefab则不需要加数字，2个或以上从01开始。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物拼音+技能拼音</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>meidushaKuangbao</t>
+  </si>
+  <si>
+    <t>美杜莎狂暴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能部分首字母大写</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>都叫monstermesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossmesh命名规范</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体部位代号参照美术需求文档中相关对应，代号能表明意思即可，不限制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>yunmengze11</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>副本背景音乐id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增音乐资源名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg_副本id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg_zhujiemian</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>月光森林第四关</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>月光森林背景音乐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面背景音乐id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体需求文档中描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面音效</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_音效用途</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础界面音效（按钮，警告界面弹出等）需要归类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_buttonClick</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moon Forest - 4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg_yueguangsenlin11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg_yueguangsenlin11.ogg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用的音乐音效在soundinfo中直接配置即可，不要出现两首相同音乐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮点击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff图标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_技能spell id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻度物理dot</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bufficon_debuffDot</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bufficon_buff名称去掉b1（dot则不包含程度）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ult+怪物ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊（Boss大招复用小怪，但有特殊修改时）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿姆特大招</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultbossMinghe14Amute</t>
-  </si>
-  <si>
-    <t>直接用文案英文名称做id，如果因为语境不同翻译不同，则加后面的数字区分</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接用文案英文名称做id，如果因为语境不同翻译不同，则加后面的数字区分（例子里的数字代表第4关，不是表示含义不同）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能buff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>psvWaguib1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招特殊buff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法吸收</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理吸收</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法减伤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理减伤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicReduceb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>phyReduceb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>phyShiledb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffTauntb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffStunb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultbossMinghe14Amuteb1</t>
-  </si>
-  <si>
-    <t>特殊技能buff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛙鬼被动buff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>spellid+b+数字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicShiledb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicShiledb+数字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>phyShiledb+数字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicReduceb+数字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>phyReduceb+数字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>spellid +b +数字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿穆特boss大招buff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffTauntb+数字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffStunb+数字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽（2回合的）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法吸收（3回合的）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理吸收（3回合的）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法减伤（3回合的）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理减伤（3回合的）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕（1回合的）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字区分持续时长不一样的buff，1一般用于标准数值价值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字区分该大招产生不同buff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人怪物施法动作用Effect</t>
-  </si>
-  <si>
-    <t>spell技能ID+Cast</t>
-  </si>
-  <si>
-    <t>蜥蜴人被动</t>
-  </si>
-  <si>
-    <t>psvXiyirenCast</t>
-  </si>
-  <si>
-    <t>magicWaterSlightp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>castMetal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要求</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主体模型scene命名格式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据场景名称命名+数字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultAnpushaPre</t>
-  </si>
-  <si>
-    <t>安普沙大招施法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ult+怪物拼音+Pre/Hit/Buff+2位数字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照类型分为准备“Pre” / 命中“Hit”/ buff“Buff”，如果同类只有一个特效prefab则不需要加数字，2个或以上从01开始。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物拼音+技能拼音</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>meidushaKuangbao</t>
-  </si>
-  <si>
-    <t>美杜莎狂暴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能部分首字母大写</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>都叫monstermesh</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossmesh命名规范</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体部位代号参照美术需求文档中相关对应，代号能表明意思即可，不限制</t>
+    <t>bossYunmengze11Jiuweihu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类首字母大写</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节名+难度编号+副本编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章第一节云梦泽九尾狐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.2.002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改boss命名规范</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss+章节名+章节编号+副本编号+怪物名</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4049,7 +4066,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4095,6 +4112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4381,7 +4404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1"/>
@@ -4475,6 +4498,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="10"/>
@@ -4517,6 +4544,14 @@
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4563,7 +4598,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4595,9 +4630,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4629,6 +4665,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4804,14 +4841,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="10.5" style="7" customWidth="1"/>
@@ -4822,7 +4859,7 @@
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4836,7 +4873,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4850,7 +4887,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -4864,7 +4901,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -4878,7 +4915,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -4904,7 +4941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4914,7 +4951,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>24</v>
@@ -4936,7 +4973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -4950,7 +4987,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
         <v>351</v>
@@ -4970,7 +5007,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -4980,17 +5017,27 @@
       <c r="G15" s="3"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C16" s="4">
+        <v>42376</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="G16" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -5000,7 +5047,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -5010,7 +5057,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -5020,7 +5067,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -5040,7 +5087,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -5050,7 +5097,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -5060,7 +5107,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -5070,7 +5117,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -5084,725 +5131,726 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H13" location="eft_skill_attackCutSlight" display="统一技能相关的命名"/>
+    <hyperlink ref="H16" location="boss_章节名_章节编号_副本编号_怪物名" display="修改boss命名规范"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="46" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
     </row>
-    <row r="3" spans="1:7" ht="18">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
     </row>
-    <row r="4" spans="1:7" ht="17.25">
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
       <c r="B4" s="48" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D4" s="42"/>
     </row>
-    <row r="5" spans="1:7" ht="17.25">
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="42"/>
       <c r="B5" s="48" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25">
+    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="48" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D6" s="42"/>
     </row>
-    <row r="7" spans="1:7" ht="33">
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="41" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D7" s="42"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25">
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="42"/>
       <c r="B8" s="48" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="42"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="42"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="42"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="42" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="42" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="42"/>
       <c r="D14" s="42" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C16" s="42"/>
       <c r="D16" s="42" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="3:7" ht="16.5">
+    <row r="17" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C17" s="42"/>
       <c r="D17" s="42" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
     </row>
-    <row r="18" spans="3:7" ht="16.5">
+    <row r="18" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="42"/>
       <c r="D18" s="42" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
-    <row r="19" spans="3:7" ht="16.5">
+    <row r="19" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C19" s="42"/>
       <c r="D19" s="42" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="3:7" ht="16.5">
+    <row r="20" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C20" s="42"/>
       <c r="D20" s="42" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
     </row>
-    <row r="21" spans="3:7" ht="16.5">
+    <row r="21" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D21" s="42" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="16.5">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C22" s="42" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="3:7" ht="16.5">
+    <row r="23" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C23" s="42"/>
       <c r="D23" s="42" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="3:7" ht="16.5">
+    <row r="24" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C24" s="42"/>
       <c r="D24" s="42" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
     </row>
-    <row r="25" spans="3:7" ht="16.5">
+    <row r="25" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
       <c r="E25" s="42" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G25" s="42"/>
     </row>
-    <row r="26" spans="3:7" ht="16.5">
+    <row r="26" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
       <c r="E26" s="42" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G26" s="42"/>
     </row>
-    <row r="27" spans="3:7" ht="16.5">
+    <row r="27" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" ht="16.5">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D28" s="42"/>
       <c r="E28" s="42"/>
       <c r="F28" s="42" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" ht="16.5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D29" s="42"/>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="45" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" ht="16.5">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D30" s="42"/>
       <c r="E30" s="42" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G30" s="42"/>
     </row>
-    <row r="32" spans="3:7" ht="16.5">
+    <row r="32" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D32" s="42" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
     </row>
-    <row r="33" spans="4:8" ht="16.5">
+    <row r="33" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D33" s="42"/>
       <c r="E33" s="42" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G33" s="42"/>
     </row>
-    <row r="36" spans="4:8" ht="16.5">
+    <row r="36" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D36" s="42" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
     </row>
-    <row r="37" spans="4:8" ht="16.5">
+    <row r="37" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D37" s="42"/>
       <c r="E37" s="42" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
     </row>
-    <row r="38" spans="4:8" ht="16.5">
+    <row r="38" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D38" s="42"/>
       <c r="E38" s="42" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="42" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" ht="16.5">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D39" s="42"/>
       <c r="E39" s="42" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F39" s="42"/>
       <c r="H39" s="42" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" ht="16.5">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D41" s="42" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
     </row>
-    <row r="42" spans="4:8" ht="16.5">
+    <row r="42" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D42" s="42"/>
       <c r="E42" s="42" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" ht="16.5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D43" s="42"/>
       <c r="E43" s="42" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" ht="16.5">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D44" s="42" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F44" s="42"/>
     </row>
-    <row r="45" spans="4:8" ht="16.5">
+    <row r="45" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D45" s="42"/>
       <c r="E45" s="49" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F45" s="42"/>
     </row>
-    <row r="46" spans="4:8" ht="16.5">
+    <row r="46" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D46" s="42"/>
       <c r="E46" s="42" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" ht="16.5">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D47" s="42"/>
       <c r="E47" s="42" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" ht="16.5">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D48" s="42"/>
       <c r="E48" s="42" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" ht="16.5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D49" s="42"/>
       <c r="E49" s="42" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" ht="16.5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D50" s="42"/>
       <c r="E50" s="42" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" ht="16.5">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D51" s="42"/>
       <c r="E51" s="42" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" ht="16.5">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D52" s="42"/>
       <c r="E52" s="42" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" ht="16.5">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D53" s="42"/>
       <c r="E53" s="42" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" ht="16.5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D54" s="42"/>
       <c r="E54" s="42" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" ht="16.5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D55" s="42"/>
       <c r="E55" s="42" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" ht="16.5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
       <c r="E56" s="42" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F56" s="42" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G56" s="42"/>
     </row>
-    <row r="57" spans="3:7" ht="16.5">
+    <row r="57" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C57" s="42" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D57" s="43" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E57" s="42"/>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
     </row>
-    <row r="58" spans="3:7" ht="16.5">
+    <row r="58" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C58" s="42"/>
       <c r="D58" s="49" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E58" s="42"/>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
     </row>
-    <row r="59" spans="3:7" ht="16.5">
+    <row r="59" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C59" s="42"/>
       <c r="D59" s="43" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E59" s="42"/>
       <c r="F59" s="45" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G59" s="42"/>
     </row>
-    <row r="60" spans="3:7" ht="16.5">
+    <row r="60" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C60" s="42"/>
       <c r="D60" s="42" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E60" s="42"/>
       <c r="F60" s="45" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G60" s="42"/>
     </row>
-    <row r="61" spans="3:7" ht="16.5">
+    <row r="61" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C61" s="42"/>
       <c r="D61" s="42" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E61" s="42"/>
       <c r="F61" s="42" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G61" s="42"/>
     </row>
-    <row r="62" spans="3:7" ht="16.5">
+    <row r="62" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
       <c r="E62" s="42"/>
       <c r="F62" s="49" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G62" s="42"/>
     </row>
-    <row r="63" spans="3:7" ht="16.5">
+    <row r="63" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C63" s="42" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E63" s="42"/>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
     </row>
-    <row r="64" spans="3:7" ht="16.5">
+    <row r="64" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C64" s="42" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E64" s="42"/>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
     </row>
-    <row r="65" spans="3:7" ht="16.5">
+    <row r="65" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C65" s="42"/>
       <c r="D65" s="44" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
     </row>
-    <row r="66" spans="3:7" ht="16.5">
+    <row r="66" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C66" s="42"/>
       <c r="D66" s="44"/>
       <c r="E66" s="42" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F66" s="42" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G66" s="42"/>
     </row>
-    <row r="67" spans="3:7" ht="16.5">
+    <row r="67" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C67" s="42"/>
       <c r="D67" s="44"/>
       <c r="E67" s="42"/>
       <c r="F67" s="42" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G67" s="42"/>
     </row>
-    <row r="68" spans="3:7" ht="16.5">
+    <row r="68" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C68" s="42"/>
       <c r="D68" s="44"/>
       <c r="E68" s="42" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G68" s="42"/>
     </row>
-    <row r="69" spans="3:7" ht="16.5">
+    <row r="69" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C69" s="42"/>
       <c r="D69" s="44"/>
       <c r="E69" s="42" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
     </row>
-    <row r="70" spans="3:7" ht="16.5">
+    <row r="70" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C70" s="42"/>
       <c r="D70" s="44"/>
       <c r="E70" s="42"/>
       <c r="F70" s="42" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="71" spans="3:7" ht="16.5">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C71" s="42"/>
       <c r="D71" s="44"/>
       <c r="E71" s="42"/>
       <c r="F71" s="42" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G71" s="42" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7" ht="16.5">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D72" s="44"/>
       <c r="E72" s="42"/>
       <c r="F72" s="42" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="73" spans="3:7" ht="16.5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D73" s="44"/>
       <c r="E73" s="42" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G73" s="42"/>
     </row>
-    <row r="74" spans="3:7" ht="16.5">
+    <row r="74" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D74" s="44"/>
       <c r="E74" s="42" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F74" s="42" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G74" s="42"/>
     </row>
-    <row r="75" spans="3:7" ht="16.5">
+    <row r="75" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D75" s="44"/>
       <c r="E75" s="42" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F75" s="45" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G75" s="45" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="76" spans="3:7" ht="16.5">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D76" s="42" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E76" s="42"/>
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
     </row>
-    <row r="77" spans="3:7" ht="16.5">
+    <row r="77" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D77" s="42" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E77" s="42"/>
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
     </row>
-    <row r="78" spans="3:7" ht="16.5">
+    <row r="78" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D78" s="42" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E78" s="42"/>
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
     </row>
-    <row r="79" spans="3:7" ht="16.5">
+    <row r="79" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D79" s="42" t="s">
         <v>2</v>
       </c>
@@ -5810,181 +5858,181 @@
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
     </row>
-    <row r="80" spans="3:7" ht="16.5">
+    <row r="80" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D80" s="42" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E80" s="42"/>
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
     </row>
-    <row r="81" spans="3:7" ht="16.5">
+    <row r="81" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D81" s="42" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E81" s="42"/>
       <c r="F81" s="42"/>
       <c r="G81" s="42"/>
     </row>
-    <row r="82" spans="3:7" ht="16.5">
+    <row r="82" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D82" s="42" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E82" s="42"/>
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
     </row>
-    <row r="83" spans="3:7" ht="16.5">
+    <row r="83" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D83" s="42" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E83" s="42"/>
       <c r="F83" s="42"/>
       <c r="G83" s="42"/>
     </row>
-    <row r="84" spans="3:7" ht="16.5">
+    <row r="84" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D84" s="42" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E84" s="42"/>
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
     </row>
-    <row r="85" spans="3:7" ht="16.5">
+    <row r="85" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D85" s="42" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E85" s="42"/>
       <c r="F85" s="42"/>
       <c r="G85" s="42"/>
     </row>
-    <row r="86" spans="3:7" ht="16.5">
+    <row r="86" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D86" s="42" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E86" s="42"/>
       <c r="F86" s="42"/>
       <c r="G86" s="42"/>
     </row>
-    <row r="87" spans="3:7" ht="16.5">
+    <row r="87" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D87" s="42" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E87" s="42"/>
       <c r="F87" s="42"/>
       <c r="G87" s="42"/>
     </row>
-    <row r="88" spans="3:7" ht="16.5">
+    <row r="88" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C88" s="42"/>
       <c r="D88" s="42" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E88" s="42"/>
       <c r="F88" s="42"/>
     </row>
-    <row r="89" spans="3:7" ht="16.5">
+    <row r="89" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C89" s="42"/>
       <c r="D89" s="44" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E89" s="42"/>
       <c r="F89" s="42"/>
     </row>
-    <row r="90" spans="3:7" ht="16.5">
+    <row r="90" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C90" s="42"/>
       <c r="D90" s="44" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E90" s="42"/>
       <c r="F90" s="42"/>
     </row>
-    <row r="91" spans="3:7" ht="16.5">
+    <row r="91" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C91" s="42"/>
       <c r="D91" s="42" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E91" s="42"/>
       <c r="F91" s="42"/>
     </row>
-    <row r="92" spans="3:7" ht="16.5">
+    <row r="92" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C92" s="42" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D92" s="42" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E92" s="42"/>
       <c r="F92" s="42"/>
     </row>
-    <row r="93" spans="3:7" ht="16.5">
+    <row r="93" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C93" s="42" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D93" s="42"/>
       <c r="E93" s="42"/>
       <c r="F93" s="42"/>
     </row>
-    <row r="94" spans="3:7" ht="16.5">
+    <row r="94" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C94" s="42"/>
       <c r="D94" s="42" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F94" s="42"/>
     </row>
-    <row r="95" spans="3:7" ht="16.5">
+    <row r="95" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C95" s="42"/>
       <c r="D95" s="42" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E95" s="42"/>
       <c r="F95" s="42"/>
     </row>
-    <row r="96" spans="3:7" ht="16.5">
+    <row r="96" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C96" s="42"/>
       <c r="D96" s="42"/>
       <c r="E96" s="42" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F96" s="42" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="98" spans="3:14" ht="16.5">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C98" s="42"/>
       <c r="D98" s="42"/>
       <c r="E98" s="42" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F98" s="42" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="99" spans="3:14" ht="16.5">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
       <c r="E99" s="42"/>
       <c r="F99" s="42" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" ht="16.5">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C101" s="42"/>
       <c r="D101" s="42" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G101" s="45" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="103" spans="3:14" ht="16.5">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="103" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D103" s="42" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E103" s="42"/>
       <c r="F103" s="42"/>
@@ -5997,13 +6045,13 @@
       <c r="M103" s="42"/>
       <c r="N103" s="42"/>
     </row>
-    <row r="104" spans="3:14" ht="16.5">
+    <row r="104" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D104" s="42"/>
       <c r="E104" s="42" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F104" s="42" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G104" s="42"/>
       <c r="H104" s="42"/>
@@ -6014,13 +6062,13 @@
       <c r="M104" s="42"/>
       <c r="N104" s="42"/>
     </row>
-    <row r="105" spans="3:14" ht="16.5">
+    <row r="105" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D105" s="42"/>
       <c r="E105" s="42" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F105" s="42" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G105" s="42"/>
       <c r="H105" s="42"/>
@@ -6031,9 +6079,9 @@
       <c r="M105" s="42"/>
       <c r="N105" s="42"/>
     </row>
-    <row r="106" spans="3:14" ht="16.5">
+    <row r="106" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D106" s="42" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
@@ -6046,10 +6094,10 @@
       <c r="M106" s="42"/>
       <c r="N106" s="42"/>
     </row>
-    <row r="107" spans="3:14" ht="16.5">
+    <row r="107" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D107" s="42"/>
       <c r="E107" s="42" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F107" s="45"/>
       <c r="G107" s="42"/>
@@ -6061,14 +6109,14 @@
       <c r="M107" s="42"/>
       <c r="N107" s="42"/>
     </row>
-    <row r="108" spans="3:14" ht="16.5">
+    <row r="108" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D108" s="42"/>
       <c r="E108" s="42"/>
       <c r="F108" s="40" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G108" s="40" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H108" s="42"/>
       <c r="I108" s="42"/>
@@ -6077,14 +6125,14 @@
       <c r="M108" s="42"/>
       <c r="N108" s="42"/>
     </row>
-    <row r="109" spans="3:14" ht="16.5">
+    <row r="109" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D109" s="42"/>
       <c r="E109" s="42"/>
       <c r="F109" s="40" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G109" s="40" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H109" s="42"/>
       <c r="I109" s="42"/>
@@ -6093,14 +6141,14 @@
       <c r="M109" s="42"/>
       <c r="N109" s="42"/>
     </row>
-    <row r="110" spans="3:14" ht="16.5">
+    <row r="110" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D110" s="42"/>
       <c r="E110" s="42"/>
       <c r="F110" s="40" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G110" s="40" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H110" s="42"/>
       <c r="I110" s="42"/>
@@ -6109,240 +6157,240 @@
       <c r="M110" s="42"/>
       <c r="N110" s="42"/>
     </row>
-    <row r="111" spans="3:14" ht="16.5">
+    <row r="111" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C111" s="42" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D111" s="42"/>
       <c r="E111" s="42"/>
       <c r="F111" s="42"/>
     </row>
-    <row r="112" spans="3:14" ht="16.5">
+    <row r="112" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C112" s="42"/>
       <c r="D112" s="42" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E112" s="42" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F112" s="42"/>
     </row>
-    <row r="113" spans="3:7" ht="16.5">
+    <row r="113" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C113" s="42"/>
       <c r="D113" s="42" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E113" s="42" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F113" s="42"/>
     </row>
-    <row r="114" spans="3:7" ht="16.5">
+    <row r="114" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C114" s="42"/>
       <c r="D114" s="42"/>
       <c r="E114" s="42" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="115" spans="3:7" ht="16.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C115" s="42"/>
       <c r="D115" s="42"/>
       <c r="E115" s="42" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F115" s="42"/>
     </row>
-    <row r="116" spans="3:7" ht="16.5">
+    <row r="116" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C116" s="42"/>
       <c r="D116" s="42"/>
       <c r="E116" s="42" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F116" s="42"/>
     </row>
-    <row r="117" spans="3:7" ht="16.5">
+    <row r="117" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C117" s="42"/>
       <c r="D117" s="42"/>
       <c r="E117" s="42" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F117" s="42"/>
     </row>
-    <row r="118" spans="3:7" ht="16.5">
+    <row r="118" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C118" s="42"/>
       <c r="D118" s="42"/>
       <c r="E118" s="42" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F118" s="42"/>
     </row>
-    <row r="119" spans="3:7" ht="16.5">
+    <row r="119" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C119" s="42"/>
       <c r="D119" s="42"/>
       <c r="E119" s="42" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F119" s="42"/>
     </row>
-    <row r="120" spans="3:7" ht="16.5">
+    <row r="120" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C120" s="42"/>
       <c r="D120" s="42"/>
       <c r="E120" s="42" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F120" s="42"/>
     </row>
-    <row r="121" spans="3:7" ht="16.5">
+    <row r="121" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C121" s="42"/>
       <c r="D121" s="42"/>
       <c r="E121" s="42" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F121" s="42"/>
     </row>
-    <row r="122" spans="3:7" ht="16.5">
+    <row r="122" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C122" s="42"/>
       <c r="D122" s="42"/>
       <c r="E122" s="42" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F122" s="42"/>
     </row>
-    <row r="123" spans="3:7" ht="16.5">
+    <row r="123" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C123" s="42"/>
       <c r="D123" s="42"/>
       <c r="E123" s="42" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F123" s="42"/>
     </row>
-    <row r="124" spans="3:7" ht="16.5">
+    <row r="124" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C124" s="42"/>
       <c r="D124" s="42"/>
       <c r="E124" s="42" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F124" s="42"/>
     </row>
-    <row r="125" spans="3:7" ht="16.5">
+    <row r="125" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C125" s="42"/>
       <c r="D125" s="42"/>
       <c r="E125" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="F125" s="42"/>
+    </row>
+    <row r="126" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E126" s="42" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E127" s="42" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E128" s="42" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E129" s="42" t="s">
         <v>611</v>
       </c>
-      <c r="F125" s="42"/>
-    </row>
-    <row r="126" spans="3:7" ht="16.5">
-      <c r="E126" s="42" t="s">
+    </row>
+    <row r="130" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E130" s="42" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="127" spans="3:7" ht="16.5">
-      <c r="E127" s="42" t="s">
+    <row r="131" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E131" s="42" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="128" spans="3:7" ht="16.5">
-      <c r="E128" s="42" t="s">
+    <row r="132" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E132" s="42" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="129" spans="5:5" ht="16.5">
-      <c r="E129" s="42" t="s">
+    <row r="133" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E133" s="42" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="130" spans="5:5" ht="16.5">
-      <c r="E130" s="42" t="s">
+    <row r="134" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E134" s="42" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="131" spans="5:5" ht="16.5">
-      <c r="E131" s="42" t="s">
+    <row r="135" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E135" s="42" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="132" spans="5:5" ht="16.5">
-      <c r="E132" s="42" t="s">
+    <row r="136" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E136" s="42" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="133" spans="5:5" ht="16.5">
-      <c r="E133" s="42" t="s">
+    <row r="137" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E137" s="42" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="134" spans="5:5" ht="16.5">
-      <c r="E134" s="42" t="s">
+    <row r="138" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E138" s="42" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="135" spans="5:5" ht="16.5">
-      <c r="E135" s="42" t="s">
+    <row r="139" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E139" s="42" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="136" spans="5:5" ht="16.5">
-      <c r="E136" s="42" t="s">
+    <row r="140" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E140" s="42" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="137" spans="5:5" ht="16.5">
-      <c r="E137" s="42" t="s">
+    <row r="141" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E141" s="42" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="138" spans="5:5" ht="16.5">
-      <c r="E138" s="42" t="s">
+    <row r="142" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E142" s="42" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="139" spans="5:5" ht="16.5">
-      <c r="E139" s="42" t="s">
+    <row r="143" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E143" s="42" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="140" spans="5:5" ht="16.5">
-      <c r="E140" s="42" t="s">
+    <row r="144" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E144" s="42" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="141" spans="5:5" ht="16.5">
-      <c r="E141" s="42" t="s">
+    <row r="145" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E145" s="42" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="142" spans="5:5" ht="16.5">
-      <c r="E142" s="42" t="s">
+    <row r="146" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E146" s="42" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="143" spans="5:5" ht="16.5">
-      <c r="E143" s="42" t="s">
+    <row r="147" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E147" s="42" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="144" spans="5:5" ht="16.5">
-      <c r="E144" s="42" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="145" spans="5:5" ht="16.5">
-      <c r="E145" s="42" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="146" spans="5:5" ht="16.5">
-      <c r="E146" s="42" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="147" spans="5:5" ht="16.5">
-      <c r="E147" s="42" t="s">
-        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -6356,18 +6404,2401 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="76.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>729</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>725</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0000FF"/>
+  </sheetPr>
+  <dimension ref="A1:F67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="76.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="51" t="s">
+        <v>658</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>657</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>659</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>660</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="52" t="s">
+        <v>698</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>699</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>700</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A34" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A37" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A40" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A43" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A46" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A49" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="38" t="s">
+        <v>663</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F60" s="34"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F62" s="34"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B67" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="76.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>702</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>703</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="52" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="B7" s="52" t="s">
+        <v>707</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>710</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>709</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>708</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="52" t="s">
+        <v>712</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>713</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>715</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>714</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="58"/>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="50"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>641</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>646</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E18" s="50"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>656</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>654</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>655</v>
+      </c>
+      <c r="F25" s="57"/>
+    </row>
+    <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D30" s="39"/>
+    </row>
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="12"/>
+      <c r="B32" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="12"/>
+      <c r="B33" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="55"/>
+    </row>
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="52" t="s">
+        <v>719</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="12"/>
+      <c r="B39" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="12"/>
+      <c r="B40" s="52" t="s">
+        <v>718</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="55"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F44" s="53" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F45" s="53"/>
+    </row>
+    <row r="46" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="30"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="12"/>
+      <c r="B48" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="12"/>
+      <c r="C49" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="12"/>
+      <c r="C50" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="12"/>
+      <c r="B53" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="12"/>
+      <c r="C54" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="12"/>
+      <c r="C55" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="12"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="12"/>
+      <c r="B58" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="12"/>
+      <c r="C59" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0000FF"/>
+  </sheetPr>
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C16" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C27" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C30" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C31" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C34" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C35" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C38" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C39" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="12"/>
+      <c r="B43" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="12"/>
+      <c r="C44" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="12"/>
+      <c r="D45" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="12"/>
+      <c r="B47" s="52" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="12"/>
+      <c r="C48" s="52" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="12"/>
+      <c r="D49" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="12"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="12"/>
+      <c r="C52" s="52" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="55"/>
+    </row>
+    <row r="54" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B58" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C59" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C60" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D61" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1" tint="0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="B2:G46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C4" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C12" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D14" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C16" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="24">
+        <v>2</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C22" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="18">
+        <v>3</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C23" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="24">
+        <v>4</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C24" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="18">
+        <v>5</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C25" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="24">
+        <v>6</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="20">
+        <v>7</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C29" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C31" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C32" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C33" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C34" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C35" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C36" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C41" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D42" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D43" s="7">
+        <v>10001</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D45" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D46" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1" tint="0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
@@ -6378,7 +8809,7 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -6398,2391 +8829,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1"/>
-    <row r="3" spans="1:6" ht="82.5">
-      <c r="A3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="9" customFormat="1"/>
-    <row r="8" spans="1:6" s="32" customFormat="1" ht="33">
-      <c r="A8" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="52" customFormat="1"/>
-    <row r="14" spans="1:6" s="9" customFormat="1"/>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1"/>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="9" customFormat="1"/>
-    <row r="22" spans="1:6" s="38" customFormat="1">
-      <c r="A22" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF0000FF"/>
-  </sheetPr>
-  <dimension ref="A1:F67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="16.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="76.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1"/>
-    <row r="3" spans="1:6" ht="66">
-      <c r="A3" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1"/>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="51" t="s">
-        <v>663</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>662</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>664</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>665</v>
-      </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32" s="52" t="s">
-        <v>703</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>704</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>705</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="9" customFormat="1"/>
-    <row r="34" spans="1:6" s="32" customFormat="1" ht="33">
-      <c r="A34" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="32" customFormat="1">
-      <c r="B35" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="32" customFormat="1"/>
-    <row r="37" spans="1:6" s="32" customFormat="1" ht="33">
-      <c r="A37" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="32" customFormat="1">
-      <c r="B38" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="32" customFormat="1"/>
-    <row r="40" spans="1:6" s="32" customFormat="1" ht="33">
-      <c r="A40" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="32" customFormat="1">
-      <c r="B41" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="32" customFormat="1"/>
-    <row r="43" spans="1:6" s="32" customFormat="1" ht="33">
-      <c r="A43" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="32" customFormat="1">
-      <c r="B44" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="32" customFormat="1"/>
-    <row r="46" spans="1:6" s="32" customFormat="1" ht="33">
-      <c r="A46" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="32" customFormat="1">
-      <c r="B47" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="32" customFormat="1"/>
-    <row r="49" spans="1:6" s="32" customFormat="1" ht="33">
-      <c r="A49" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="32" customFormat="1">
-      <c r="B50" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="32" customFormat="1"/>
-    <row r="52" spans="1:6" s="32" customFormat="1">
-      <c r="A52" s="38" t="s">
-        <v>668</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>683</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>685</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>684</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="32" customFormat="1"/>
-    <row r="54" spans="1:6">
-      <c r="B54" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="B55" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="B56" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="B57" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="F58" s="34"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="B59" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="F60" s="34"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="B61" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="F62" s="34"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="9" customFormat="1"/>
-    <row r="66" spans="1:3">
-      <c r="A66" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="B67" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="9.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="76.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1"/>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>707</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>708</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="52" customFormat="1" ht="33">
-      <c r="B7" s="52" t="s">
-        <v>712</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>715</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>714</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>713</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="52" customFormat="1">
-      <c r="B8" s="52" t="s">
-        <v>717</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>718</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>720</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>719</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="52" customFormat="1">
-      <c r="E9" s="58"/>
-      <c r="F9" s="54"/>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1"/>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>653</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1">
-      <c r="B14" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>654</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.25" customHeight="1">
-      <c r="E15" s="50"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>646</v>
-      </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>651</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="E18" s="50"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1"/>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="56" t="s">
-        <v>657</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>661</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>659</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>660</v>
-      </c>
-      <c r="F25" s="57"/>
-    </row>
-    <row r="26" spans="1:6" s="9" customFormat="1"/>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="D30" s="39"/>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1">
-      <c r="A31" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="12"/>
-      <c r="B32" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="12"/>
-      <c r="B33" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="12"/>
-      <c r="B34" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="52" customFormat="1">
-      <c r="A35" s="55"/>
-    </row>
-    <row r="36" spans="1:6" s="9" customFormat="1">
-      <c r="A36" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="52" customFormat="1">
-      <c r="A37" s="52" t="s">
-        <v>724</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="52" customFormat="1">
-      <c r="B38" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="12"/>
-      <c r="B39" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="12"/>
-      <c r="B40" s="52" t="s">
-        <v>723</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="52" customFormat="1">
-      <c r="A41" s="55"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F43" s="53" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="52" customFormat="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F44" s="53" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="52" customFormat="1">
-      <c r="F45" s="53"/>
-    </row>
-    <row r="46" spans="1:6" s="9" customFormat="1">
-      <c r="A46" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="B46" s="30"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="12"/>
-      <c r="B48" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="12"/>
-      <c r="C49" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="12"/>
-      <c r="C50" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="12"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="12"/>
-      <c r="C54" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="12"/>
-      <c r="C55" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="12"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="12"/>
-      <c r="B58" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="12"/>
-      <c r="C59" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF0000FF"/>
-  </sheetPr>
-  <dimension ref="A1:D61"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="13.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1">
-      <c r="A1" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="32" customFormat="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="9" customFormat="1">
-      <c r="A4" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="52" customFormat="1"/>
-    <row r="16" spans="1:4">
-      <c r="C16" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="C17" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="D18" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="C20" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="C21" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="D22" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="C26" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="C27" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="D28" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="C30" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="C31" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="D32" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="C34" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="C35" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="D36" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="C38" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="C39" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="D40" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="9" customFormat="1">
-      <c r="A42" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="12"/>
-      <c r="B43" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="12"/>
-      <c r="C44" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="12"/>
-      <c r="D45" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="12"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="12"/>
-      <c r="B47" s="52" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="12"/>
-      <c r="C48" s="52" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="12"/>
-      <c r="D49" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="12"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="12"/>
-      <c r="B51" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="12"/>
-      <c r="C52" s="52" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="52" customFormat="1">
-      <c r="A53" s="55"/>
-    </row>
-    <row r="54" spans="1:4" s="9" customFormat="1">
-      <c r="A54" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="9" customFormat="1">
-      <c r="A57" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="B58" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="C59" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="C60" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="D61" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor theme="1" tint="0.34998626667073579"/>
-  </sheetPr>
-  <dimension ref="B2:G46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="C3" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="C4" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="C6" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="D7" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="D8" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="D9" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="C10" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="C12" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="D13" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="D14" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="D15" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="C16" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="17.25" thickBot="1"/>
-    <row r="18" spans="2:7">
-      <c r="B18" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="C19" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="24">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="C20" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="C21" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="24">
-        <v>2</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="C22" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="18">
-        <v>3</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="C23" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="24">
-        <v>4</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="C24" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="18">
-        <v>5</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="C25" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="24">
-        <v>6</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="17.25" thickBot="1">
-      <c r="C26" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="20">
-        <v>7</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="17.25" thickBot="1"/>
-    <row r="28" spans="2:7">
-      <c r="B28" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="C29" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="C30" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="C31" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="C32" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="C33" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="C34" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="C35" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="C36" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="17.25" thickBot="1">
-      <c r="C37" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="C41" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="D42" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="D43" s="7">
-        <v>10001</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="D45" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="D46" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor theme="1" tint="0.34998626667073579"/>
-  </sheetPr>
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="76.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1"/>
-    <row r="3" spans="1:6">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>320</v>
       </c>
@@ -8799,7 +8847,7 @@
         <v>10249</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>323</v>
       </c>
@@ -8813,7 +8861,7 @@
         <v>20249</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>325</v>
       </c>
@@ -8827,7 +8875,7 @@
         <v>30014</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>327</v>
       </c>
@@ -8841,8 +8889,8 @@
         <v>40019</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1"/>
-    <row r="9" spans="1:6">
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>333</v>
       </c>
@@ -8859,19 +8907,19 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E14" s="35"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E15" s="35"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E16" s="35"/>
     </row>
   </sheetData>
@@ -8881,7 +8929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
   </sheetPr>
@@ -8891,7 +8939,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
@@ -8902,7 +8950,7 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -8922,8 +8970,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1"/>
-    <row r="3" spans="1:6">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>338</v>
       </c>
@@ -8940,7 +8988,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D4" s="7" t="s">
         <v>341</v>
       </c>
@@ -8948,7 +8996,7 @@
         <v>10061326</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D5" s="7" t="s">
         <v>342</v>
       </c>
@@ -8956,7 +9004,7 @@
         <v>61326</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="7" t="s">
         <v>343</v>
       </c>
@@ -8964,7 +9012,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D7" s="7" t="s">
         <v>344</v>
       </c>
@@ -8972,7 +9020,7 @@
         <v>2015101326</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="7" t="s">
         <v>345</v>
       </c>
@@ -8980,7 +9028,7 @@
         <v>20151326</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="7" t="s">
         <v>347</v>
       </c>
@@ -8988,7 +9036,7 @@
         <v>20151013267</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="7" t="s">
         <v>348</v>
       </c>
@@ -8996,7 +9044,7 @@
         <v>201513267</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D11" s="7" t="s">
         <v>349</v>
       </c>
@@ -9004,7 +9052,7 @@
         <v>13267</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D12" s="7" t="s">
         <v>350</v>
       </c>
@@ -9012,19 +9060,19 @@
         <v>1013267</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E14" s="35"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E15" s="35"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E16" s="35"/>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E17" s="35"/>
     </row>
   </sheetData>

--- a/gd/标准化文档/命名规范.xlsx
+++ b/gd/标准化文档/命名规范.xlsx
@@ -20,13 +20,14 @@
   <definedNames>
     <definedName name="boss_章节名_章节编号_副本编号_怪物名">副本!$C$9</definedName>
     <definedName name="eft_skill_attackCutSlight">资源相关命名规则!$E$4:$E$24</definedName>
+    <definedName name="表现相关">技能逻辑!$A$70:$E$71</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="739">
   <si>
     <t>texture</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -3871,6 +3872,42 @@
     <t>boss+章节名+章节编号+副本编号+怪物名</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>表现相关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方手动大招施法effect</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ult+怪物名+cast</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultJiuweihucast</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方大招施法特效事件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tx+怪物名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>河童2大招</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txHetong2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充大招表现命名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3879,7 +3916,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4066,7 +4103,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4118,6 +4155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4404,7 +4447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1"/>
@@ -4501,6 +4544,10 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -4845,10 +4892,10 @@
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="10.5" style="7" customWidth="1"/>
@@ -4859,7 +4906,7 @@
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4873,7 +4920,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4887,7 +4934,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -4901,7 +4948,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -4915,7 +4962,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -4941,7 +4988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4951,7 +4998,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>24</v>
@@ -4973,7 +5020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -4987,7 +5034,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
         <v>351</v>
@@ -5007,7 +5054,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -5017,7 +5064,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="2" t="s">
         <v>726</v>
@@ -5037,7 +5084,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -5045,9 +5092,11 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H17" s="62" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -5057,7 +5106,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -5067,7 +5116,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -5087,7 +5136,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -5097,7 +5146,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -5107,7 +5156,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -5117,7 +5166,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -5132,6 +5181,7 @@
   <hyperlinks>
     <hyperlink ref="H13" location="eft_skill_attackCutSlight" display="统一技能相关的命名"/>
     <hyperlink ref="H16" location="boss_章节名_章节编号_副本编号_怪物名" display="修改boss命名规范"/>
+    <hyperlink ref="H17" location="表现相关" display="补充大招表现命名"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5145,14 +5195,14 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="21">
       <c r="A1" s="46" t="s">
         <v>446</v>
       </c>
@@ -5160,7 +5210,7 @@
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18">
       <c r="A3" s="47" t="s">
         <v>447</v>
       </c>
@@ -5168,7 +5218,7 @@
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
     </row>
-    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="42"/>
       <c r="B4" s="48" t="s">
         <v>448</v>
@@ -5178,7 +5228,7 @@
       </c>
       <c r="D4" s="42"/>
     </row>
-    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="42"/>
       <c r="B5" s="48" t="s">
         <v>450</v>
@@ -5188,7 +5238,7 @@
       </c>
       <c r="D5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="42"/>
       <c r="B6" s="48" t="s">
         <v>451</v>
@@ -5198,7 +5248,7 @@
       </c>
       <c r="D6" s="42"/>
     </row>
-    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="33">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="41" t="s">
@@ -5206,7 +5256,7 @@
       </c>
       <c r="D7" s="42"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="42"/>
       <c r="B8" s="48" t="s">
         <v>454</v>
@@ -5214,7 +5264,7 @@
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="42"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42" t="s">
@@ -5224,7 +5274,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="42"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42" t="s">
@@ -5234,7 +5284,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="42"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42" t="s">
@@ -5244,7 +5294,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="C12" s="42" t="s">
         <v>462</v>
       </c>
@@ -5255,7 +5305,7 @@
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="C13" s="42" t="s">
         <v>464</v>
       </c>
@@ -5266,7 +5316,7 @@
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="C14" s="42"/>
       <c r="D14" s="42" t="s">
         <v>466</v>
@@ -5275,7 +5325,7 @@
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
         <v>467</v>
@@ -5284,7 +5334,7 @@
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="C16" s="42"/>
       <c r="D16" s="42" t="s">
         <v>468</v>
@@ -5293,7 +5343,7 @@
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" ht="16.5">
       <c r="C17" s="42"/>
       <c r="D17" s="42" t="s">
         <v>469</v>
@@ -5302,7 +5352,7 @@
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
     </row>
-    <row r="18" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" ht="16.5">
       <c r="C18" s="42"/>
       <c r="D18" s="42" t="s">
         <v>470</v>
@@ -5311,7 +5361,7 @@
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
-    <row r="19" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" ht="16.5">
       <c r="C19" s="42"/>
       <c r="D19" s="42" t="s">
         <v>471</v>
@@ -5320,7 +5370,7 @@
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" ht="16.5">
       <c r="C20" s="42"/>
       <c r="D20" s="42" t="s">
         <v>472</v>
@@ -5329,12 +5379,12 @@
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
     </row>
-    <row r="21" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" ht="16.5">
       <c r="D21" s="42" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" ht="16.5">
       <c r="C22" s="42" t="s">
         <v>473</v>
       </c>
@@ -5343,7 +5393,7 @@
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" ht="16.5">
       <c r="C23" s="42"/>
       <c r="D23" s="42" t="s">
         <v>2</v>
@@ -5354,7 +5404,7 @@
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" ht="16.5">
       <c r="C24" s="42"/>
       <c r="D24" s="42" t="s">
         <v>475</v>
@@ -5365,7 +5415,7 @@
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
     </row>
-    <row r="25" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" ht="16.5">
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
       <c r="E25" s="42" t="s">
@@ -5376,7 +5426,7 @@
       </c>
       <c r="G25" s="42"/>
     </row>
-    <row r="26" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" ht="16.5">
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
       <c r="E26" s="42" t="s">
@@ -5387,7 +5437,7 @@
       </c>
       <c r="G26" s="42"/>
     </row>
-    <row r="27" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" ht="16.5">
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
@@ -5398,7 +5448,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" ht="16.5">
       <c r="D28" s="42"/>
       <c r="E28" s="42"/>
       <c r="F28" s="42" t="s">
@@ -5408,7 +5458,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" ht="16.5">
       <c r="D29" s="42"/>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
@@ -5416,7 +5466,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" ht="16.5">
       <c r="D30" s="42"/>
       <c r="E30" s="42" t="s">
         <v>486</v>
@@ -5426,7 +5476,7 @@
       </c>
       <c r="G30" s="42"/>
     </row>
-    <row r="32" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" ht="16.5">
       <c r="D32" s="42" t="s">
         <v>488</v>
       </c>
@@ -5436,7 +5486,7 @@
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
     </row>
-    <row r="33" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:8" ht="16.5">
       <c r="D33" s="42"/>
       <c r="E33" s="42" t="s">
         <v>490</v>
@@ -5446,7 +5496,7 @@
       </c>
       <c r="G33" s="42"/>
     </row>
-    <row r="36" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:8" ht="16.5">
       <c r="D36" s="42" t="s">
         <v>492</v>
       </c>
@@ -5456,7 +5506,7 @@
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
     </row>
-    <row r="37" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:8" ht="16.5">
       <c r="D37" s="42"/>
       <c r="E37" s="42" t="s">
         <v>494</v>
@@ -5464,7 +5514,7 @@
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
     </row>
-    <row r="38" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:8" ht="16.5">
       <c r="D38" s="42"/>
       <c r="E38" s="42" t="s">
         <v>490</v>
@@ -5474,7 +5524,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="39" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:8" ht="16.5">
       <c r="D39" s="42"/>
       <c r="E39" s="42" t="s">
         <v>496</v>
@@ -5484,7 +5534,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="41" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:8" ht="16.5">
       <c r="D41" s="42" t="s">
         <v>498</v>
       </c>
@@ -5494,7 +5544,7 @@
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
     </row>
-    <row r="42" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:8" ht="16.5">
       <c r="D42" s="42"/>
       <c r="E42" s="42" t="s">
         <v>500</v>
@@ -5503,7 +5553,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:8" ht="16.5">
       <c r="D43" s="42"/>
       <c r="E43" s="42" t="s">
         <v>502</v>
@@ -5512,7 +5562,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="44" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:8" ht="16.5">
       <c r="D44" s="42" t="s">
         <v>486</v>
       </c>
@@ -5521,14 +5571,14 @@
       </c>
       <c r="F44" s="42"/>
     </row>
-    <row r="45" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:8" ht="16.5">
       <c r="D45" s="42"/>
       <c r="E45" s="49" t="s">
         <v>505</v>
       </c>
       <c r="F45" s="42"/>
     </row>
-    <row r="46" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:8" ht="16.5">
       <c r="D46" s="42"/>
       <c r="E46" s="42" t="s">
         <v>490</v>
@@ -5537,7 +5587,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:8" ht="16.5">
       <c r="D47" s="42"/>
       <c r="E47" s="42" t="s">
         <v>507</v>
@@ -5546,7 +5596,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="48" spans="4:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:8" ht="16.5">
       <c r="D48" s="42"/>
       <c r="E48" s="42" t="s">
         <v>509</v>
@@ -5555,7 +5605,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="49" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" ht="16.5">
       <c r="D49" s="42"/>
       <c r="E49" s="42" t="s">
         <v>511</v>
@@ -5564,7 +5614,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="50" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" ht="16.5">
       <c r="D50" s="42"/>
       <c r="E50" s="42" t="s">
         <v>513</v>
@@ -5573,7 +5623,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="51" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" ht="16.5">
       <c r="D51" s="42"/>
       <c r="E51" s="42" t="s">
         <v>515</v>
@@ -5582,7 +5632,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="52" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" ht="16.5">
       <c r="D52" s="42"/>
       <c r="E52" s="42" t="s">
         <v>517</v>
@@ -5591,7 +5641,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="53" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" ht="16.5">
       <c r="D53" s="42"/>
       <c r="E53" s="42" t="s">
         <v>519</v>
@@ -5600,7 +5650,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="54" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" ht="16.5">
       <c r="D54" s="42"/>
       <c r="E54" s="42" t="s">
         <v>521</v>
@@ -5609,7 +5659,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="55" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" ht="16.5">
       <c r="D55" s="42"/>
       <c r="E55" s="42" t="s">
         <v>523</v>
@@ -5618,7 +5668,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="56" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" ht="16.5">
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
       <c r="E56" s="42" t="s">
@@ -5629,7 +5679,7 @@
       </c>
       <c r="G56" s="42"/>
     </row>
-    <row r="57" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" ht="16.5">
       <c r="C57" s="42" t="s">
         <v>527</v>
       </c>
@@ -5640,7 +5690,7 @@
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
     </row>
-    <row r="58" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" ht="16.5">
       <c r="C58" s="42"/>
       <c r="D58" s="49" t="s">
         <v>529</v>
@@ -5649,7 +5699,7 @@
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
     </row>
-    <row r="59" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" ht="16.5">
       <c r="C59" s="42"/>
       <c r="D59" s="43" t="s">
         <v>630</v>
@@ -5660,7 +5710,7 @@
       </c>
       <c r="G59" s="42"/>
     </row>
-    <row r="60" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" ht="16.5">
       <c r="C60" s="42"/>
       <c r="D60" s="42" t="s">
         <v>460</v>
@@ -5671,7 +5721,7 @@
       </c>
       <c r="G60" s="42"/>
     </row>
-    <row r="61" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" ht="16.5">
       <c r="C61" s="42"/>
       <c r="D61" s="42" t="s">
         <v>492</v>
@@ -5682,7 +5732,7 @@
       </c>
       <c r="G61" s="42"/>
     </row>
-    <row r="62" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" ht="16.5">
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
       <c r="E62" s="42"/>
@@ -5691,7 +5741,7 @@
       </c>
       <c r="G62" s="42"/>
     </row>
-    <row r="63" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" ht="16.5">
       <c r="C63" s="42" t="s">
         <v>534</v>
       </c>
@@ -5702,7 +5752,7 @@
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
     </row>
-    <row r="64" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" ht="16.5">
       <c r="C64" s="42" t="s">
         <v>536</v>
       </c>
@@ -5713,7 +5763,7 @@
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
     </row>
-    <row r="65" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:7" ht="16.5">
       <c r="C65" s="42"/>
       <c r="D65" s="44" t="s">
         <v>538</v>
@@ -5722,7 +5772,7 @@
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
     </row>
-    <row r="66" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:7" ht="16.5">
       <c r="C66" s="42"/>
       <c r="D66" s="44"/>
       <c r="E66" s="42" t="s">
@@ -5733,7 +5783,7 @@
       </c>
       <c r="G66" s="42"/>
     </row>
-    <row r="67" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:7" ht="16.5">
       <c r="C67" s="42"/>
       <c r="D67" s="44"/>
       <c r="E67" s="42"/>
@@ -5742,7 +5792,7 @@
       </c>
       <c r="G67" s="42"/>
     </row>
-    <row r="68" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:7" ht="16.5">
       <c r="C68" s="42"/>
       <c r="D68" s="44"/>
       <c r="E68" s="42" t="s">
@@ -5753,7 +5803,7 @@
       </c>
       <c r="G68" s="42"/>
     </row>
-    <row r="69" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:7" ht="16.5">
       <c r="C69" s="42"/>
       <c r="D69" s="44"/>
       <c r="E69" s="42" t="s">
@@ -5762,7 +5812,7 @@
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
     </row>
-    <row r="70" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:7" ht="16.5">
       <c r="C70" s="42"/>
       <c r="D70" s="44"/>
       <c r="E70" s="42"/>
@@ -5773,7 +5823,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="71" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:7" ht="16.5">
       <c r="C71" s="42"/>
       <c r="D71" s="44"/>
       <c r="E71" s="42"/>
@@ -5784,7 +5834,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="72" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:7" ht="16.5">
       <c r="D72" s="44"/>
       <c r="E72" s="42"/>
       <c r="F72" s="42" t="s">
@@ -5794,7 +5844,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="73" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:7" ht="16.5">
       <c r="D73" s="44"/>
       <c r="E73" s="42" t="s">
         <v>551</v>
@@ -5804,7 +5854,7 @@
       </c>
       <c r="G73" s="42"/>
     </row>
-    <row r="74" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:7" ht="16.5">
       <c r="D74" s="44"/>
       <c r="E74" s="42" t="s">
         <v>553</v>
@@ -5814,7 +5864,7 @@
       </c>
       <c r="G74" s="42"/>
     </row>
-    <row r="75" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:7" ht="16.5">
       <c r="D75" s="44"/>
       <c r="E75" s="42" t="s">
         <v>555</v>
@@ -5826,7 +5876,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="76" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:7" ht="16.5">
       <c r="D76" s="42" t="s">
         <v>558</v>
       </c>
@@ -5834,7 +5884,7 @@
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
     </row>
-    <row r="77" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:7" ht="16.5">
       <c r="D77" s="42" t="s">
         <v>559</v>
       </c>
@@ -5842,7 +5892,7 @@
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
     </row>
-    <row r="78" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:7" ht="16.5">
       <c r="D78" s="42" t="s">
         <v>509</v>
       </c>
@@ -5850,7 +5900,7 @@
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
     </row>
-    <row r="79" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:7" ht="16.5">
       <c r="D79" s="42" t="s">
         <v>2</v>
       </c>
@@ -5858,7 +5908,7 @@
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
     </row>
-    <row r="80" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:7" ht="16.5">
       <c r="D80" s="42" t="s">
         <v>513</v>
       </c>
@@ -5866,7 +5916,7 @@
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
     </row>
-    <row r="81" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:7" ht="16.5">
       <c r="D81" s="42" t="s">
         <v>560</v>
       </c>
@@ -5874,7 +5924,7 @@
       <c r="F81" s="42"/>
       <c r="G81" s="42"/>
     </row>
-    <row r="82" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:7" ht="16.5">
       <c r="D82" s="42" t="s">
         <v>561</v>
       </c>
@@ -5882,7 +5932,7 @@
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
     </row>
-    <row r="83" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:7" ht="16.5">
       <c r="D83" s="42" t="s">
         <v>517</v>
       </c>
@@ -5890,7 +5940,7 @@
       <c r="F83" s="42"/>
       <c r="G83" s="42"/>
     </row>
-    <row r="84" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:7" ht="16.5">
       <c r="D84" s="42" t="s">
         <v>562</v>
       </c>
@@ -5898,7 +5948,7 @@
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
     </row>
-    <row r="85" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:7" ht="16.5">
       <c r="D85" s="42" t="s">
         <v>563</v>
       </c>
@@ -5906,7 +5956,7 @@
       <c r="F85" s="42"/>
       <c r="G85" s="42"/>
     </row>
-    <row r="86" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:7" ht="16.5">
       <c r="D86" s="42" t="s">
         <v>564</v>
       </c>
@@ -5914,7 +5964,7 @@
       <c r="F86" s="42"/>
       <c r="G86" s="42"/>
     </row>
-    <row r="87" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:7" ht="16.5">
       <c r="D87" s="42" t="s">
         <v>565</v>
       </c>
@@ -5922,7 +5972,7 @@
       <c r="F87" s="42"/>
       <c r="G87" s="42"/>
     </row>
-    <row r="88" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:7" ht="16.5">
       <c r="C88" s="42"/>
       <c r="D88" s="42" t="s">
         <v>566</v>
@@ -5930,7 +5980,7 @@
       <c r="E88" s="42"/>
       <c r="F88" s="42"/>
     </row>
-    <row r="89" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:7" ht="16.5">
       <c r="C89" s="42"/>
       <c r="D89" s="44" t="s">
         <v>567</v>
@@ -5938,7 +5988,7 @@
       <c r="E89" s="42"/>
       <c r="F89" s="42"/>
     </row>
-    <row r="90" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:7" ht="16.5">
       <c r="C90" s="42"/>
       <c r="D90" s="44" t="s">
         <v>568</v>
@@ -5946,7 +5996,7 @@
       <c r="E90" s="42"/>
       <c r="F90" s="42"/>
     </row>
-    <row r="91" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:7" ht="16.5">
       <c r="C91" s="42"/>
       <c r="D91" s="42" t="s">
         <v>569</v>
@@ -5954,7 +6004,7 @@
       <c r="E91" s="42"/>
       <c r="F91" s="42"/>
     </row>
-    <row r="92" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:7" ht="16.5">
       <c r="C92" s="42" t="s">
         <v>570</v>
       </c>
@@ -5964,7 +6014,7 @@
       <c r="E92" s="42"/>
       <c r="F92" s="42"/>
     </row>
-    <row r="93" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:7" ht="16.5">
       <c r="C93" s="42" t="s">
         <v>572</v>
       </c>
@@ -5972,7 +6022,7 @@
       <c r="E93" s="42"/>
       <c r="F93" s="42"/>
     </row>
-    <row r="94" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:7" ht="16.5">
       <c r="C94" s="42"/>
       <c r="D94" s="42" t="s">
         <v>475</v>
@@ -5982,7 +6032,7 @@
       </c>
       <c r="F94" s="42"/>
     </row>
-    <row r="95" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:7" ht="16.5">
       <c r="C95" s="42"/>
       <c r="D95" s="42" t="s">
         <v>574</v>
@@ -5990,7 +6040,7 @@
       <c r="E95" s="42"/>
       <c r="F95" s="42"/>
     </row>
-    <row r="96" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:7" ht="16.5">
       <c r="C96" s="42"/>
       <c r="D96" s="42"/>
       <c r="E96" s="42" t="s">
@@ -6000,7 +6050,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="98" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:14" ht="16.5">
       <c r="C98" s="42"/>
       <c r="D98" s="42"/>
       <c r="E98" s="42" t="s">
@@ -6010,7 +6060,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="99" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:14" ht="16.5">
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
       <c r="E99" s="42"/>
@@ -6018,7 +6068,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="101" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:14" ht="16.5">
       <c r="C101" s="42"/>
       <c r="D101" s="42" t="s">
         <v>580</v>
@@ -6030,7 +6080,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="103" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:14" ht="16.5">
       <c r="D103" s="42" t="s">
         <v>583</v>
       </c>
@@ -6045,7 +6095,7 @@
       <c r="M103" s="42"/>
       <c r="N103" s="42"/>
     </row>
-    <row r="104" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:14" ht="16.5">
       <c r="D104" s="42"/>
       <c r="E104" s="42" t="s">
         <v>631</v>
@@ -6062,7 +6112,7 @@
       <c r="M104" s="42"/>
       <c r="N104" s="42"/>
     </row>
-    <row r="105" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:14" ht="16.5">
       <c r="D105" s="42"/>
       <c r="E105" s="42" t="s">
         <v>632</v>
@@ -6079,7 +6129,7 @@
       <c r="M105" s="42"/>
       <c r="N105" s="42"/>
     </row>
-    <row r="106" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:14" ht="16.5">
       <c r="D106" s="42" t="s">
         <v>586</v>
       </c>
@@ -6094,7 +6144,7 @@
       <c r="M106" s="42"/>
       <c r="N106" s="42"/>
     </row>
-    <row r="107" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:14" ht="16.5">
       <c r="D107" s="42"/>
       <c r="E107" s="42" t="s">
         <v>567</v>
@@ -6109,7 +6159,7 @@
       <c r="M107" s="42"/>
       <c r="N107" s="42"/>
     </row>
-    <row r="108" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:14" ht="16.5">
       <c r="D108" s="42"/>
       <c r="E108" s="42"/>
       <c r="F108" s="40" t="s">
@@ -6125,7 +6175,7 @@
       <c r="M108" s="42"/>
       <c r="N108" s="42"/>
     </row>
-    <row r="109" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:14" ht="16.5">
       <c r="D109" s="42"/>
       <c r="E109" s="42"/>
       <c r="F109" s="40" t="s">
@@ -6141,7 +6191,7 @@
       <c r="M109" s="42"/>
       <c r="N109" s="42"/>
     </row>
-    <row r="110" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:14" ht="16.5">
       <c r="D110" s="42"/>
       <c r="E110" s="42"/>
       <c r="F110" s="40" t="s">
@@ -6157,7 +6207,7 @@
       <c r="M110" s="42"/>
       <c r="N110" s="42"/>
     </row>
-    <row r="111" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:14" ht="16.5">
       <c r="C111" s="42" t="s">
         <v>592</v>
       </c>
@@ -6165,7 +6215,7 @@
       <c r="E111" s="42"/>
       <c r="F111" s="42"/>
     </row>
-    <row r="112" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:14" ht="16.5">
       <c r="C112" s="42"/>
       <c r="D112" s="42" t="s">
         <v>593</v>
@@ -6175,7 +6225,7 @@
       </c>
       <c r="F112" s="42"/>
     </row>
-    <row r="113" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:7" ht="16.5">
       <c r="C113" s="42"/>
       <c r="D113" s="42" t="s">
         <v>566</v>
@@ -6185,7 +6235,7 @@
       </c>
       <c r="F113" s="42"/>
     </row>
-    <row r="114" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:7" ht="16.5">
       <c r="C114" s="42"/>
       <c r="D114" s="42"/>
       <c r="E114" s="42" t="s">
@@ -6195,7 +6245,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="115" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:7" ht="16.5">
       <c r="C115" s="42"/>
       <c r="D115" s="42"/>
       <c r="E115" s="42" t="s">
@@ -6203,7 +6253,7 @@
       </c>
       <c r="F115" s="42"/>
     </row>
-    <row r="116" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:7" ht="16.5">
       <c r="C116" s="42"/>
       <c r="D116" s="42"/>
       <c r="E116" s="42" t="s">
@@ -6211,7 +6261,7 @@
       </c>
       <c r="F116" s="42"/>
     </row>
-    <row r="117" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:7" ht="16.5">
       <c r="C117" s="42"/>
       <c r="D117" s="42"/>
       <c r="E117" s="42" t="s">
@@ -6219,7 +6269,7 @@
       </c>
       <c r="F117" s="42"/>
     </row>
-    <row r="118" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:7" ht="16.5">
       <c r="C118" s="42"/>
       <c r="D118" s="42"/>
       <c r="E118" s="42" t="s">
@@ -6227,7 +6277,7 @@
       </c>
       <c r="F118" s="42"/>
     </row>
-    <row r="119" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:7" ht="16.5">
       <c r="C119" s="42"/>
       <c r="D119" s="42"/>
       <c r="E119" s="42" t="s">
@@ -6235,7 +6285,7 @@
       </c>
       <c r="F119" s="42"/>
     </row>
-    <row r="120" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:7" ht="16.5">
       <c r="C120" s="42"/>
       <c r="D120" s="42"/>
       <c r="E120" s="42" t="s">
@@ -6243,7 +6293,7 @@
       </c>
       <c r="F120" s="42"/>
     </row>
-    <row r="121" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:7" ht="16.5">
       <c r="C121" s="42"/>
       <c r="D121" s="42"/>
       <c r="E121" s="42" t="s">
@@ -6251,7 +6301,7 @@
       </c>
       <c r="F121" s="42"/>
     </row>
-    <row r="122" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:7" ht="16.5">
       <c r="C122" s="42"/>
       <c r="D122" s="42"/>
       <c r="E122" s="42" t="s">
@@ -6259,7 +6309,7 @@
       </c>
       <c r="F122" s="42"/>
     </row>
-    <row r="123" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:7" ht="16.5">
       <c r="C123" s="42"/>
       <c r="D123" s="42"/>
       <c r="E123" s="42" t="s">
@@ -6267,7 +6317,7 @@
       </c>
       <c r="F123" s="42"/>
     </row>
-    <row r="124" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:7" ht="16.5">
       <c r="C124" s="42"/>
       <c r="D124" s="42"/>
       <c r="E124" s="42" t="s">
@@ -6275,7 +6325,7 @@
       </c>
       <c r="F124" s="42"/>
     </row>
-    <row r="125" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:7" ht="16.5">
       <c r="C125" s="42"/>
       <c r="D125" s="42"/>
       <c r="E125" s="42" t="s">
@@ -6283,112 +6333,112 @@
       </c>
       <c r="F125" s="42"/>
     </row>
-    <row r="126" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:7" ht="16.5">
       <c r="E126" s="42" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="127" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:7" ht="16.5">
       <c r="E127" s="42" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="128" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:7" ht="16.5">
       <c r="E128" s="42" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="129" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:5" ht="16.5">
       <c r="E129" s="42" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="130" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:5" ht="16.5">
       <c r="E130" s="42" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="131" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:5" ht="16.5">
       <c r="E131" s="42" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="132" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:5" ht="16.5">
       <c r="E132" s="42" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="133" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:5" ht="16.5">
       <c r="E133" s="42" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="134" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:5" ht="16.5">
       <c r="E134" s="42" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="135" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:5" ht="16.5">
       <c r="E135" s="42" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="136" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:5" ht="16.5">
       <c r="E136" s="42" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="137" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:5" ht="16.5">
       <c r="E137" s="42" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="138" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:5" ht="16.5">
       <c r="E138" s="42" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="139" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:5" ht="16.5">
       <c r="E139" s="42" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="140" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:5" ht="16.5">
       <c r="E140" s="42" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="141" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:5" ht="16.5">
       <c r="E141" s="42" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="142" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:5" ht="16.5">
       <c r="E142" s="42" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="143" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:5" ht="16.5">
       <c r="E143" s="42" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="144" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:5" ht="16.5">
       <c r="E144" s="42" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="145" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:5" ht="16.5">
       <c r="E145" s="42" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="146" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:5" ht="16.5">
       <c r="E146" s="42" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="147" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:5" ht="16.5">
       <c r="E147" s="42" t="s">
         <v>629</v>
       </c>
@@ -6415,7 +6465,7 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
@@ -6426,7 +6476,7 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -6446,8 +6496,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="9" customFormat="1"/>
+    <row r="3" spans="1:6" ht="82.5">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -6467,7 +6517,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
         <v>382</v>
       </c>
@@ -6484,7 +6534,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="B5" s="7" t="s">
         <v>45</v>
       </c>
@@ -6498,7 +6548,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="7" t="s">
         <v>46</v>
       </c>
@@ -6512,8 +6562,8 @@
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="9" customFormat="1"/>
+    <row r="8" spans="1:6" s="32" customFormat="1" ht="33">
       <c r="A8" s="32" t="s">
         <v>35</v>
       </c>
@@ -6533,7 +6583,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="B9" s="7" t="s">
         <v>426</v>
       </c>
@@ -6550,7 +6600,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="B10" s="7" t="s">
         <v>63</v>
       </c>
@@ -6567,7 +6617,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="B11" s="7" t="s">
         <v>379</v>
       </c>
@@ -6584,7 +6634,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="B12" s="7" t="s">
         <v>378</v>
       </c>
@@ -6598,9 +6648,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" s="52" customFormat="1"/>
+    <row r="14" spans="1:6" s="9" customFormat="1"/>
+    <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
@@ -6617,7 +6667,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
@@ -6631,8 +6681,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="9" customFormat="1"/>
+    <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
@@ -6652,7 +6702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="B19" s="7" t="s">
         <v>40</v>
       </c>
@@ -6669,8 +6719,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" s="9" customFormat="1"/>
+    <row r="22" spans="1:6" s="38" customFormat="1">
       <c r="A22" s="38" t="s">
         <v>38</v>
       </c>
@@ -6698,14 +6748,14 @@
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70:E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="7" bestFit="1" customWidth="1"/>
@@ -6716,7 +6766,7 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -6736,8 +6786,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="9" customFormat="1"/>
+    <row r="3" spans="1:6" ht="66">
       <c r="A3" s="7" t="s">
         <v>280</v>
       </c>
@@ -6757,7 +6807,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
         <v>66</v>
       </c>
@@ -6771,7 +6821,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="B5" s="7" t="s">
         <v>67</v>
       </c>
@@ -6785,7 +6835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="7" t="s">
         <v>68</v>
       </c>
@@ -6799,7 +6849,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="B7" s="7" t="s">
         <v>69</v>
       </c>
@@ -6813,7 +6863,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="B8" s="7" t="s">
         <v>70</v>
       </c>
@@ -6827,7 +6877,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="B9" s="7" t="s">
         <v>88</v>
       </c>
@@ -6841,7 +6891,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="B10" s="7" t="s">
         <v>89</v>
       </c>
@@ -6855,7 +6905,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="B11" s="7" t="s">
         <v>90</v>
       </c>
@@ -6869,7 +6919,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="B12" s="7" t="s">
         <v>98</v>
       </c>
@@ -6883,7 +6933,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="11" t="s">
         <v>281</v>
       </c>
@@ -6900,7 +6950,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
         <v>66</v>
@@ -6915,7 +6965,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
         <v>67</v>
@@ -6930,7 +6980,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
         <v>68</v>
@@ -6945,7 +6995,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
         <v>69</v>
@@ -6960,7 +7010,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>70</v>
@@ -6975,7 +7025,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
         <v>88</v>
@@ -6990,7 +7040,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
         <v>89</v>
@@ -7005,7 +7055,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
         <v>90</v>
@@ -7020,7 +7070,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
         <v>98</v>
@@ -7035,8 +7085,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" s="9" customFormat="1"/>
+    <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
         <v>294</v>
       </c>
@@ -7056,7 +7106,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="B25" s="7" t="s">
         <v>110</v>
       </c>
@@ -7073,7 +7123,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="B26" s="51" t="s">
         <v>658</v>
       </c>
@@ -7088,7 +7138,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="B27" s="7" t="s">
         <v>416</v>
       </c>
@@ -7103,7 +7153,7 @@
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="7" t="s">
         <v>295</v>
       </c>
@@ -7121,7 +7171,7 @@
       </c>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="B30" s="7" t="s">
         <v>297</v>
       </c>
@@ -7138,7 +7188,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="B31" s="7" t="s">
         <v>416</v>
       </c>
@@ -7153,7 +7203,7 @@
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6">
       <c r="B32" s="52" t="s">
         <v>698</v>
       </c>
@@ -7167,8 +7217,8 @@
         <v>701</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" s="9" customFormat="1"/>
+    <row r="34" spans="1:6" s="32" customFormat="1" ht="33">
       <c r="A34" s="32" t="s">
         <v>300</v>
       </c>
@@ -7188,7 +7238,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" s="32" customFormat="1">
       <c r="B35" s="32" t="s">
         <v>304</v>
       </c>
@@ -7199,8 +7249,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" s="32" customFormat="1"/>
+    <row r="37" spans="1:6" s="32" customFormat="1" ht="33">
       <c r="A37" s="32" t="s">
         <v>301</v>
       </c>
@@ -7220,7 +7270,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" s="32" customFormat="1">
       <c r="B38" s="32" t="s">
         <v>304</v>
       </c>
@@ -7231,8 +7281,8 @@
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" s="32" customFormat="1"/>
+    <row r="40" spans="1:6" s="32" customFormat="1" ht="33">
       <c r="A40" s="32" t="s">
         <v>302</v>
       </c>
@@ -7252,7 +7302,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" s="32" customFormat="1">
       <c r="B41" s="32" t="s">
         <v>304</v>
       </c>
@@ -7263,8 +7313,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" s="32" customFormat="1"/>
+    <row r="43" spans="1:6" s="32" customFormat="1" ht="33">
       <c r="A43" s="32" t="s">
         <v>308</v>
       </c>
@@ -7284,7 +7334,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" s="32" customFormat="1">
       <c r="B44" s="32" t="s">
         <v>401</v>
       </c>
@@ -7298,8 +7348,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" s="32" customFormat="1"/>
+    <row r="46" spans="1:6" s="32" customFormat="1" ht="33">
       <c r="A46" s="32" t="s">
         <v>309</v>
       </c>
@@ -7319,7 +7369,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" s="32" customFormat="1">
       <c r="B47" s="32" t="s">
         <v>312</v>
       </c>
@@ -7333,8 +7383,8 @@
         <v>414</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:6" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" s="32" customFormat="1"/>
+    <row r="49" spans="1:6" s="32" customFormat="1" ht="33">
       <c r="A49" s="32" t="s">
         <v>310</v>
       </c>
@@ -7354,7 +7404,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" s="32" customFormat="1">
       <c r="B50" s="32" t="s">
         <v>312</v>
       </c>
@@ -7368,8 +7418,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" s="32" customFormat="1"/>
+    <row r="52" spans="1:6" s="32" customFormat="1">
       <c r="A52" s="38" t="s">
         <v>663</v>
       </c>
@@ -7386,8 +7436,8 @@
         <v>664</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" s="32" customFormat="1"/>
+    <row r="54" spans="1:6">
       <c r="B54" s="7" t="s">
         <v>668</v>
       </c>
@@ -7404,7 +7454,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6">
       <c r="B55" s="7" t="s">
         <v>669</v>
       </c>
@@ -7421,7 +7471,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6">
       <c r="B56" s="7" t="s">
         <v>670</v>
       </c>
@@ -7438,7 +7488,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6">
       <c r="B57" s="7" t="s">
         <v>671</v>
       </c>
@@ -7455,10 +7505,10 @@
         <v>696</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6">
       <c r="F58" s="34"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6">
       <c r="B59" s="7" t="s">
         <v>665</v>
       </c>
@@ -7475,10 +7525,10 @@
         <v>696</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6">
       <c r="F60" s="34"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6">
       <c r="B61" s="7" t="s">
         <v>666</v>
       </c>
@@ -7495,10 +7545,10 @@
         <v>696</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6">
       <c r="F62" s="34"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6">
       <c r="A63" s="7" t="s">
         <v>667</v>
       </c>
@@ -7518,8 +7568,8 @@
         <v>697</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" s="9" customFormat="1"/>
+    <row r="66" spans="1:5">
       <c r="A66" s="7" t="s">
         <v>101</v>
       </c>
@@ -7530,12 +7580,45 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5">
       <c r="B67" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="9" customFormat="1"/>
+    <row r="70" spans="1:5">
+      <c r="A70" s="61" t="s">
+        <v>730</v>
+      </c>
+      <c r="B70" s="61" t="s">
+        <v>731</v>
+      </c>
+      <c r="C70" s="61" t="s">
+        <v>732</v>
+      </c>
+      <c r="D70" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="61" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="61"/>
+      <c r="B71" s="61" t="s">
+        <v>734</v>
+      </c>
+      <c r="C71" s="61" t="s">
+        <v>735</v>
+      </c>
+      <c r="D71" s="61" t="s">
+        <v>736</v>
+      </c>
+      <c r="E71" s="61" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -7552,7 +7635,7 @@
       <selection activeCell="C37" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="7" bestFit="1" customWidth="1"/>
@@ -7563,7 +7646,7 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -7583,14 +7666,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="9" customFormat="1"/>
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
         <v>435</v>
       </c>
@@ -7605,7 +7688,7 @@
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="B5" s="7" t="s">
         <v>436</v>
       </c>
@@ -7620,7 +7703,7 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="7" t="s">
         <v>437</v>
       </c>
@@ -7637,7 +7720,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="52" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="52" customFormat="1" ht="33">
       <c r="B7" s="52" t="s">
         <v>707</v>
       </c>
@@ -7654,7 +7737,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="52" customFormat="1">
       <c r="B8" s="52" t="s">
         <v>712</v>
       </c>
@@ -7671,19 +7754,19 @@
         <v>716</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="52" customFormat="1">
       <c r="E9" s="58"/>
       <c r="F9" s="54"/>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="9" customFormat="1"/>
+    <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>366</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="B12" s="7" t="s">
         <v>640</v>
       </c>
@@ -7693,7 +7776,7 @@
       <c r="E12" s="50"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="B13" s="7" t="s">
         <v>634</v>
       </c>
@@ -7708,7 +7791,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1">
       <c r="B14" s="7" t="s">
         <v>635</v>
       </c>
@@ -7725,11 +7808,11 @@
         <v>650</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="17.25" customHeight="1">
       <c r="E15" s="50"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="B16" s="52" t="s">
         <v>121</v>
       </c>
@@ -7739,7 +7822,7 @@
       <c r="E16" s="50"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="B17" s="7" t="s">
         <v>643</v>
       </c>
@@ -7756,12 +7839,12 @@
         <v>645</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="E18" s="50"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="9" customFormat="1"/>
+    <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
         <v>185</v>
       </c>
@@ -7779,7 +7862,7 @@
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="B21" s="7" t="s">
         <v>190</v>
       </c>
@@ -7794,7 +7877,7 @@
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="B22" s="7" t="s">
         <v>191</v>
       </c>
@@ -7809,7 +7892,7 @@
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="B23" s="7" t="s">
         <v>192</v>
       </c>
@@ -7824,7 +7907,7 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="B24" s="7" t="s">
         <v>188</v>
       </c>
@@ -7841,7 +7924,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="B25" s="56" t="s">
         <v>652</v>
       </c>
@@ -7856,8 +7939,8 @@
       </c>
       <c r="F25" s="57"/>
     </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" s="9" customFormat="1"/>
+    <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
         <v>193</v>
       </c>
@@ -7877,7 +7960,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="B28" s="7" t="s">
         <v>198</v>
       </c>
@@ -7894,7 +7977,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="B29" s="7" t="s">
         <v>194</v>
       </c>
@@ -7905,10 +7988,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="D30" s="39"/>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" s="9" customFormat="1">
       <c r="A31" s="29" t="s">
         <v>235</v>
       </c>
@@ -7916,28 +7999,28 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6">
       <c r="A32" s="12"/>
       <c r="B32" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6">
       <c r="A33" s="12"/>
       <c r="B33" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6">
       <c r="A34" s="12"/>
       <c r="B34" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" s="52" customFormat="1">
       <c r="A35" s="55"/>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" s="9" customFormat="1">
       <c r="A36" s="29" t="s">
         <v>3</v>
       </c>
@@ -7945,7 +8028,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" s="52" customFormat="1">
       <c r="A37" s="52" t="s">
         <v>719</v>
       </c>
@@ -7965,7 +8048,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" s="52" customFormat="1">
       <c r="B38" s="52" t="s">
         <v>53</v>
       </c>
@@ -7982,7 +8065,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6">
       <c r="A39" s="12"/>
       <c r="B39" s="7" t="s">
         <v>357</v>
@@ -7991,7 +8074,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6">
       <c r="A40" s="12"/>
       <c r="B40" s="52" t="s">
         <v>718</v>
@@ -8000,15 +8083,15 @@
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" s="52" customFormat="1">
       <c r="A41" s="55"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6">
       <c r="A42" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6">
       <c r="B43" s="7" t="s">
         <v>64</v>
       </c>
@@ -8025,7 +8108,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" s="52" customFormat="1">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
         <v>361</v>
@@ -8043,82 +8126,82 @@
         <v>720</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" s="52" customFormat="1">
       <c r="F45" s="53"/>
     </row>
-    <row r="46" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" s="9" customFormat="1">
       <c r="A46" s="29" t="s">
         <v>238</v>
       </c>
       <c r="B46" s="30"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6">
       <c r="A48" s="12"/>
       <c r="B48" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" s="12"/>
       <c r="C49" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" s="12"/>
       <c r="C50" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" s="12"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" s="12"/>
       <c r="B52" s="12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" s="12"/>
       <c r="B53" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" s="12"/>
       <c r="C54" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" s="12"/>
       <c r="C55" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" s="12"/>
       <c r="B57" s="12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" s="12"/>
       <c r="B58" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" s="12"/>
       <c r="C59" s="7" t="s">
         <v>217</v>
@@ -8142,13 +8225,13 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.75" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="9" customFormat="1">
       <c r="A1" s="29" t="s">
         <v>213</v>
       </c>
@@ -8156,13 +8239,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="32" customFormat="1">
       <c r="A2" s="31"/>
       <c r="B2" s="32" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="9" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>247</v>
       </c>
@@ -8170,144 +8253,144 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="B5" s="12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="C7" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="C8" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="D9" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="C11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="C12" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="D13" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="52" customFormat="1"/>
+    <row r="16" spans="1:4">
       <c r="C16" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4">
       <c r="C17" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4">
       <c r="D18" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4">
       <c r="C20" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4">
       <c r="C21" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4">
       <c r="D22" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4">
       <c r="B24" s="12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4">
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4">
       <c r="C26" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4">
       <c r="C27" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4">
       <c r="D28" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4">
       <c r="C30" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4">
       <c r="C31" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4">
       <c r="D32" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="C34" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="C35" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="D36" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="C38" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="C39" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="D40" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" s="9" customFormat="1">
       <c r="A42" s="29" t="s">
         <v>4</v>
       </c>
@@ -8315,64 +8398,64 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4">
       <c r="A43" s="12"/>
       <c r="B43" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4">
       <c r="A44" s="12"/>
       <c r="C44" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4">
       <c r="A45" s="12"/>
       <c r="D45" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4">
       <c r="A47" s="12"/>
       <c r="B47" s="52" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4">
       <c r="A48" s="12"/>
       <c r="C48" s="52" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4">
       <c r="A49" s="12"/>
       <c r="D49" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4">
       <c r="A50" s="12"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4">
       <c r="A51" s="12"/>
       <c r="B51" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4">
       <c r="A52" s="12"/>
       <c r="C52" s="52" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="52" customFormat="1">
       <c r="A53" s="55"/>
     </row>
-    <row r="54" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" s="9" customFormat="1">
       <c r="A54" s="29" t="s">
         <v>272</v>
       </c>
@@ -8380,7 +8463,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" s="9" customFormat="1">
       <c r="A57" s="29" t="s">
         <v>0</v>
       </c>
@@ -8388,7 +8471,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4">
       <c r="B58" s="7" t="s">
         <v>219</v>
       </c>
@@ -8396,17 +8479,17 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4">
       <c r="C59" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4">
       <c r="C60" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4">
       <c r="D61" s="7" t="s">
         <v>279</v>
       </c>
@@ -8428,7 +8511,7 @@
       <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
@@ -8439,73 +8522,73 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4">
       <c r="B2" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4">
       <c r="C3" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4">
       <c r="C4" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4">
       <c r="C6" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4">
       <c r="D7" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4">
       <c r="D8" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4">
       <c r="D9" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4">
       <c r="C10" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4">
       <c r="C12" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4">
       <c r="D13" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4">
       <c r="D14" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4">
       <c r="D15" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4">
       <c r="C16" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="18" spans="2:7">
       <c r="B18" s="7" t="s">
         <v>151</v>
       </c>
@@ -8519,7 +8602,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7">
       <c r="C19" s="23" t="s">
         <v>117</v>
       </c>
@@ -8533,7 +8616,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7">
       <c r="C20" s="17" t="s">
         <v>118</v>
       </c>
@@ -8547,7 +8630,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7">
       <c r="C21" s="23" t="s">
         <v>173</v>
       </c>
@@ -8561,7 +8644,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7">
       <c r="C22" s="17" t="s">
         <v>119</v>
       </c>
@@ -8575,7 +8658,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7">
       <c r="C23" s="23" t="s">
         <v>120</v>
       </c>
@@ -8589,7 +8672,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7">
       <c r="C24" s="17" t="s">
         <v>121</v>
       </c>
@@ -8603,7 +8686,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7">
       <c r="C25" s="23" t="s">
         <v>122</v>
       </c>
@@ -8617,7 +8700,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" ht="17.25" thickBot="1">
       <c r="C26" s="19" t="s">
         <v>123</v>
       </c>
@@ -8631,8 +8714,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="28" spans="2:7">
       <c r="B28" s="7" t="s">
         <v>152</v>
       </c>
@@ -8646,7 +8729,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7">
       <c r="C29" s="23" t="s">
         <v>133</v>
       </c>
@@ -8657,7 +8740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7">
       <c r="C30" s="17" t="s">
         <v>134</v>
       </c>
@@ -8668,7 +8751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7">
       <c r="C31" s="23" t="s">
         <v>171</v>
       </c>
@@ -8679,7 +8762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7">
       <c r="C32" s="17" t="s">
         <v>172</v>
       </c>
@@ -8690,7 +8773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5">
       <c r="C33" s="23" t="s">
         <v>135</v>
       </c>
@@ -8701,7 +8784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5">
       <c r="C34" s="17" t="s">
         <v>136</v>
       </c>
@@ -8712,7 +8795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5">
       <c r="C35" s="23" t="s">
         <v>137</v>
       </c>
@@ -8723,7 +8806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5">
       <c r="C36" s="17" t="s">
         <v>138</v>
       </c>
@@ -8734,7 +8817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5" ht="17.25" thickBot="1">
       <c r="C37" s="26" t="s">
         <v>139</v>
       </c>
@@ -8745,17 +8828,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5">
       <c r="B40" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5">
       <c r="C41" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5">
       <c r="D42" s="7" t="s">
         <v>161</v>
       </c>
@@ -8763,7 +8846,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5">
       <c r="D43" s="7">
         <v>10001</v>
       </c>
@@ -8771,12 +8854,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5">
       <c r="D45" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5">
       <c r="D46" s="7" t="s">
         <v>165</v>
       </c>
@@ -8798,7 +8881,7 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
@@ -8809,7 +8892,7 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -8829,8 +8912,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="9" customFormat="1"/>
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>320</v>
       </c>
@@ -8847,7 +8930,7 @@
         <v>10249</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
         <v>323</v>
       </c>
@@ -8861,7 +8944,7 @@
         <v>20249</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="B5" s="7" t="s">
         <v>325</v>
       </c>
@@ -8875,7 +8958,7 @@
         <v>30014</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="7" t="s">
         <v>327</v>
       </c>
@@ -8889,8 +8972,8 @@
         <v>40019</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="9" customFormat="1"/>
+    <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>333</v>
       </c>
@@ -8907,19 +8990,19 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="E14" s="35"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="E15" s="35"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="E16" s="35"/>
     </row>
   </sheetData>
@@ -8939,7 +9022,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
@@ -8950,7 +9033,7 @@
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -8970,8 +9053,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="9" customFormat="1"/>
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>338</v>
       </c>
@@ -8988,7 +9071,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="D4" s="7" t="s">
         <v>341</v>
       </c>
@@ -8996,7 +9079,7 @@
         <v>10061326</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="D5" s="7" t="s">
         <v>342</v>
       </c>
@@ -9004,7 +9087,7 @@
         <v>61326</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="D6" s="7" t="s">
         <v>343</v>
       </c>
@@ -9012,7 +9095,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="D7" s="7" t="s">
         <v>344</v>
       </c>
@@ -9020,7 +9103,7 @@
         <v>2015101326</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="D8" s="7" t="s">
         <v>345</v>
       </c>
@@ -9028,7 +9111,7 @@
         <v>20151326</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="D9" s="7" t="s">
         <v>347</v>
       </c>
@@ -9036,7 +9119,7 @@
         <v>20151013267</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="D10" s="7" t="s">
         <v>348</v>
       </c>
@@ -9044,7 +9127,7 @@
         <v>201513267</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="D11" s="7" t="s">
         <v>349</v>
       </c>
@@ -9052,7 +9135,7 @@
         <v>13267</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="D12" s="7" t="s">
         <v>350</v>
       </c>
@@ -9060,19 +9143,19 @@
         <v>1013267</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="E14" s="35"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="E15" s="35"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="E16" s="35"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:5">
       <c r="E17" s="35"/>
     </row>
   </sheetData>
